--- a/2.詳細設計/2-6_詳細設計_顧客情報一覧・表示画面.xlsx
+++ b/2.詳細設計/2-6_詳細設計_顧客情報一覧・表示画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\customerSampleYM\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F28AF06-2CCE-4625-A692-36805BED2A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84AA59-3BA0-4FB5-8286-ADDD31821226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="17475" windowHeight="15555" tabRatio="747" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="645" windowWidth="17475" windowHeight="15555" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="191">
   <si>
     <t>詳細設計書</t>
   </si>
@@ -2219,6 +2219,35 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>処理詳細</t>
+    <rPh sb="0" eb="4">
+      <t>ショリショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ取得SQL文に必要な情報が抜けていたため記述。</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キジュツ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2962,6 +2991,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3090,6 +3125,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3100,9 +3138,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3125,11 +3160,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3280,12 +3315,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7187,9 +7216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7528,28 +7555,28 @@
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
-      <c r="U10" s="83"/>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="83"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="83"/>
-      <c r="AA10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="86"/>
       <c r="AB10" s="63"/>
       <c r="AC10" s="63"/>
       <c r="AD10" s="63"/>
@@ -7566,26 +7593,26 @@
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
-      <c r="U11" s="86"/>
-      <c r="V11" s="86"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="86"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="88"/>
+      <c r="Z11" s="88"/>
+      <c r="AA11" s="89"/>
       <c r="AB11" s="63"/>
       <c r="AC11" s="63"/>
       <c r="AD11" s="63"/>
@@ -7602,26 +7629,26 @@
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="88"/>
+      <c r="AA12" s="89"/>
       <c r="AB12" s="63"/>
       <c r="AC12" s="63"/>
       <c r="AD12" s="63"/>
@@ -7638,28 +7665,28 @@
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
-      <c r="U13" s="86"/>
-      <c r="V13" s="86"/>
-      <c r="W13" s="86"/>
-      <c r="X13" s="86"/>
-      <c r="Y13" s="86"/>
-      <c r="Z13" s="86"/>
-      <c r="AA13" s="87"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="88"/>
+      <c r="Z13" s="88"/>
+      <c r="AA13" s="89"/>
       <c r="AB13" s="63"/>
       <c r="AC13" s="63"/>
       <c r="AD13" s="63"/>
@@ -7676,26 +7703,26 @@
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
-      <c r="AA14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="88"/>
+      <c r="Z14" s="88"/>
+      <c r="AA14" s="89"/>
       <c r="AB14" s="63"/>
       <c r="AC14" s="63"/>
       <c r="AD14" s="63"/>
@@ -7712,26 +7739,26 @@
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+      <c r="AA15" s="92"/>
       <c r="AB15" s="63"/>
       <c r="AC15" s="63"/>
       <c r="AD15" s="63"/>
@@ -8001,28 +8028,28 @@
       <c r="F23" s="62"/>
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
-      <c r="I23" s="91" t="s">
+      <c r="I23" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="93"/>
-      <c r="O23" s="91" t="s">
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="93"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="94"/>
+      <c r="T23" s="94"/>
+      <c r="U23" s="94"/>
+      <c r="V23" s="94"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="95"/>
       <c r="AA23" s="62"/>
       <c r="AB23" s="63"/>
       <c r="AC23" s="63"/>
@@ -8041,24 +8068,24 @@
       <c r="F24" s="62"/>
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
+      <c r="Z24" s="98"/>
       <c r="AA24" s="62"/>
       <c r="AB24" s="63"/>
       <c r="AC24" s="63"/>
@@ -8077,28 +8104,28 @@
       <c r="F25" s="62"/>
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
-      <c r="I25" s="91" t="s">
+      <c r="I25" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="91" t="s">
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="93"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="95"/>
       <c r="AA25" s="62"/>
       <c r="AB25" s="63"/>
       <c r="AC25" s="63"/>
@@ -8117,24 +8144,24 @@
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="95"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+      <c r="S26" s="97"/>
+      <c r="T26" s="97"/>
+      <c r="U26" s="97"/>
+      <c r="V26" s="97"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="97"/>
+      <c r="Z26" s="98"/>
       <c r="AA26" s="62"/>
       <c r="AB26" s="63"/>
       <c r="AC26" s="63"/>
@@ -8153,28 +8180,28 @@
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
-      <c r="I27" s="91" t="s">
+      <c r="I27" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="91" t="s">
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="94"/>
+      <c r="Z27" s="95"/>
       <c r="AA27" s="62"/>
       <c r="AB27" s="63"/>
       <c r="AC27" s="63"/>
@@ -8193,24 +8220,24 @@
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="95"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+      <c r="S28" s="97"/>
+      <c r="T28" s="97"/>
+      <c r="U28" s="97"/>
+      <c r="V28" s="97"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="97"/>
+      <c r="Z28" s="98"/>
       <c r="AA28" s="62"/>
       <c r="AB28" s="63"/>
       <c r="AC28" s="63"/>
@@ -8229,28 +8256,28 @@
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="91" t="s">
+      <c r="I29" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="93"/>
-      <c r="O29" s="97">
-        <v>44540</v>
-      </c>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="99">
+        <v>44545</v>
+      </c>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="94"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
+      <c r="Z29" s="95"/>
       <c r="AA29" s="62"/>
       <c r="AB29" s="63"/>
       <c r="AC29" s="63"/>
@@ -8269,24 +8296,24 @@
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
       <c r="H30" s="62"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="96"/>
+      <c r="P30" s="97"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="97"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="98"/>
       <c r="AA30" s="62"/>
       <c r="AB30" s="63"/>
       <c r="AC30" s="63"/>
@@ -8305,28 +8332,28 @@
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
       <c r="H31" s="62"/>
-      <c r="I31" s="91" t="s">
+      <c r="I31" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="91" t="s">
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="93"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="94"/>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="95"/>
       <c r="AA31" s="62"/>
       <c r="AB31" s="63"/>
       <c r="AC31" s="63"/>
@@ -8345,24 +8372,24 @@
       <c r="F32" s="62"/>
       <c r="G32" s="62"/>
       <c r="H32" s="62"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
+      <c r="S32" s="97"/>
+      <c r="T32" s="97"/>
+      <c r="U32" s="97"/>
+      <c r="V32" s="97"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="97"/>
+      <c r="Z32" s="98"/>
       <c r="AA32" s="62"/>
       <c r="AB32" s="63"/>
       <c r="AC32" s="63"/>
@@ -8381,28 +8408,28 @@
       <c r="F33" s="62"/>
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
-      <c r="I33" s="91" t="s">
+      <c r="I33" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="97">
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="99">
         <v>44539</v>
       </c>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="93"/>
+      <c r="P33" s="94"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="94"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="95"/>
       <c r="AA33" s="62"/>
       <c r="AB33" s="63"/>
       <c r="AC33" s="63"/>
@@ -8421,24 +8448,24 @@
       <c r="F34" s="62"/>
       <c r="G34" s="62"/>
       <c r="H34" s="62"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="94"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="98"/>
       <c r="AA34" s="62"/>
       <c r="AB34" s="63"/>
       <c r="AC34" s="63"/>
@@ -8692,7 +8719,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2:AX2"/>
+      <selection activeCell="U7" sqref="U7:AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8703,127 +8730,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="102" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="107" t="str">
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="109" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="107"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="105" t="s">
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="109"/>
+      <c r="AK1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="105"/>
-      <c r="AN1" s="105"/>
-      <c r="AO1" s="105"/>
-      <c r="AP1" s="105"/>
-      <c r="AQ1" s="105"/>
-      <c r="AR1" s="104" t="str">
+      <c r="AL1" s="107"/>
+      <c r="AM1" s="107"/>
+      <c r="AN1" s="107"/>
+      <c r="AO1" s="107"/>
+      <c r="AP1" s="107"/>
+      <c r="AQ1" s="107"/>
+      <c r="AR1" s="106" t="str">
         <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="104"/>
-      <c r="AV1" s="104"/>
-      <c r="AW1" s="104"/>
-      <c r="AX1" s="104"/>
+      <c r="AS1" s="106"/>
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106"/>
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="102" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="105" t="s">
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="106"/>
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="106"/>
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="106"/>
+      <c r="AG2" s="106"/>
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="106"/>
+      <c r="AJ2" s="106"/>
+      <c r="AK2" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="105"/>
-      <c r="AP2" s="105"/>
-      <c r="AQ2" s="105"/>
-      <c r="AR2" s="106">
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="108">
         <f>'0.表紙'!O33</f>
         <v>44539</v>
       </c>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="106"/>
-      <c r="AU2" s="106"/>
-      <c r="AV2" s="106"/>
-      <c r="AW2" s="106"/>
-      <c r="AX2" s="106"/>
+      <c r="AS2" s="108"/>
+      <c r="AT2" s="108"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="108"/>
+      <c r="AW2" s="108"/>
+      <c r="AX2" s="108"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -8846,1001 +8873,1009 @@
       <c r="R3" s="51"/>
     </row>
     <row r="4" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99" t="s">
+      <c r="B4" s="101"/>
+      <c r="C4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99" t="s">
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="110" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Y4" s="110"/>
-      <c r="Z4" s="110"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="110"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AO4" s="110"/>
-      <c r="AP4" s="110"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AW4" s="110"/>
-      <c r="AX4" s="110"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="112"/>
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="112"/>
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="112"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="112"/>
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="112"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="112"/>
+      <c r="AQ4" s="112"/>
+      <c r="AR4" s="112"/>
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="112"/>
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="112"/>
+      <c r="AW4" s="112"/>
+      <c r="AX4" s="112"/>
     </row>
     <row r="5" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103">
+      <c r="A5" s="105">
         <v>1</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="109">
+      <c r="B5" s="105"/>
+      <c r="C5" s="111">
         <v>44539</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="100" t="s">
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100" t="s">
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="111" t="s">
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="111"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-      <c r="Y5" s="111"/>
-      <c r="Z5" s="111"/>
-      <c r="AA5" s="111"/>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="111"/>
-      <c r="AG5" s="111"/>
-      <c r="AH5" s="111"/>
-      <c r="AI5" s="111"/>
-      <c r="AJ5" s="111"/>
-      <c r="AK5" s="111"/>
-      <c r="AL5" s="111"/>
-      <c r="AM5" s="111"/>
-      <c r="AN5" s="111"/>
-      <c r="AO5" s="111"/>
-      <c r="AP5" s="111"/>
-      <c r="AQ5" s="111"/>
-      <c r="AR5" s="111"/>
-      <c r="AS5" s="111"/>
-      <c r="AT5" s="111"/>
-      <c r="AU5" s="111"/>
-      <c r="AV5" s="111"/>
-      <c r="AW5" s="111"/>
-      <c r="AX5" s="111"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+      <c r="Y5" s="113"/>
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="113"/>
+      <c r="AB5" s="113"/>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="113"/>
+      <c r="AG5" s="113"/>
+      <c r="AH5" s="113"/>
+      <c r="AI5" s="113"/>
+      <c r="AJ5" s="113"/>
+      <c r="AK5" s="113"/>
+      <c r="AL5" s="113"/>
+      <c r="AM5" s="113"/>
+      <c r="AN5" s="113"/>
+      <c r="AO5" s="113"/>
+      <c r="AP5" s="113"/>
+      <c r="AQ5" s="113"/>
+      <c r="AR5" s="113"/>
+      <c r="AS5" s="113"/>
+      <c r="AT5" s="113"/>
+      <c r="AU5" s="113"/>
+      <c r="AV5" s="113"/>
+      <c r="AW5" s="113"/>
+      <c r="AX5" s="113"/>
     </row>
     <row r="6" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="103">
+      <c r="A6" s="105">
         <v>2</v>
       </c>
-      <c r="B6" s="103"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="111"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="111"/>
-      <c r="AB6" s="111"/>
-      <c r="AC6" s="111"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="111"/>
-      <c r="AF6" s="111"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="111"/>
-      <c r="AK6" s="111"/>
-      <c r="AL6" s="111"/>
-      <c r="AM6" s="111"/>
-      <c r="AN6" s="111"/>
-      <c r="AO6" s="111"/>
-      <c r="AP6" s="111"/>
-      <c r="AQ6" s="111"/>
-      <c r="AR6" s="111"/>
-      <c r="AS6" s="111"/>
-      <c r="AT6" s="111"/>
-      <c r="AU6" s="111"/>
-      <c r="AV6" s="111"/>
-      <c r="AW6" s="111"/>
-      <c r="AX6" s="111"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="111">
+        <v>44545</v>
+      </c>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="102"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="113"/>
+      <c r="AK6" s="113"/>
+      <c r="AL6" s="113"/>
+      <c r="AM6" s="113"/>
+      <c r="AN6" s="113"/>
+      <c r="AO6" s="113"/>
+      <c r="AP6" s="113"/>
+      <c r="AQ6" s="113"/>
+      <c r="AR6" s="113"/>
+      <c r="AS6" s="113"/>
+      <c r="AT6" s="113"/>
+      <c r="AU6" s="113"/>
+      <c r="AV6" s="113"/>
+      <c r="AW6" s="113"/>
+      <c r="AX6" s="113"/>
     </row>
     <row r="7" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="103">
+      <c r="A7" s="105">
         <v>3</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-      <c r="W7" s="111"/>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="111"/>
-      <c r="AF7" s="111"/>
-      <c r="AG7" s="111"/>
-      <c r="AH7" s="111"/>
-      <c r="AI7" s="111"/>
-      <c r="AJ7" s="111"/>
-      <c r="AK7" s="111"/>
-      <c r="AL7" s="111"/>
-      <c r="AM7" s="111"/>
-      <c r="AN7" s="111"/>
-      <c r="AO7" s="111"/>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="111"/>
-      <c r="AS7" s="111"/>
-      <c r="AT7" s="111"/>
-      <c r="AU7" s="111"/>
-      <c r="AV7" s="111"/>
-      <c r="AW7" s="111"/>
-      <c r="AX7" s="111"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="102"/>
+      <c r="T7" s="102"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="113"/>
+      <c r="AK7" s="113"/>
+      <c r="AL7" s="113"/>
+      <c r="AM7" s="113"/>
+      <c r="AN7" s="113"/>
+      <c r="AO7" s="113"/>
+      <c r="AP7" s="113"/>
+      <c r="AQ7" s="113"/>
+      <c r="AR7" s="113"/>
+      <c r="AS7" s="113"/>
+      <c r="AT7" s="113"/>
+      <c r="AU7" s="113"/>
+      <c r="AV7" s="113"/>
+      <c r="AW7" s="113"/>
+      <c r="AX7" s="113"/>
     </row>
     <row r="8" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="103">
+      <c r="A8" s="105">
         <v>4</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="100"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="100"/>
-      <c r="T8" s="100"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="111"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="111"/>
-      <c r="AL8" s="111"/>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="111"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="111"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="113"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="113"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="113"/>
+      <c r="AS8" s="113"/>
+      <c r="AT8" s="113"/>
+      <c r="AU8" s="113"/>
+      <c r="AV8" s="113"/>
+      <c r="AW8" s="113"/>
+      <c r="AX8" s="113"/>
     </row>
     <row r="9" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="103">
+      <c r="A9" s="105">
         <v>5</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="100"/>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="100"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="100"/>
-      <c r="T9" s="100"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="111"/>
-      <c r="AJ9" s="111"/>
-      <c r="AK9" s="111"/>
-      <c r="AL9" s="111"/>
-      <c r="AM9" s="111"/>
-      <c r="AN9" s="111"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="111"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="111"/>
-      <c r="AX9" s="111"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="113"/>
+      <c r="AJ9" s="113"/>
+      <c r="AK9" s="113"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="113"/>
+      <c r="AP9" s="113"/>
+      <c r="AQ9" s="113"/>
+      <c r="AR9" s="113"/>
+      <c r="AS9" s="113"/>
+      <c r="AT9" s="113"/>
+      <c r="AU9" s="113"/>
+      <c r="AV9" s="113"/>
+      <c r="AW9" s="113"/>
+      <c r="AX9" s="113"/>
     </row>
     <row r="10" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="103">
+      <c r="A10" s="105">
         <v>6</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="100"/>
-      <c r="T10" s="100"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
-      <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="111"/>
-      <c r="AH10" s="111"/>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="111"/>
-      <c r="AK10" s="111"/>
-      <c r="AL10" s="111"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="111"/>
-      <c r="AO10" s="111"/>
-      <c r="AP10" s="111"/>
-      <c r="AQ10" s="111"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="111"/>
-      <c r="AU10" s="111"/>
-      <c r="AV10" s="111"/>
-      <c r="AW10" s="111"/>
-      <c r="AX10" s="111"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="113"/>
+      <c r="AN10" s="113"/>
+      <c r="AO10" s="113"/>
+      <c r="AP10" s="113"/>
+      <c r="AQ10" s="113"/>
+      <c r="AR10" s="113"/>
+      <c r="AS10" s="113"/>
+      <c r="AT10" s="113"/>
+      <c r="AU10" s="113"/>
+      <c r="AV10" s="113"/>
+      <c r="AW10" s="113"/>
+      <c r="AX10" s="113"/>
     </row>
     <row r="11" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="103">
+      <c r="A11" s="105">
         <v>7</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="100"/>
-      <c r="R11" s="100"/>
-      <c r="S11" s="100"/>
-      <c r="T11" s="100"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="111"/>
-      <c r="AK11" s="111"/>
-      <c r="AL11" s="111"/>
-      <c r="AM11" s="111"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="111"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
-      <c r="AX11" s="111"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="113"/>
+      <c r="AJ11" s="113"/>
+      <c r="AK11" s="113"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="113"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
     </row>
     <row r="12" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="103">
+      <c r="A12" s="105">
         <v>8</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="100"/>
-      <c r="S12" s="100"/>
-      <c r="T12" s="100"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111"/>
-      <c r="AF12" s="111"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="111"/>
-      <c r="AI12" s="111"/>
-      <c r="AJ12" s="111"/>
-      <c r="AK12" s="111"/>
-      <c r="AL12" s="111"/>
-      <c r="AM12" s="111"/>
-      <c r="AN12" s="111"/>
-      <c r="AO12" s="111"/>
-      <c r="AP12" s="111"/>
-      <c r="AQ12" s="111"/>
-      <c r="AR12" s="111"/>
-      <c r="AS12" s="111"/>
-      <c r="AT12" s="111"/>
-      <c r="AU12" s="111"/>
-      <c r="AV12" s="111"/>
-      <c r="AW12" s="111"/>
-      <c r="AX12" s="111"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="113"/>
+      <c r="AN12" s="113"/>
+      <c r="AO12" s="113"/>
+      <c r="AP12" s="113"/>
+      <c r="AQ12" s="113"/>
+      <c r="AR12" s="113"/>
+      <c r="AS12" s="113"/>
+      <c r="AT12" s="113"/>
+      <c r="AU12" s="113"/>
+      <c r="AV12" s="113"/>
+      <c r="AW12" s="113"/>
+      <c r="AX12" s="113"/>
     </row>
     <row r="13" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="103">
+      <c r="A13" s="105">
         <v>9</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="111"/>
-      <c r="AF13" s="111"/>
-      <c r="AG13" s="111"/>
-      <c r="AH13" s="111"/>
-      <c r="AI13" s="111"/>
-      <c r="AJ13" s="111"/>
-      <c r="AK13" s="111"/>
-      <c r="AL13" s="111"/>
-      <c r="AM13" s="111"/>
-      <c r="AN13" s="111"/>
-      <c r="AO13" s="111"/>
-      <c r="AP13" s="111"/>
-      <c r="AQ13" s="111"/>
-      <c r="AR13" s="111"/>
-      <c r="AS13" s="111"/>
-      <c r="AT13" s="111"/>
-      <c r="AU13" s="111"/>
-      <c r="AV13" s="111"/>
-      <c r="AW13" s="111"/>
-      <c r="AX13" s="111"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="113"/>
+      <c r="AW13" s="113"/>
+      <c r="AX13" s="113"/>
     </row>
     <row r="14" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="103">
+      <c r="A14" s="105">
         <v>10</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
-      <c r="T14" s="100"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-      <c r="W14" s="111"/>
-      <c r="X14" s="111"/>
-      <c r="Y14" s="111"/>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="111"/>
-      <c r="AF14" s="111"/>
-      <c r="AG14" s="111"/>
-      <c r="AH14" s="111"/>
-      <c r="AI14" s="111"/>
-      <c r="AJ14" s="111"/>
-      <c r="AK14" s="111"/>
-      <c r="AL14" s="111"/>
-      <c r="AM14" s="111"/>
-      <c r="AN14" s="111"/>
-      <c r="AO14" s="111"/>
-      <c r="AP14" s="111"/>
-      <c r="AQ14" s="111"/>
-      <c r="AR14" s="111"/>
-      <c r="AS14" s="111"/>
-      <c r="AT14" s="111"/>
-      <c r="AU14" s="111"/>
-      <c r="AV14" s="111"/>
-      <c r="AW14" s="111"/>
-      <c r="AX14" s="111"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="113"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="113"/>
+      <c r="AN14" s="113"/>
+      <c r="AO14" s="113"/>
+      <c r="AP14" s="113"/>
+      <c r="AQ14" s="113"/>
+      <c r="AR14" s="113"/>
+      <c r="AS14" s="113"/>
+      <c r="AT14" s="113"/>
+      <c r="AU14" s="113"/>
+      <c r="AV14" s="113"/>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
     </row>
     <row r="15" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="103">
+      <c r="A15" s="105">
         <v>11</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
-      <c r="T15" s="100"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-      <c r="W15" s="111"/>
-      <c r="X15" s="111"/>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="111"/>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="111"/>
-      <c r="AF15" s="111"/>
-      <c r="AG15" s="111"/>
-      <c r="AH15" s="111"/>
-      <c r="AI15" s="111"/>
-      <c r="AJ15" s="111"/>
-      <c r="AK15" s="111"/>
-      <c r="AL15" s="111"/>
-      <c r="AM15" s="111"/>
-      <c r="AN15" s="111"/>
-      <c r="AO15" s="111"/>
-      <c r="AP15" s="111"/>
-      <c r="AQ15" s="111"/>
-      <c r="AR15" s="111"/>
-      <c r="AS15" s="111"/>
-      <c r="AT15" s="111"/>
-      <c r="AU15" s="111"/>
-      <c r="AV15" s="111"/>
-      <c r="AW15" s="111"/>
-      <c r="AX15" s="111"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="113"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="113"/>
+      <c r="AN15" s="113"/>
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="113"/>
+      <c r="AQ15" s="113"/>
+      <c r="AR15" s="113"/>
+      <c r="AS15" s="113"/>
+      <c r="AT15" s="113"/>
+      <c r="AU15" s="113"/>
+      <c r="AV15" s="113"/>
+      <c r="AW15" s="113"/>
+      <c r="AX15" s="113"/>
     </row>
     <row r="16" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="103">
+      <c r="A16" s="105">
         <v>12</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
-      <c r="T16" s="100"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-      <c r="W16" s="111"/>
-      <c r="X16" s="111"/>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="111"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111"/>
-      <c r="AC16" s="111"/>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="111"/>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="111"/>
-      <c r="AH16" s="111"/>
-      <c r="AI16" s="111"/>
-      <c r="AJ16" s="111"/>
-      <c r="AK16" s="111"/>
-      <c r="AL16" s="111"/>
-      <c r="AM16" s="111"/>
-      <c r="AN16" s="111"/>
-      <c r="AO16" s="111"/>
-      <c r="AP16" s="111"/>
-      <c r="AQ16" s="111"/>
-      <c r="AR16" s="111"/>
-      <c r="AS16" s="111"/>
-      <c r="AT16" s="111"/>
-      <c r="AU16" s="111"/>
-      <c r="AV16" s="111"/>
-      <c r="AW16" s="111"/>
-      <c r="AX16" s="111"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="113"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="113"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="113"/>
+      <c r="AP16" s="113"/>
+      <c r="AQ16" s="113"/>
+      <c r="AR16" s="113"/>
+      <c r="AS16" s="113"/>
+      <c r="AT16" s="113"/>
+      <c r="AU16" s="113"/>
+      <c r="AV16" s="113"/>
+      <c r="AW16" s="113"/>
+      <c r="AX16" s="113"/>
     </row>
     <row r="17" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="103">
+      <c r="A17" s="105">
         <v>13</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="100"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="100"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
-      <c r="W17" s="111"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="111"/>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="111"/>
-      <c r="AG17" s="111"/>
-      <c r="AH17" s="111"/>
-      <c r="AI17" s="111"/>
-      <c r="AJ17" s="111"/>
-      <c r="AK17" s="111"/>
-      <c r="AL17" s="111"/>
-      <c r="AM17" s="111"/>
-      <c r="AN17" s="111"/>
-      <c r="AO17" s="111"/>
-      <c r="AP17" s="111"/>
-      <c r="AQ17" s="111"/>
-      <c r="AR17" s="111"/>
-      <c r="AS17" s="111"/>
-      <c r="AT17" s="111"/>
-      <c r="AU17" s="111"/>
-      <c r="AV17" s="111"/>
-      <c r="AW17" s="111"/>
-      <c r="AX17" s="111"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="113"/>
+      <c r="AN17" s="113"/>
+      <c r="AO17" s="113"/>
+      <c r="AP17" s="113"/>
+      <c r="AQ17" s="113"/>
+      <c r="AR17" s="113"/>
+      <c r="AS17" s="113"/>
+      <c r="AT17" s="113"/>
+      <c r="AU17" s="113"/>
+      <c r="AV17" s="113"/>
+      <c r="AW17" s="113"/>
+      <c r="AX17" s="113"/>
     </row>
     <row r="18" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="103">
+      <c r="A18" s="105">
         <v>14</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="100"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="100"/>
-      <c r="T18" s="100"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="111"/>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="111"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="111"/>
-      <c r="AG18" s="111"/>
-      <c r="AH18" s="111"/>
-      <c r="AI18" s="111"/>
-      <c r="AJ18" s="111"/>
-      <c r="AK18" s="111"/>
-      <c r="AL18" s="111"/>
-      <c r="AM18" s="111"/>
-      <c r="AN18" s="111"/>
-      <c r="AO18" s="111"/>
-      <c r="AP18" s="111"/>
-      <c r="AQ18" s="111"/>
-      <c r="AR18" s="111"/>
-      <c r="AS18" s="111"/>
-      <c r="AT18" s="111"/>
-      <c r="AU18" s="111"/>
-      <c r="AV18" s="111"/>
-      <c r="AW18" s="111"/>
-      <c r="AX18" s="111"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="113"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="113"/>
+      <c r="AN18" s="113"/>
+      <c r="AO18" s="113"/>
+      <c r="AP18" s="113"/>
+      <c r="AQ18" s="113"/>
+      <c r="AR18" s="113"/>
+      <c r="AS18" s="113"/>
+      <c r="AT18" s="113"/>
+      <c r="AU18" s="113"/>
+      <c r="AV18" s="113"/>
+      <c r="AW18" s="113"/>
+      <c r="AX18" s="113"/>
     </row>
     <row r="19" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="103">
+      <c r="A19" s="105">
         <v>15</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
-      <c r="T19" s="100"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-      <c r="W19" s="111"/>
-      <c r="X19" s="111"/>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111"/>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="111"/>
-      <c r="AE19" s="111"/>
-      <c r="AF19" s="111"/>
-      <c r="AG19" s="111"/>
-      <c r="AH19" s="111"/>
-      <c r="AI19" s="111"/>
-      <c r="AJ19" s="111"/>
-      <c r="AK19" s="111"/>
-      <c r="AL19" s="111"/>
-      <c r="AM19" s="111"/>
-      <c r="AN19" s="111"/>
-      <c r="AO19" s="111"/>
-      <c r="AP19" s="111"/>
-      <c r="AQ19" s="111"/>
-      <c r="AR19" s="111"/>
-      <c r="AS19" s="111"/>
-      <c r="AT19" s="111"/>
-      <c r="AU19" s="111"/>
-      <c r="AV19" s="111"/>
-      <c r="AW19" s="111"/>
-      <c r="AX19" s="111"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="113"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="113"/>
+      <c r="AN19" s="113"/>
+      <c r="AO19" s="113"/>
+      <c r="AP19" s="113"/>
+      <c r="AQ19" s="113"/>
+      <c r="AR19" s="113"/>
+      <c r="AS19" s="113"/>
+      <c r="AT19" s="113"/>
+      <c r="AU19" s="113"/>
+      <c r="AV19" s="113"/>
+      <c r="AW19" s="113"/>
+      <c r="AX19" s="113"/>
     </row>
     <row r="20" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="103">
+      <c r="A20" s="105">
         <v>16</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="100"/>
-      <c r="S20" s="100"/>
-      <c r="T20" s="100"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="111"/>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="111"/>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="111"/>
-      <c r="AE20" s="111"/>
-      <c r="AF20" s="111"/>
-      <c r="AG20" s="111"/>
-      <c r="AH20" s="111"/>
-      <c r="AI20" s="111"/>
-      <c r="AJ20" s="111"/>
-      <c r="AK20" s="111"/>
-      <c r="AL20" s="111"/>
-      <c r="AM20" s="111"/>
-      <c r="AN20" s="111"/>
-      <c r="AO20" s="111"/>
-      <c r="AP20" s="111"/>
-      <c r="AQ20" s="111"/>
-      <c r="AR20" s="111"/>
-      <c r="AS20" s="111"/>
-      <c r="AT20" s="111"/>
-      <c r="AU20" s="111"/>
-      <c r="AV20" s="111"/>
-      <c r="AW20" s="111"/>
-      <c r="AX20" s="111"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="113"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="113"/>
+      <c r="AN20" s="113"/>
+      <c r="AO20" s="113"/>
+      <c r="AP20" s="113"/>
+      <c r="AQ20" s="113"/>
+      <c r="AR20" s="113"/>
+      <c r="AS20" s="113"/>
+      <c r="AT20" s="113"/>
+      <c r="AU20" s="113"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
     </row>
     <row r="21" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="108">
+      <c r="A21" s="110">
         <v>17</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
-      <c r="T21" s="113"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="114"/>
-      <c r="Z21" s="114"/>
-      <c r="AA21" s="114"/>
-      <c r="AB21" s="114"/>
-      <c r="AC21" s="114"/>
-      <c r="AD21" s="114"/>
-      <c r="AE21" s="114"/>
-      <c r="AF21" s="114"/>
-      <c r="AG21" s="114"/>
-      <c r="AH21" s="114"/>
-      <c r="AI21" s="114"/>
-      <c r="AJ21" s="114"/>
-      <c r="AK21" s="114"/>
-      <c r="AL21" s="114"/>
-      <c r="AM21" s="114"/>
-      <c r="AN21" s="114"/>
-      <c r="AO21" s="114"/>
-      <c r="AP21" s="114"/>
-      <c r="AQ21" s="114"/>
-      <c r="AR21" s="114"/>
-      <c r="AS21" s="114"/>
-      <c r="AT21" s="114"/>
-      <c r="AU21" s="114"/>
-      <c r="AV21" s="114"/>
-      <c r="AW21" s="114"/>
-      <c r="AX21" s="114"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="115"/>
+      <c r="R21" s="115"/>
+      <c r="S21" s="115"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="116"/>
+      <c r="V21" s="116"/>
+      <c r="W21" s="116"/>
+      <c r="X21" s="116"/>
+      <c r="Y21" s="116"/>
+      <c r="Z21" s="116"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="116"/>
+      <c r="AC21" s="116"/>
+      <c r="AD21" s="116"/>
+      <c r="AE21" s="116"/>
+      <c r="AF21" s="116"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="116"/>
+      <c r="AI21" s="116"/>
+      <c r="AJ21" s="116"/>
+      <c r="AK21" s="116"/>
+      <c r="AL21" s="116"/>
+      <c r="AM21" s="116"/>
+      <c r="AN21" s="116"/>
+      <c r="AO21" s="116"/>
+      <c r="AP21" s="116"/>
+      <c r="AQ21" s="116"/>
+      <c r="AR21" s="116"/>
+      <c r="AS21" s="116"/>
+      <c r="AT21" s="116"/>
+      <c r="AU21" s="116"/>
+      <c r="AV21" s="116"/>
+      <c r="AW21" s="116"/>
+      <c r="AX21" s="116"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="98"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -9853,13 +9888,13 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -9872,13 +9907,13 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -9891,13 +9926,13 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -9910,13 +9945,13 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -9929,13 +9964,13 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -9948,13 +9983,13 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="98"/>
-      <c r="Q29" s="98"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -9967,13 +10002,13 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -9986,13 +10021,13 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="98"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -10005,13 +10040,13 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="98"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -10024,13 +10059,13 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
-      <c r="P33" s="98"/>
-      <c r="Q33" s="98"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -10043,13 +10078,13 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="98"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -10062,13 +10097,13 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K35" s="98"/>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="98"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -10081,13 +10116,13 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K36" s="98"/>
-      <c r="L36" s="98"/>
-      <c r="M36" s="98"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="98"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="98"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -10100,13 +10135,13 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K37" s="98"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="98"/>
-      <c r="N37" s="98"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="98"/>
-      <c r="Q37" s="98"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -10119,13 +10154,13 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="98"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -10138,13 +10173,13 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K39" s="98"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="98"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -10157,13 +10192,13 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K40" s="98"/>
-      <c r="L40" s="98"/>
-      <c r="M40" s="98"/>
-      <c r="N40" s="98"/>
-      <c r="O40" s="98"/>
-      <c r="P40" s="98"/>
-      <c r="Q40" s="98"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -10361,133 +10396,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="118" t="s">
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="130" t="str">
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="132" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
-      <c r="AA1" s="130"/>
-      <c r="AB1" s="130"/>
-      <c r="AC1" s="130"/>
-      <c r="AD1" s="130"/>
-      <c r="AE1" s="120" t="s">
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="121"/>
-      <c r="AI1" s="115" t="s">
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
+      <c r="AH1" s="123"/>
+      <c r="AI1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="116"/>
-      <c r="AK1" s="116"/>
-      <c r="AL1" s="116"/>
-      <c r="AM1" s="116"/>
-      <c r="AN1" s="117"/>
-      <c r="AO1" s="123" t="s">
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="119"/>
+      <c r="AO1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="115" t="s">
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="127"/>
+      <c r="AS1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="116"/>
-      <c r="AU1" s="116"/>
-      <c r="AV1" s="116"/>
-      <c r="AW1" s="116"/>
-      <c r="AX1" s="117"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="118"/>
+      <c r="AX1" s="119"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128"/>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="118" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="119"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="119"/>
-      <c r="AE2" s="120" t="s">
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="120"/>
-      <c r="AG2" s="120"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="122">
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="124">
         <v>44539</v>
       </c>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="116"/>
-      <c r="AL2" s="116"/>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="123" t="s">
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="119"/>
+      <c r="AO2" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="124"/>
-      <c r="AQ2" s="124"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="122">
+      <c r="AP2" s="126"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="127"/>
+      <c r="AS2" s="124">
         <v>44539</v>
       </c>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="116"/>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="116"/>
-      <c r="AX2" s="117"/>
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="118"/>
+      <c r="AX2" s="119"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="66"/>
@@ -11913,153 +11948,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="149" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="144" t="str">
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
+      <c r="O1" s="151"/>
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="151"/>
+      <c r="S1" s="145" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="144"/>
-      <c r="U1" s="144"/>
-      <c r="V1" s="144"/>
-      <c r="W1" s="144"/>
-      <c r="X1" s="144"/>
-      <c r="Y1" s="144"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="144"/>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="144"/>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="144"/>
-      <c r="AG1" s="146" t="s">
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="146"/>
-      <c r="AI1" s="146"/>
-      <c r="AJ1" s="146"/>
-      <c r="AK1" s="146"/>
-      <c r="AL1" s="146"/>
-      <c r="AM1" s="146"/>
-      <c r="AN1" s="144" t="s">
+      <c r="AH1" s="148"/>
+      <c r="AI1" s="148"/>
+      <c r="AJ1" s="148"/>
+      <c r="AK1" s="148"/>
+      <c r="AL1" s="148"/>
+      <c r="AM1" s="148"/>
+      <c r="AN1" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="144"/>
-      <c r="AP1" s="144"/>
-      <c r="AQ1" s="144"/>
-      <c r="AR1" s="144"/>
-      <c r="AS1" s="144"/>
-      <c r="AT1" s="144"/>
-      <c r="AU1" s="146" t="s">
+      <c r="AO1" s="145"/>
+      <c r="AP1" s="145"/>
+      <c r="AQ1" s="145"/>
+      <c r="AR1" s="145"/>
+      <c r="AS1" s="145"/>
+      <c r="AT1" s="145"/>
+      <c r="AU1" s="148" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="146"/>
-      <c r="AW1" s="146"/>
-      <c r="AX1" s="146"/>
-      <c r="AY1" s="146"/>
-      <c r="AZ1" s="146"/>
-      <c r="BA1" s="146"/>
-      <c r="BB1" s="144" t="s">
+      <c r="AV1" s="148"/>
+      <c r="AW1" s="148"/>
+      <c r="AX1" s="148"/>
+      <c r="AY1" s="148"/>
+      <c r="AZ1" s="148"/>
+      <c r="BA1" s="148"/>
+      <c r="BB1" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="BC1" s="144"/>
-      <c r="BD1" s="144"/>
-      <c r="BE1" s="144"/>
-      <c r="BF1" s="144"/>
-      <c r="BG1" s="144"/>
-      <c r="BH1" s="144"/>
+      <c r="BC1" s="145"/>
+      <c r="BD1" s="145"/>
+      <c r="BE1" s="145"/>
+      <c r="BF1" s="145"/>
+      <c r="BG1" s="145"/>
+      <c r="BH1" s="145"/>
     </row>
     <row r="2" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="149" t="s">
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="144"/>
-      <c r="U2" s="144"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="144"/>
-      <c r="X2" s="144"/>
-      <c r="Y2" s="144"/>
-      <c r="Z2" s="144"/>
-      <c r="AA2" s="144"/>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="144"/>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="147" t="s">
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
+      <c r="O2" s="151"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="151"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
+      <c r="AG2" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="147"/>
-      <c r="AJ2" s="147"/>
-      <c r="AK2" s="147"/>
-      <c r="AL2" s="147"/>
-      <c r="AM2" s="147"/>
-      <c r="AN2" s="145">
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="147">
         <v>44539</v>
       </c>
-      <c r="AO2" s="145"/>
-      <c r="AP2" s="145"/>
-      <c r="AQ2" s="145"/>
-      <c r="AR2" s="145"/>
-      <c r="AS2" s="145"/>
-      <c r="AT2" s="145"/>
-      <c r="AU2" s="147" t="s">
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="AV2" s="147"/>
-      <c r="AW2" s="147"/>
-      <c r="AX2" s="147"/>
-      <c r="AY2" s="147"/>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
-      <c r="BB2" s="145">
+      <c r="AV2" s="149"/>
+      <c r="AW2" s="149"/>
+      <c r="AX2" s="149"/>
+      <c r="AY2" s="149"/>
+      <c r="AZ2" s="149"/>
+      <c r="BA2" s="149"/>
+      <c r="BB2" s="147">
         <v>44539</v>
       </c>
-      <c r="BC2" s="145"/>
-      <c r="BD2" s="145"/>
-      <c r="BE2" s="145"/>
-      <c r="BF2" s="145"/>
-      <c r="BG2" s="145"/>
-      <c r="BH2" s="145"/>
+      <c r="BC2" s="147"/>
+      <c r="BD2" s="147"/>
+      <c r="BE2" s="147"/>
+      <c r="BF2" s="147"/>
+      <c r="BG2" s="147"/>
+      <c r="BH2" s="147"/>
     </row>
     <row r="3" spans="1:93" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
@@ -12124,80 +12159,80 @@
       <c r="BH3" s="10"/>
     </row>
     <row r="4" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148" t="s">
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="142" t="s">
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142" t="s">
+      <c r="R4" s="144"/>
+      <c r="S4" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
-      <c r="AB4" s="142"/>
-      <c r="AC4" s="142" t="s">
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Y4" s="144"/>
+      <c r="Z4" s="144"/>
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="142"/>
-      <c r="AE4" s="142"/>
-      <c r="AF4" s="142"/>
-      <c r="AG4" s="142"/>
-      <c r="AH4" s="142"/>
-      <c r="AI4" s="142"/>
-      <c r="AJ4" s="142"/>
-      <c r="AK4" s="142"/>
-      <c r="AL4" s="142"/>
-      <c r="AM4" s="142"/>
-      <c r="AN4" s="142"/>
-      <c r="AO4" s="142"/>
-      <c r="AP4" s="142"/>
-      <c r="AQ4" s="142"/>
-      <c r="AR4" s="142"/>
-      <c r="AS4" s="143" t="s">
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AG4" s="144"/>
+      <c r="AH4" s="144"/>
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AO4" s="144"/>
+      <c r="AP4" s="144"/>
+      <c r="AQ4" s="144"/>
+      <c r="AR4" s="144"/>
+      <c r="AS4" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="AT4" s="143"/>
-      <c r="AU4" s="143"/>
-      <c r="AV4" s="143"/>
-      <c r="AW4" s="143"/>
-      <c r="AX4" s="143"/>
-      <c r="AY4" s="143"/>
-      <c r="AZ4" s="143"/>
-      <c r="BA4" s="143"/>
-      <c r="BB4" s="143"/>
-      <c r="BC4" s="143"/>
-      <c r="BD4" s="143"/>
-      <c r="BE4" s="143"/>
-      <c r="BF4" s="143"/>
-      <c r="BG4" s="143"/>
-      <c r="BH4" s="143"/>
+      <c r="AT4" s="146"/>
+      <c r="AU4" s="146"/>
+      <c r="AV4" s="146"/>
+      <c r="AW4" s="146"/>
+      <c r="AX4" s="146"/>
+      <c r="AY4" s="146"/>
+      <c r="AZ4" s="146"/>
+      <c r="BA4" s="146"/>
+      <c r="BB4" s="146"/>
+      <c r="BC4" s="146"/>
+      <c r="BD4" s="146"/>
+      <c r="BE4" s="146"/>
+      <c r="BF4" s="146"/>
+      <c r="BG4" s="146"/>
+      <c r="BH4" s="146"/>
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
       <c r="BL4" s="17"/>
@@ -12232,76 +12267,76 @@
       <c r="CO4" s="17"/>
     </row>
     <row r="5" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="148"/>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="142"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="151" t="s">
+      <c r="A5" s="150"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="150"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="142" t="s">
+      <c r="T5" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="142"/>
-      <c r="X5" s="142"/>
-      <c r="Y5" s="142" t="s">
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="142"/>
-      <c r="AA5" s="142"/>
-      <c r="AB5" s="142"/>
-      <c r="AC5" s="142" t="s">
+      <c r="Z5" s="144"/>
+      <c r="AA5" s="144"/>
+      <c r="AB5" s="144"/>
+      <c r="AC5" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
-      <c r="AF5" s="142"/>
-      <c r="AG5" s="142"/>
-      <c r="AH5" s="142"/>
-      <c r="AI5" s="142"/>
-      <c r="AJ5" s="142"/>
-      <c r="AK5" s="142" t="s">
+      <c r="AD5" s="144"/>
+      <c r="AE5" s="144"/>
+      <c r="AF5" s="144"/>
+      <c r="AG5" s="144"/>
+      <c r="AH5" s="144"/>
+      <c r="AI5" s="144"/>
+      <c r="AJ5" s="144"/>
+      <c r="AK5" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="AL5" s="142"/>
-      <c r="AM5" s="142"/>
-      <c r="AN5" s="142"/>
-      <c r="AO5" s="142"/>
-      <c r="AP5" s="142"/>
-      <c r="AQ5" s="142"/>
-      <c r="AR5" s="142"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="143"/>
-      <c r="AV5" s="143"/>
-      <c r="AW5" s="143"/>
-      <c r="AX5" s="143"/>
-      <c r="AY5" s="143"/>
-      <c r="AZ5" s="143"/>
-      <c r="BA5" s="143"/>
-      <c r="BB5" s="143"/>
-      <c r="BC5" s="143"/>
-      <c r="BD5" s="143"/>
-      <c r="BE5" s="143"/>
-      <c r="BF5" s="143"/>
-      <c r="BG5" s="143"/>
-      <c r="BH5" s="143"/>
+      <c r="AL5" s="144"/>
+      <c r="AM5" s="144"/>
+      <c r="AN5" s="144"/>
+      <c r="AO5" s="144"/>
+      <c r="AP5" s="144"/>
+      <c r="AQ5" s="144"/>
+      <c r="AR5" s="144"/>
+      <c r="AS5" s="146"/>
+      <c r="AT5" s="146"/>
+      <c r="AU5" s="146"/>
+      <c r="AV5" s="146"/>
+      <c r="AW5" s="146"/>
+      <c r="AX5" s="146"/>
+      <c r="AY5" s="146"/>
+      <c r="AZ5" s="146"/>
+      <c r="BA5" s="146"/>
+      <c r="BB5" s="146"/>
+      <c r="BC5" s="146"/>
+      <c r="BD5" s="146"/>
+      <c r="BE5" s="146"/>
+      <c r="BF5" s="146"/>
+      <c r="BG5" s="146"/>
+      <c r="BH5" s="146"/>
       <c r="BJ5" s="17"/>
       <c r="BK5" s="17"/>
       <c r="BL5" s="17"/>
@@ -12336,70 +12371,70 @@
       <c r="CO5" s="17"/>
     </row>
     <row r="6" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="148"/>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="142"/>
-      <c r="R6" s="142"/>
-      <c r="S6" s="151"/>
-      <c r="T6" s="142"/>
-      <c r="U6" s="142"/>
-      <c r="V6" s="142"/>
-      <c r="W6" s="142"/>
-      <c r="X6" s="142"/>
-      <c r="Y6" s="142" t="s">
+      <c r="A6" s="150"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="150"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="144"/>
+      <c r="W6" s="144"/>
+      <c r="X6" s="144"/>
+      <c r="Y6" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="142"/>
-      <c r="AA6" s="142" t="s">
+      <c r="Z6" s="144"/>
+      <c r="AA6" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="142"/>
-      <c r="AC6" s="142"/>
-      <c r="AD6" s="142"/>
-      <c r="AE6" s="142"/>
-      <c r="AF6" s="142"/>
-      <c r="AG6" s="142"/>
-      <c r="AH6" s="142"/>
-      <c r="AI6" s="142"/>
-      <c r="AJ6" s="142"/>
-      <c r="AK6" s="142"/>
-      <c r="AL6" s="142"/>
-      <c r="AM6" s="142"/>
-      <c r="AN6" s="142"/>
-      <c r="AO6" s="142"/>
-      <c r="AP6" s="142"/>
-      <c r="AQ6" s="142"/>
-      <c r="AR6" s="142"/>
-      <c r="AS6" s="143"/>
-      <c r="AT6" s="143"/>
-      <c r="AU6" s="143"/>
-      <c r="AV6" s="143"/>
-      <c r="AW6" s="143"/>
-      <c r="AX6" s="143"/>
-      <c r="AY6" s="143"/>
-      <c r="AZ6" s="143"/>
-      <c r="BA6" s="143"/>
-      <c r="BB6" s="143"/>
-      <c r="BC6" s="143"/>
-      <c r="BD6" s="143"/>
-      <c r="BE6" s="143"/>
-      <c r="BF6" s="143"/>
-      <c r="BG6" s="143"/>
-      <c r="BH6" s="143"/>
+      <c r="AB6" s="144"/>
+      <c r="AC6" s="144"/>
+      <c r="AD6" s="144"/>
+      <c r="AE6" s="144"/>
+      <c r="AF6" s="144"/>
+      <c r="AG6" s="144"/>
+      <c r="AH6" s="144"/>
+      <c r="AI6" s="144"/>
+      <c r="AJ6" s="144"/>
+      <c r="AK6" s="144"/>
+      <c r="AL6" s="144"/>
+      <c r="AM6" s="144"/>
+      <c r="AN6" s="144"/>
+      <c r="AO6" s="144"/>
+      <c r="AP6" s="144"/>
+      <c r="AQ6" s="144"/>
+      <c r="AR6" s="144"/>
+      <c r="AS6" s="146"/>
+      <c r="AT6" s="146"/>
+      <c r="AU6" s="146"/>
+      <c r="AV6" s="146"/>
+      <c r="AW6" s="146"/>
+      <c r="AX6" s="146"/>
+      <c r="AY6" s="146"/>
+      <c r="AZ6" s="146"/>
+      <c r="BA6" s="146"/>
+      <c r="BB6" s="146"/>
+      <c r="BC6" s="146"/>
+      <c r="BD6" s="146"/>
+      <c r="BE6" s="146"/>
+      <c r="BF6" s="146"/>
+      <c r="BG6" s="146"/>
+      <c r="BH6" s="146"/>
       <c r="BJ6" s="17"/>
       <c r="BK6" s="17"/>
       <c r="BL6" s="17"/>
@@ -12434,88 +12469,88 @@
       <c r="CO6" s="17"/>
     </row>
     <row r="7" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="135">
+      <c r="A7" s="133">
         <v>1</v>
       </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="131" t="s">
+      <c r="B7" s="133"/>
+      <c r="C7" s="134" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="144" t="s">
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="144"/>
+      <c r="R7" s="145"/>
       <c r="S7" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="144" t="s">
+      <c r="T7" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="144"/>
-      <c r="V7" s="144"/>
-      <c r="W7" s="144"/>
-      <c r="X7" s="144"/>
-      <c r="Y7" s="144" t="s">
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
+      <c r="W7" s="145"/>
+      <c r="X7" s="145"/>
+      <c r="Y7" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="144"/>
-      <c r="AA7" s="144" t="s">
+      <c r="Z7" s="145"/>
+      <c r="AA7" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AB7" s="144"/>
-      <c r="AC7" s="144" t="s">
+      <c r="AB7" s="145"/>
+      <c r="AC7" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AD7" s="144"/>
-      <c r="AE7" s="144"/>
-      <c r="AF7" s="144"/>
-      <c r="AG7" s="144"/>
-      <c r="AH7" s="144"/>
-      <c r="AI7" s="144"/>
-      <c r="AJ7" s="144"/>
-      <c r="AK7" s="144" t="s">
+      <c r="AD7" s="145"/>
+      <c r="AE7" s="145"/>
+      <c r="AF7" s="145"/>
+      <c r="AG7" s="145"/>
+      <c r="AH7" s="145"/>
+      <c r="AI7" s="145"/>
+      <c r="AJ7" s="145"/>
+      <c r="AK7" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AL7" s="144"/>
-      <c r="AM7" s="144"/>
-      <c r="AN7" s="144"/>
-      <c r="AO7" s="144"/>
-      <c r="AP7" s="144"/>
-      <c r="AQ7" s="144"/>
-      <c r="AR7" s="144"/>
-      <c r="AS7" s="168" t="s">
+      <c r="AL7" s="145"/>
+      <c r="AM7" s="145"/>
+      <c r="AN7" s="145"/>
+      <c r="AO7" s="145"/>
+      <c r="AP7" s="145"/>
+      <c r="AQ7" s="145"/>
+      <c r="AR7" s="145"/>
+      <c r="AS7" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="AT7" s="168"/>
-      <c r="AU7" s="168"/>
-      <c r="AV7" s="168"/>
-      <c r="AW7" s="168"/>
-      <c r="AX7" s="168"/>
-      <c r="AY7" s="168"/>
-      <c r="AZ7" s="168"/>
-      <c r="BA7" s="168"/>
-      <c r="BB7" s="168"/>
-      <c r="BC7" s="168"/>
-      <c r="BD7" s="168"/>
-      <c r="BE7" s="168"/>
-      <c r="BF7" s="168"/>
-      <c r="BG7" s="168"/>
-      <c r="BH7" s="168"/>
+      <c r="AT7" s="170"/>
+      <c r="AU7" s="170"/>
+      <c r="AV7" s="170"/>
+      <c r="AW7" s="170"/>
+      <c r="AX7" s="170"/>
+      <c r="AY7" s="170"/>
+      <c r="AZ7" s="170"/>
+      <c r="BA7" s="170"/>
+      <c r="BB7" s="170"/>
+      <c r="BC7" s="170"/>
+      <c r="BD7" s="170"/>
+      <c r="BE7" s="170"/>
+      <c r="BF7" s="170"/>
+      <c r="BG7" s="170"/>
+      <c r="BH7" s="170"/>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="17"/>
       <c r="BK7" s="17"/>
@@ -12551,88 +12586,88 @@
       <c r="CO7" s="17"/>
     </row>
     <row r="8" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="135">
+      <c r="A8" s="133">
         <v>2</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="131" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131" t="s">
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="144" t="s">
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="144"/>
+      <c r="R8" s="145"/>
       <c r="S8" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T8" s="144" t="s">
+      <c r="T8" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="U8" s="144"/>
-      <c r="V8" s="144"/>
-      <c r="W8" s="144"/>
-      <c r="X8" s="144"/>
-      <c r="Y8" s="144">
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145">
         <v>6</v>
       </c>
-      <c r="Z8" s="144"/>
-      <c r="AA8" s="144" t="s">
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AB8" s="144"/>
-      <c r="AC8" s="144" t="s">
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="AD8" s="144"/>
-      <c r="AE8" s="144"/>
-      <c r="AF8" s="144"/>
-      <c r="AG8" s="144"/>
-      <c r="AH8" s="144"/>
-      <c r="AI8" s="144"/>
-      <c r="AJ8" s="144"/>
-      <c r="AK8" s="161" t="s">
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="145"/>
+      <c r="AJ8" s="145"/>
+      <c r="AK8" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="AL8" s="161"/>
-      <c r="AM8" s="161"/>
-      <c r="AN8" s="161"/>
-      <c r="AO8" s="161"/>
-      <c r="AP8" s="161"/>
-      <c r="AQ8" s="161"/>
-      <c r="AR8" s="161"/>
-      <c r="AS8" s="168" t="s">
+      <c r="AL8" s="163"/>
+      <c r="AM8" s="163"/>
+      <c r="AN8" s="163"/>
+      <c r="AO8" s="163"/>
+      <c r="AP8" s="163"/>
+      <c r="AQ8" s="163"/>
+      <c r="AR8" s="163"/>
+      <c r="AS8" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="168"/>
-      <c r="AU8" s="168"/>
-      <c r="AV8" s="168"/>
-      <c r="AW8" s="168"/>
-      <c r="AX8" s="168"/>
-      <c r="AY8" s="168"/>
-      <c r="AZ8" s="168"/>
-      <c r="BA8" s="168"/>
-      <c r="BB8" s="168"/>
-      <c r="BC8" s="168"/>
-      <c r="BD8" s="168"/>
-      <c r="BE8" s="168"/>
-      <c r="BF8" s="168"/>
-      <c r="BG8" s="168"/>
-      <c r="BH8" s="168"/>
+      <c r="AT8" s="170"/>
+      <c r="AU8" s="170"/>
+      <c r="AV8" s="170"/>
+      <c r="AW8" s="170"/>
+      <c r="AX8" s="170"/>
+      <c r="AY8" s="170"/>
+      <c r="AZ8" s="170"/>
+      <c r="BA8" s="170"/>
+      <c r="BB8" s="170"/>
+      <c r="BC8" s="170"/>
+      <c r="BD8" s="170"/>
+      <c r="BE8" s="170"/>
+      <c r="BF8" s="170"/>
+      <c r="BG8" s="170"/>
+      <c r="BH8" s="170"/>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="17"/>
       <c r="BK8" s="17"/>
@@ -12668,88 +12703,88 @@
       <c r="CO8" s="17"/>
     </row>
     <row r="9" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="135">
+      <c r="A9" s="133">
         <v>3</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="136" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="137"/>
-      <c r="K9" s="137"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="132" t="s">
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="134"/>
-      <c r="Q9" s="139" t="s">
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="140"/>
+      <c r="R9" s="142"/>
       <c r="S9" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="139" t="s">
+      <c r="T9" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="U9" s="141"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="140"/>
-      <c r="Y9" s="139">
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="143"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="141">
         <v>10</v>
       </c>
-      <c r="Z9" s="140"/>
-      <c r="AA9" s="139" t="s">
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="140"/>
-      <c r="AC9" s="139" t="s">
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="141"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="141"/>
-      <c r="AJ9" s="140"/>
-      <c r="AK9" s="162" t="s">
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="143"/>
+      <c r="AF9" s="143"/>
+      <c r="AG9" s="143"/>
+      <c r="AH9" s="143"/>
+      <c r="AI9" s="143"/>
+      <c r="AJ9" s="142"/>
+      <c r="AK9" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="AL9" s="163"/>
-      <c r="AM9" s="163"/>
-      <c r="AN9" s="163"/>
-      <c r="AO9" s="163"/>
-      <c r="AP9" s="163"/>
-      <c r="AQ9" s="163"/>
-      <c r="AR9" s="164"/>
-      <c r="AS9" s="158" t="s">
+      <c r="AL9" s="165"/>
+      <c r="AM9" s="165"/>
+      <c r="AN9" s="165"/>
+      <c r="AO9" s="165"/>
+      <c r="AP9" s="165"/>
+      <c r="AQ9" s="165"/>
+      <c r="AR9" s="166"/>
+      <c r="AS9" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="AT9" s="159"/>
-      <c r="AU9" s="159"/>
-      <c r="AV9" s="159"/>
-      <c r="AW9" s="159"/>
-      <c r="AX9" s="159"/>
-      <c r="AY9" s="159"/>
-      <c r="AZ9" s="159"/>
-      <c r="BA9" s="159"/>
-      <c r="BB9" s="159"/>
-      <c r="BC9" s="159"/>
-      <c r="BD9" s="159"/>
-      <c r="BE9" s="159"/>
-      <c r="BF9" s="159"/>
-      <c r="BG9" s="159"/>
-      <c r="BH9" s="160"/>
+      <c r="AT9" s="161"/>
+      <c r="AU9" s="161"/>
+      <c r="AV9" s="161"/>
+      <c r="AW9" s="161"/>
+      <c r="AX9" s="161"/>
+      <c r="AY9" s="161"/>
+      <c r="AZ9" s="161"/>
+      <c r="BA9" s="161"/>
+      <c r="BB9" s="161"/>
+      <c r="BC9" s="161"/>
+      <c r="BD9" s="161"/>
+      <c r="BE9" s="161"/>
+      <c r="BF9" s="161"/>
+      <c r="BG9" s="161"/>
+      <c r="BH9" s="162"/>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="17"/>
       <c r="BK9" s="17"/>
@@ -12785,88 +12820,88 @@
       <c r="CO9" s="17"/>
     </row>
     <row r="10" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="135">
+      <c r="A10" s="133">
         <v>4</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="136" t="s">
+      <c r="B10" s="133"/>
+      <c r="C10" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="132" t="s">
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="134"/>
-      <c r="Q10" s="139" t="s">
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="140"/>
+      <c r="R10" s="142"/>
       <c r="S10" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="139" t="s">
+      <c r="T10" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="140"/>
-      <c r="Y10" s="139">
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="142"/>
+      <c r="Y10" s="141">
         <v>18</v>
       </c>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="139" t="s">
+      <c r="Z10" s="142"/>
+      <c r="AA10" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="140"/>
-      <c r="AC10" s="139" t="s">
+      <c r="AB10" s="142"/>
+      <c r="AC10" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="AD10" s="141"/>
-      <c r="AE10" s="141"/>
-      <c r="AF10" s="141"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="141"/>
-      <c r="AJ10" s="140"/>
-      <c r="AK10" s="162" t="s">
+      <c r="AD10" s="143"/>
+      <c r="AE10" s="143"/>
+      <c r="AF10" s="143"/>
+      <c r="AG10" s="143"/>
+      <c r="AH10" s="143"/>
+      <c r="AI10" s="143"/>
+      <c r="AJ10" s="142"/>
+      <c r="AK10" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="AL10" s="163"/>
-      <c r="AM10" s="163"/>
-      <c r="AN10" s="163"/>
-      <c r="AO10" s="163"/>
-      <c r="AP10" s="163"/>
-      <c r="AQ10" s="163"/>
-      <c r="AR10" s="164"/>
-      <c r="AS10" s="158" t="s">
+      <c r="AL10" s="165"/>
+      <c r="AM10" s="165"/>
+      <c r="AN10" s="165"/>
+      <c r="AO10" s="165"/>
+      <c r="AP10" s="165"/>
+      <c r="AQ10" s="165"/>
+      <c r="AR10" s="166"/>
+      <c r="AS10" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="AT10" s="159"/>
-      <c r="AU10" s="159"/>
-      <c r="AV10" s="159"/>
-      <c r="AW10" s="159"/>
-      <c r="AX10" s="159"/>
-      <c r="AY10" s="159"/>
-      <c r="AZ10" s="159"/>
-      <c r="BA10" s="159"/>
-      <c r="BB10" s="159"/>
-      <c r="BC10" s="159"/>
-      <c r="BD10" s="159"/>
-      <c r="BE10" s="159"/>
-      <c r="BF10" s="159"/>
-      <c r="BG10" s="159"/>
-      <c r="BH10" s="160"/>
+      <c r="AT10" s="161"/>
+      <c r="AU10" s="161"/>
+      <c r="AV10" s="161"/>
+      <c r="AW10" s="161"/>
+      <c r="AX10" s="161"/>
+      <c r="AY10" s="161"/>
+      <c r="AZ10" s="161"/>
+      <c r="BA10" s="161"/>
+      <c r="BB10" s="161"/>
+      <c r="BC10" s="161"/>
+      <c r="BD10" s="161"/>
+      <c r="BE10" s="161"/>
+      <c r="BF10" s="161"/>
+      <c r="BG10" s="161"/>
+      <c r="BH10" s="162"/>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="17"/>
       <c r="BK10" s="17"/>
@@ -12902,88 +12937,88 @@
       <c r="CO10" s="17"/>
     </row>
     <row r="11" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="135">
+      <c r="A11" s="133">
         <v>5</v>
       </c>
-      <c r="B11" s="135"/>
-      <c r="C11" s="136" t="s">
+      <c r="B11" s="133"/>
+      <c r="C11" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="132" t="s">
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="134"/>
-      <c r="Q11" s="139" t="s">
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="140"/>
+      <c r="R11" s="142"/>
       <c r="S11" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="139" t="s">
+      <c r="T11" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="U11" s="141"/>
-      <c r="V11" s="141"/>
-      <c r="W11" s="141"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="139">
+      <c r="U11" s="143"/>
+      <c r="V11" s="143"/>
+      <c r="W11" s="143"/>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="141">
         <v>18</v>
       </c>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="139" t="s">
+      <c r="Z11" s="142"/>
+      <c r="AA11" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="139" t="s">
+      <c r="AB11" s="142"/>
+      <c r="AC11" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="AD11" s="141"/>
-      <c r="AE11" s="141"/>
-      <c r="AF11" s="141"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="141"/>
-      <c r="AJ11" s="140"/>
-      <c r="AK11" s="165" t="s">
+      <c r="AD11" s="143"/>
+      <c r="AE11" s="143"/>
+      <c r="AF11" s="143"/>
+      <c r="AG11" s="143"/>
+      <c r="AH11" s="143"/>
+      <c r="AI11" s="143"/>
+      <c r="AJ11" s="142"/>
+      <c r="AK11" s="167" t="s">
         <v>77</v>
       </c>
-      <c r="AL11" s="166"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="166"/>
-      <c r="AO11" s="166"/>
-      <c r="AP11" s="166"/>
-      <c r="AQ11" s="166"/>
-      <c r="AR11" s="167"/>
-      <c r="AS11" s="158" t="s">
+      <c r="AL11" s="168"/>
+      <c r="AM11" s="168"/>
+      <c r="AN11" s="168"/>
+      <c r="AO11" s="168"/>
+      <c r="AP11" s="168"/>
+      <c r="AQ11" s="168"/>
+      <c r="AR11" s="169"/>
+      <c r="AS11" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="AT11" s="159"/>
-      <c r="AU11" s="159"/>
-      <c r="AV11" s="159"/>
-      <c r="AW11" s="159"/>
-      <c r="AX11" s="159"/>
-      <c r="AY11" s="159"/>
-      <c r="AZ11" s="159"/>
-      <c r="BA11" s="159"/>
-      <c r="BB11" s="159"/>
-      <c r="BC11" s="159"/>
-      <c r="BD11" s="159"/>
-      <c r="BE11" s="159"/>
-      <c r="BF11" s="159"/>
-      <c r="BG11" s="159"/>
-      <c r="BH11" s="160"/>
+      <c r="AT11" s="161"/>
+      <c r="AU11" s="161"/>
+      <c r="AV11" s="161"/>
+      <c r="AW11" s="161"/>
+      <c r="AX11" s="161"/>
+      <c r="AY11" s="161"/>
+      <c r="AZ11" s="161"/>
+      <c r="BA11" s="161"/>
+      <c r="BB11" s="161"/>
+      <c r="BC11" s="161"/>
+      <c r="BD11" s="161"/>
+      <c r="BE11" s="161"/>
+      <c r="BF11" s="161"/>
+      <c r="BG11" s="161"/>
+      <c r="BH11" s="162"/>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="17"/>
       <c r="BK11" s="17"/>
@@ -13019,88 +13054,88 @@
       <c r="CO11" s="17"/>
     </row>
     <row r="12" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="135">
+      <c r="A12" s="133">
         <v>6</v>
       </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="136" t="s">
+      <c r="B12" s="133"/>
+      <c r="C12" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="132" t="s">
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="140"/>
+      <c r="M12" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="134"/>
-      <c r="Q12" s="139" t="s">
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="140"/>
+      <c r="R12" s="142"/>
       <c r="S12" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T12" s="139" t="s">
+      <c r="T12" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="U12" s="141"/>
-      <c r="V12" s="141"/>
-      <c r="W12" s="141"/>
-      <c r="X12" s="140"/>
-      <c r="Y12" s="139">
+      <c r="U12" s="143"/>
+      <c r="V12" s="143"/>
+      <c r="W12" s="143"/>
+      <c r="X12" s="142"/>
+      <c r="Y12" s="141">
         <v>18</v>
       </c>
-      <c r="Z12" s="140"/>
-      <c r="AA12" s="139" t="s">
+      <c r="Z12" s="142"/>
+      <c r="AA12" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AB12" s="140"/>
-      <c r="AC12" s="139" t="s">
+      <c r="AB12" s="142"/>
+      <c r="AC12" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="141"/>
-      <c r="AF12" s="141"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="141"/>
-      <c r="AJ12" s="140"/>
-      <c r="AK12" s="162" t="s">
+      <c r="AD12" s="143"/>
+      <c r="AE12" s="143"/>
+      <c r="AF12" s="143"/>
+      <c r="AG12" s="143"/>
+      <c r="AH12" s="143"/>
+      <c r="AI12" s="143"/>
+      <c r="AJ12" s="142"/>
+      <c r="AK12" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="AL12" s="163"/>
-      <c r="AM12" s="163"/>
-      <c r="AN12" s="163"/>
-      <c r="AO12" s="163"/>
-      <c r="AP12" s="163"/>
-      <c r="AQ12" s="163"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="158" t="s">
+      <c r="AL12" s="165"/>
+      <c r="AM12" s="165"/>
+      <c r="AN12" s="165"/>
+      <c r="AO12" s="165"/>
+      <c r="AP12" s="165"/>
+      <c r="AQ12" s="165"/>
+      <c r="AR12" s="166"/>
+      <c r="AS12" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="AT12" s="159"/>
-      <c r="AU12" s="159"/>
-      <c r="AV12" s="159"/>
-      <c r="AW12" s="159"/>
-      <c r="AX12" s="159"/>
-      <c r="AY12" s="159"/>
-      <c r="AZ12" s="159"/>
-      <c r="BA12" s="159"/>
-      <c r="BB12" s="159"/>
-      <c r="BC12" s="159"/>
-      <c r="BD12" s="159"/>
-      <c r="BE12" s="159"/>
-      <c r="BF12" s="159"/>
-      <c r="BG12" s="159"/>
-      <c r="BH12" s="160"/>
+      <c r="AT12" s="161"/>
+      <c r="AU12" s="161"/>
+      <c r="AV12" s="161"/>
+      <c r="AW12" s="161"/>
+      <c r="AX12" s="161"/>
+      <c r="AY12" s="161"/>
+      <c r="AZ12" s="161"/>
+      <c r="BA12" s="161"/>
+      <c r="BB12" s="161"/>
+      <c r="BC12" s="161"/>
+      <c r="BD12" s="161"/>
+      <c r="BE12" s="161"/>
+      <c r="BF12" s="161"/>
+      <c r="BG12" s="161"/>
+      <c r="BH12" s="162"/>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="17"/>
       <c r="BK12" s="17"/>
@@ -13136,88 +13171,88 @@
       <c r="CO12" s="17"/>
     </row>
     <row r="13" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="135">
+      <c r="A13" s="133">
         <v>7</v>
       </c>
-      <c r="B13" s="135"/>
-      <c r="C13" s="132" t="s">
+      <c r="B13" s="133"/>
+      <c r="C13" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="133"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="133"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="132" t="s">
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="134"/>
-      <c r="Q13" s="139" t="s">
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="140"/>
+      <c r="R13" s="142"/>
       <c r="S13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="139" t="s">
+      <c r="T13" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="140"/>
-      <c r="Y13" s="139">
+      <c r="U13" s="143"/>
+      <c r="V13" s="143"/>
+      <c r="W13" s="143"/>
+      <c r="X13" s="142"/>
+      <c r="Y13" s="141">
         <v>4</v>
       </c>
-      <c r="Z13" s="140"/>
-      <c r="AA13" s="139" t="s">
+      <c r="Z13" s="142"/>
+      <c r="AA13" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="140"/>
-      <c r="AC13" s="139" t="s">
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="AD13" s="141"/>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="141"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="141"/>
-      <c r="AJ13" s="140"/>
-      <c r="AK13" s="152" t="s">
+      <c r="AD13" s="143"/>
+      <c r="AE13" s="143"/>
+      <c r="AF13" s="143"/>
+      <c r="AG13" s="143"/>
+      <c r="AH13" s="143"/>
+      <c r="AI13" s="143"/>
+      <c r="AJ13" s="142"/>
+      <c r="AK13" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="AL13" s="153"/>
-      <c r="AM13" s="153"/>
-      <c r="AN13" s="153"/>
-      <c r="AO13" s="153"/>
-      <c r="AP13" s="153"/>
-      <c r="AQ13" s="153"/>
-      <c r="AR13" s="154"/>
-      <c r="AS13" s="158" t="s">
+      <c r="AL13" s="155"/>
+      <c r="AM13" s="155"/>
+      <c r="AN13" s="155"/>
+      <c r="AO13" s="155"/>
+      <c r="AP13" s="155"/>
+      <c r="AQ13" s="155"/>
+      <c r="AR13" s="156"/>
+      <c r="AS13" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="AT13" s="159"/>
-      <c r="AU13" s="159"/>
-      <c r="AV13" s="159"/>
-      <c r="AW13" s="159"/>
-      <c r="AX13" s="159"/>
-      <c r="AY13" s="159"/>
-      <c r="AZ13" s="159"/>
-      <c r="BA13" s="159"/>
-      <c r="BB13" s="159"/>
-      <c r="BC13" s="159"/>
-      <c r="BD13" s="159"/>
-      <c r="BE13" s="159"/>
-      <c r="BF13" s="159"/>
-      <c r="BG13" s="159"/>
-      <c r="BH13" s="160"/>
+      <c r="AT13" s="161"/>
+      <c r="AU13" s="161"/>
+      <c r="AV13" s="161"/>
+      <c r="AW13" s="161"/>
+      <c r="AX13" s="161"/>
+      <c r="AY13" s="161"/>
+      <c r="AZ13" s="161"/>
+      <c r="BA13" s="161"/>
+      <c r="BB13" s="161"/>
+      <c r="BC13" s="161"/>
+      <c r="BD13" s="161"/>
+      <c r="BE13" s="161"/>
+      <c r="BF13" s="161"/>
+      <c r="BG13" s="161"/>
+      <c r="BH13" s="162"/>
       <c r="BI13" s="7"/>
       <c r="BJ13" s="17"/>
       <c r="BK13" s="17"/>
@@ -13253,88 +13288,88 @@
       <c r="CO13" s="17"/>
     </row>
     <row r="14" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="135">
+      <c r="A14" s="133">
         <v>8</v>
       </c>
-      <c r="B14" s="135"/>
-      <c r="C14" s="132" t="s">
+      <c r="B14" s="133"/>
+      <c r="C14" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="132" t="s">
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="134"/>
-      <c r="Q14" s="139" t="s">
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="R14" s="140"/>
+      <c r="R14" s="142"/>
       <c r="S14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="139" t="s">
+      <c r="T14" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="140"/>
-      <c r="Y14" s="139">
+      <c r="U14" s="143"/>
+      <c r="V14" s="143"/>
+      <c r="W14" s="143"/>
+      <c r="X14" s="142"/>
+      <c r="Y14" s="141">
         <v>2</v>
       </c>
-      <c r="Z14" s="140"/>
-      <c r="AA14" s="139" t="s">
+      <c r="Z14" s="142"/>
+      <c r="AA14" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AB14" s="140"/>
-      <c r="AC14" s="139" t="s">
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="AD14" s="141"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="141"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="141"/>
-      <c r="AJ14" s="140"/>
-      <c r="AK14" s="152" t="s">
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="143"/>
+      <c r="AF14" s="143"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="143"/>
+      <c r="AJ14" s="142"/>
+      <c r="AK14" s="154" t="s">
         <v>84</v>
       </c>
-      <c r="AL14" s="153"/>
-      <c r="AM14" s="153"/>
-      <c r="AN14" s="153"/>
-      <c r="AO14" s="153"/>
-      <c r="AP14" s="153"/>
-      <c r="AQ14" s="153"/>
-      <c r="AR14" s="154"/>
-      <c r="AS14" s="158" t="s">
+      <c r="AL14" s="155"/>
+      <c r="AM14" s="155"/>
+      <c r="AN14" s="155"/>
+      <c r="AO14" s="155"/>
+      <c r="AP14" s="155"/>
+      <c r="AQ14" s="155"/>
+      <c r="AR14" s="156"/>
+      <c r="AS14" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="AT14" s="159"/>
-      <c r="AU14" s="159"/>
-      <c r="AV14" s="159"/>
-      <c r="AW14" s="159"/>
-      <c r="AX14" s="159"/>
-      <c r="AY14" s="159"/>
-      <c r="AZ14" s="159"/>
-      <c r="BA14" s="159"/>
-      <c r="BB14" s="159"/>
-      <c r="BC14" s="159"/>
-      <c r="BD14" s="159"/>
-      <c r="BE14" s="159"/>
-      <c r="BF14" s="159"/>
-      <c r="BG14" s="159"/>
-      <c r="BH14" s="160"/>
+      <c r="AT14" s="161"/>
+      <c r="AU14" s="161"/>
+      <c r="AV14" s="161"/>
+      <c r="AW14" s="161"/>
+      <c r="AX14" s="161"/>
+      <c r="AY14" s="161"/>
+      <c r="AZ14" s="161"/>
+      <c r="BA14" s="161"/>
+      <c r="BB14" s="161"/>
+      <c r="BC14" s="161"/>
+      <c r="BD14" s="161"/>
+      <c r="BE14" s="161"/>
+      <c r="BF14" s="161"/>
+      <c r="BG14" s="161"/>
+      <c r="BH14" s="162"/>
       <c r="BI14" s="7"/>
       <c r="BJ14" s="17"/>
       <c r="BK14" s="17"/>
@@ -13370,88 +13405,88 @@
       <c r="CO14" s="17"/>
     </row>
     <row r="15" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="135">
+      <c r="A15" s="133">
         <v>9</v>
       </c>
-      <c r="B15" s="135"/>
-      <c r="C15" s="132" t="s">
+      <c r="B15" s="133"/>
+      <c r="C15" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="133"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="132" t="s">
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="139" t="s">
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="140"/>
+      <c r="R15" s="142"/>
       <c r="S15" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T15" s="139" t="s">
+      <c r="T15" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="141"/>
-      <c r="V15" s="141"/>
-      <c r="W15" s="141"/>
-      <c r="X15" s="140"/>
-      <c r="Y15" s="139">
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="142"/>
+      <c r="Y15" s="141">
         <v>2</v>
       </c>
-      <c r="Z15" s="140"/>
-      <c r="AA15" s="139" t="s">
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AB15" s="140"/>
-      <c r="AC15" s="139" t="s">
+      <c r="AB15" s="142"/>
+      <c r="AC15" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="AD15" s="141"/>
-      <c r="AE15" s="141"/>
-      <c r="AF15" s="141"/>
-      <c r="AG15" s="141"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="141"/>
-      <c r="AJ15" s="140"/>
-      <c r="AK15" s="152" t="s">
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="143"/>
+      <c r="AJ15" s="142"/>
+      <c r="AK15" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="AL15" s="153"/>
-      <c r="AM15" s="153"/>
-      <c r="AN15" s="153"/>
-      <c r="AO15" s="153"/>
-      <c r="AP15" s="153"/>
-      <c r="AQ15" s="153"/>
-      <c r="AR15" s="154"/>
-      <c r="AS15" s="158" t="s">
+      <c r="AL15" s="155"/>
+      <c r="AM15" s="155"/>
+      <c r="AN15" s="155"/>
+      <c r="AO15" s="155"/>
+      <c r="AP15" s="155"/>
+      <c r="AQ15" s="155"/>
+      <c r="AR15" s="156"/>
+      <c r="AS15" s="160" t="s">
         <v>20</v>
       </c>
-      <c r="AT15" s="159"/>
-      <c r="AU15" s="159"/>
-      <c r="AV15" s="159"/>
-      <c r="AW15" s="159"/>
-      <c r="AX15" s="159"/>
-      <c r="AY15" s="159"/>
-      <c r="AZ15" s="159"/>
-      <c r="BA15" s="159"/>
-      <c r="BB15" s="159"/>
-      <c r="BC15" s="159"/>
-      <c r="BD15" s="159"/>
-      <c r="BE15" s="159"/>
-      <c r="BF15" s="159"/>
-      <c r="BG15" s="159"/>
-      <c r="BH15" s="160"/>
+      <c r="AT15" s="161"/>
+      <c r="AU15" s="161"/>
+      <c r="AV15" s="161"/>
+      <c r="AW15" s="161"/>
+      <c r="AX15" s="161"/>
+      <c r="AY15" s="161"/>
+      <c r="AZ15" s="161"/>
+      <c r="BA15" s="161"/>
+      <c r="BB15" s="161"/>
+      <c r="BC15" s="161"/>
+      <c r="BD15" s="161"/>
+      <c r="BE15" s="161"/>
+      <c r="BF15" s="161"/>
+      <c r="BG15" s="161"/>
+      <c r="BH15" s="162"/>
       <c r="BJ15" s="17"/>
       <c r="BK15" s="17"/>
       <c r="BL15" s="17"/>
@@ -13486,88 +13521,88 @@
       <c r="CO15" s="17"/>
     </row>
     <row r="16" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="135">
+      <c r="A16" s="133">
         <v>10</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="132" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="133"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="133"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="132" t="s">
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="134"/>
-      <c r="Q16" s="139" t="s">
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="140"/>
+      <c r="R16" s="142"/>
       <c r="S16" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T16" s="139" t="s">
+      <c r="T16" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="141"/>
-      <c r="V16" s="141"/>
-      <c r="W16" s="141"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="139" t="s">
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="142"/>
+      <c r="Y16" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="Z16" s="140"/>
-      <c r="AA16" s="139" t="s">
+      <c r="Z16" s="142"/>
+      <c r="AA16" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AB16" s="140"/>
-      <c r="AC16" s="139" t="s">
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="AD16" s="141"/>
-      <c r="AE16" s="141"/>
-      <c r="AF16" s="141"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="141"/>
-      <c r="AJ16" s="140"/>
-      <c r="AK16" s="152" t="s">
+      <c r="AD16" s="143"/>
+      <c r="AE16" s="143"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="143"/>
+      <c r="AI16" s="143"/>
+      <c r="AJ16" s="142"/>
+      <c r="AK16" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="AL16" s="153"/>
-      <c r="AM16" s="153"/>
-      <c r="AN16" s="153"/>
-      <c r="AO16" s="153"/>
-      <c r="AP16" s="153"/>
-      <c r="AQ16" s="153"/>
-      <c r="AR16" s="154"/>
-      <c r="AS16" s="155" t="s">
+      <c r="AL16" s="155"/>
+      <c r="AM16" s="155"/>
+      <c r="AN16" s="155"/>
+      <c r="AO16" s="155"/>
+      <c r="AP16" s="155"/>
+      <c r="AQ16" s="155"/>
+      <c r="AR16" s="156"/>
+      <c r="AS16" s="157" t="s">
         <v>115</v>
       </c>
-      <c r="AT16" s="156"/>
-      <c r="AU16" s="156"/>
-      <c r="AV16" s="156"/>
-      <c r="AW16" s="156"/>
-      <c r="AX16" s="156"/>
-      <c r="AY16" s="156"/>
-      <c r="AZ16" s="156"/>
-      <c r="BA16" s="156"/>
-      <c r="BB16" s="156"/>
-      <c r="BC16" s="156"/>
-      <c r="BD16" s="156"/>
-      <c r="BE16" s="156"/>
-      <c r="BF16" s="156"/>
-      <c r="BG16" s="156"/>
-      <c r="BH16" s="157"/>
+      <c r="AT16" s="158"/>
+      <c r="AU16" s="158"/>
+      <c r="AV16" s="158"/>
+      <c r="AW16" s="158"/>
+      <c r="AX16" s="158"/>
+      <c r="AY16" s="158"/>
+      <c r="AZ16" s="158"/>
+      <c r="BA16" s="158"/>
+      <c r="BB16" s="158"/>
+      <c r="BC16" s="158"/>
+      <c r="BD16" s="158"/>
+      <c r="BE16" s="158"/>
+      <c r="BF16" s="158"/>
+      <c r="BG16" s="158"/>
+      <c r="BH16" s="159"/>
       <c r="BJ16" s="17"/>
       <c r="BK16" s="17"/>
       <c r="BL16" s="17"/>
@@ -13602,88 +13637,88 @@
       <c r="CO16" s="17"/>
     </row>
     <row r="17" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="135">
+      <c r="A17" s="133">
         <v>11</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="131" t="s">
+      <c r="B17" s="133"/>
+      <c r="C17" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131" t="s">
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="144" t="s">
+      <c r="N17" s="134"/>
+      <c r="O17" s="134"/>
+      <c r="P17" s="134"/>
+      <c r="Q17" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R17" s="144"/>
+      <c r="R17" s="145"/>
       <c r="S17" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T17" s="144" t="s">
+      <c r="T17" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="U17" s="144"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144" t="s">
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="Z17" s="144"/>
-      <c r="AA17" s="144" t="s">
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AB17" s="144"/>
-      <c r="AC17" s="144" t="s">
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AD17" s="144"/>
-      <c r="AE17" s="144"/>
-      <c r="AF17" s="144"/>
-      <c r="AG17" s="144"/>
-      <c r="AH17" s="144"/>
-      <c r="AI17" s="144"/>
-      <c r="AJ17" s="144"/>
-      <c r="AK17" s="144" t="s">
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AL17" s="144"/>
-      <c r="AM17" s="144"/>
-      <c r="AN17" s="144"/>
-      <c r="AO17" s="144"/>
-      <c r="AP17" s="144"/>
-      <c r="AQ17" s="144"/>
-      <c r="AR17" s="144"/>
-      <c r="AS17" s="168" t="s">
+      <c r="AL17" s="145"/>
+      <c r="AM17" s="145"/>
+      <c r="AN17" s="145"/>
+      <c r="AO17" s="145"/>
+      <c r="AP17" s="145"/>
+      <c r="AQ17" s="145"/>
+      <c r="AR17" s="145"/>
+      <c r="AS17" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="AT17" s="168"/>
-      <c r="AU17" s="168"/>
-      <c r="AV17" s="168"/>
-      <c r="AW17" s="168"/>
-      <c r="AX17" s="168"/>
-      <c r="AY17" s="168"/>
-      <c r="AZ17" s="168"/>
-      <c r="BA17" s="168"/>
-      <c r="BB17" s="168"/>
-      <c r="BC17" s="168"/>
-      <c r="BD17" s="168"/>
-      <c r="BE17" s="168"/>
-      <c r="BF17" s="168"/>
-      <c r="BG17" s="168"/>
-      <c r="BH17" s="168"/>
+      <c r="AT17" s="170"/>
+      <c r="AU17" s="170"/>
+      <c r="AV17" s="170"/>
+      <c r="AW17" s="170"/>
+      <c r="AX17" s="170"/>
+      <c r="AY17" s="170"/>
+      <c r="AZ17" s="170"/>
+      <c r="BA17" s="170"/>
+      <c r="BB17" s="170"/>
+      <c r="BC17" s="170"/>
+      <c r="BD17" s="170"/>
+      <c r="BE17" s="170"/>
+      <c r="BF17" s="170"/>
+      <c r="BG17" s="170"/>
+      <c r="BH17" s="170"/>
       <c r="BJ17" s="17"/>
       <c r="BK17" s="17"/>
       <c r="BL17" s="17"/>
@@ -13718,88 +13753,88 @@
       <c r="CO17" s="17"/>
     </row>
     <row r="18" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="135">
+      <c r="A18" s="133">
         <v>12</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="131" t="s">
+      <c r="B18" s="133"/>
+      <c r="C18" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131" t="s">
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="144" t="s">
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R18" s="144"/>
+      <c r="R18" s="145"/>
       <c r="S18" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T18" s="139" t="s">
+      <c r="T18" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="U18" s="141"/>
-      <c r="V18" s="141"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="140"/>
-      <c r="Y18" s="144" t="s">
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="142"/>
+      <c r="Y18" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="Z18" s="144"/>
-      <c r="AA18" s="144" t="s">
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AB18" s="144"/>
-      <c r="AC18" s="144" t="s">
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="144"/>
-      <c r="AF18" s="144"/>
-      <c r="AG18" s="144"/>
-      <c r="AH18" s="144"/>
-      <c r="AI18" s="144"/>
-      <c r="AJ18" s="144"/>
-      <c r="AK18" s="144" t="s">
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
+      <c r="AK18" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AL18" s="144"/>
-      <c r="AM18" s="144"/>
-      <c r="AN18" s="144"/>
-      <c r="AO18" s="144"/>
-      <c r="AP18" s="144"/>
-      <c r="AQ18" s="144"/>
-      <c r="AR18" s="144"/>
-      <c r="AS18" s="168" t="s">
+      <c r="AL18" s="145"/>
+      <c r="AM18" s="145"/>
+      <c r="AN18" s="145"/>
+      <c r="AO18" s="145"/>
+      <c r="AP18" s="145"/>
+      <c r="AQ18" s="145"/>
+      <c r="AR18" s="145"/>
+      <c r="AS18" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="AT18" s="168"/>
-      <c r="AU18" s="168"/>
-      <c r="AV18" s="168"/>
-      <c r="AW18" s="168"/>
-      <c r="AX18" s="168"/>
-      <c r="AY18" s="168"/>
-      <c r="AZ18" s="168"/>
-      <c r="BA18" s="168"/>
-      <c r="BB18" s="168"/>
-      <c r="BC18" s="168"/>
-      <c r="BD18" s="168"/>
-      <c r="BE18" s="168"/>
-      <c r="BF18" s="168"/>
-      <c r="BG18" s="168"/>
-      <c r="BH18" s="168"/>
+      <c r="AT18" s="170"/>
+      <c r="AU18" s="170"/>
+      <c r="AV18" s="170"/>
+      <c r="AW18" s="170"/>
+      <c r="AX18" s="170"/>
+      <c r="AY18" s="170"/>
+      <c r="AZ18" s="170"/>
+      <c r="BA18" s="170"/>
+      <c r="BB18" s="170"/>
+      <c r="BC18" s="170"/>
+      <c r="BD18" s="170"/>
+      <c r="BE18" s="170"/>
+      <c r="BF18" s="170"/>
+      <c r="BG18" s="170"/>
+      <c r="BH18" s="170"/>
       <c r="BJ18" s="17"/>
       <c r="BK18" s="17"/>
       <c r="BL18" s="17"/>
@@ -13834,88 +13869,88 @@
       <c r="CO18" s="17"/>
     </row>
     <row r="19" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="135">
+      <c r="A19" s="133">
         <v>13</v>
       </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="131" t="s">
+      <c r="B19" s="133"/>
+      <c r="C19" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131" t="s">
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="144" t="s">
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R19" s="144"/>
+      <c r="R19" s="145"/>
       <c r="S19" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T19" s="144" t="s">
+      <c r="T19" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="U19" s="144"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="144" t="s">
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="Z19" s="144"/>
-      <c r="AA19" s="144" t="s">
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AB19" s="144"/>
-      <c r="AC19" s="144" t="s">
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="144"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="144"/>
-      <c r="AH19" s="144"/>
-      <c r="AI19" s="144"/>
-      <c r="AJ19" s="144"/>
-      <c r="AK19" s="144" t="s">
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="145"/>
+      <c r="AJ19" s="145"/>
+      <c r="AK19" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AL19" s="144"/>
-      <c r="AM19" s="144"/>
-      <c r="AN19" s="144"/>
-      <c r="AO19" s="144"/>
-      <c r="AP19" s="144"/>
-      <c r="AQ19" s="144"/>
-      <c r="AR19" s="144"/>
-      <c r="AS19" s="168" t="s">
+      <c r="AL19" s="145"/>
+      <c r="AM19" s="145"/>
+      <c r="AN19" s="145"/>
+      <c r="AO19" s="145"/>
+      <c r="AP19" s="145"/>
+      <c r="AQ19" s="145"/>
+      <c r="AR19" s="145"/>
+      <c r="AS19" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="AT19" s="168"/>
-      <c r="AU19" s="168"/>
-      <c r="AV19" s="168"/>
-      <c r="AW19" s="168"/>
-      <c r="AX19" s="168"/>
-      <c r="AY19" s="168"/>
-      <c r="AZ19" s="168"/>
-      <c r="BA19" s="168"/>
-      <c r="BB19" s="168"/>
-      <c r="BC19" s="168"/>
-      <c r="BD19" s="168"/>
-      <c r="BE19" s="168"/>
-      <c r="BF19" s="168"/>
-      <c r="BG19" s="168"/>
-      <c r="BH19" s="168"/>
+      <c r="AT19" s="170"/>
+      <c r="AU19" s="170"/>
+      <c r="AV19" s="170"/>
+      <c r="AW19" s="170"/>
+      <c r="AX19" s="170"/>
+      <c r="AY19" s="170"/>
+      <c r="AZ19" s="170"/>
+      <c r="BA19" s="170"/>
+      <c r="BB19" s="170"/>
+      <c r="BC19" s="170"/>
+      <c r="BD19" s="170"/>
+      <c r="BE19" s="170"/>
+      <c r="BF19" s="170"/>
+      <c r="BG19" s="170"/>
+      <c r="BH19" s="170"/>
       <c r="BJ19" s="17"/>
       <c r="BK19" s="17"/>
       <c r="BL19" s="17"/>
@@ -13950,88 +13985,88 @@
       <c r="CO19" s="17"/>
     </row>
     <row r="20" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="135">
+      <c r="A20" s="133">
         <v>14</v>
       </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="131" t="s">
+      <c r="B20" s="133"/>
+      <c r="C20" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131" t="s">
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="144" t="s">
+      <c r="N20" s="134"/>
+      <c r="O20" s="134"/>
+      <c r="P20" s="134"/>
+      <c r="Q20" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="R20" s="144"/>
+      <c r="R20" s="145"/>
       <c r="S20" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T20" s="139" t="s">
+      <c r="T20" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
-      <c r="W20" s="141"/>
-      <c r="X20" s="140"/>
-      <c r="Y20" s="144" t="s">
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="142"/>
+      <c r="Y20" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="144" t="s">
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="144" t="s">
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="144"/>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="144"/>
-      <c r="AH20" s="144"/>
-      <c r="AI20" s="144"/>
-      <c r="AJ20" s="144"/>
-      <c r="AK20" s="144" t="s">
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="145"/>
+      <c r="AF20" s="145"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="145"/>
+      <c r="AJ20" s="145"/>
+      <c r="AK20" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AL20" s="144"/>
-      <c r="AM20" s="144"/>
-      <c r="AN20" s="144"/>
-      <c r="AO20" s="144"/>
-      <c r="AP20" s="144"/>
-      <c r="AQ20" s="144"/>
-      <c r="AR20" s="144"/>
-      <c r="AS20" s="168" t="s">
+      <c r="AL20" s="145"/>
+      <c r="AM20" s="145"/>
+      <c r="AN20" s="145"/>
+      <c r="AO20" s="145"/>
+      <c r="AP20" s="145"/>
+      <c r="AQ20" s="145"/>
+      <c r="AR20" s="145"/>
+      <c r="AS20" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="AT20" s="168"/>
-      <c r="AU20" s="168"/>
-      <c r="AV20" s="168"/>
-      <c r="AW20" s="168"/>
-      <c r="AX20" s="168"/>
-      <c r="AY20" s="168"/>
-      <c r="AZ20" s="168"/>
-      <c r="BA20" s="168"/>
-      <c r="BB20" s="168"/>
-      <c r="BC20" s="168"/>
-      <c r="BD20" s="168"/>
-      <c r="BE20" s="168"/>
-      <c r="BF20" s="168"/>
-      <c r="BG20" s="168"/>
-      <c r="BH20" s="168"/>
+      <c r="AT20" s="170"/>
+      <c r="AU20" s="170"/>
+      <c r="AV20" s="170"/>
+      <c r="AW20" s="170"/>
+      <c r="AX20" s="170"/>
+      <c r="AY20" s="170"/>
+      <c r="AZ20" s="170"/>
+      <c r="BA20" s="170"/>
+      <c r="BB20" s="170"/>
+      <c r="BC20" s="170"/>
+      <c r="BD20" s="170"/>
+      <c r="BE20" s="170"/>
+      <c r="BF20" s="170"/>
+      <c r="BG20" s="170"/>
+      <c r="BH20" s="170"/>
       <c r="BJ20" s="17"/>
       <c r="BK20" s="17"/>
       <c r="BL20" s="17"/>
@@ -14066,88 +14101,88 @@
       <c r="CO20" s="17"/>
     </row>
     <row r="21" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="135">
+      <c r="A21" s="133">
         <v>15</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="131" t="s">
+      <c r="B21" s="133"/>
+      <c r="C21" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131" t="s">
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="144" t="s">
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="145" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="144"/>
+      <c r="R21" s="145"/>
       <c r="S21" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="T21" s="139" t="s">
+      <c r="T21" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
-      <c r="W21" s="141"/>
-      <c r="X21" s="140"/>
-      <c r="Y21" s="144" t="s">
+      <c r="U21" s="143"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="143"/>
+      <c r="X21" s="142"/>
+      <c r="Y21" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="144"/>
-      <c r="AA21" s="144" t="s">
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AB21" s="144"/>
-      <c r="AC21" s="144" t="s">
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="144"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="144"/>
-      <c r="AJ21" s="144"/>
-      <c r="AK21" s="144" t="s">
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="145"/>
+      <c r="AK21" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AL21" s="144"/>
-      <c r="AM21" s="144"/>
-      <c r="AN21" s="144"/>
-      <c r="AO21" s="144"/>
-      <c r="AP21" s="144"/>
-      <c r="AQ21" s="144"/>
-      <c r="AR21" s="144"/>
-      <c r="AS21" s="169" t="s">
+      <c r="AL21" s="145"/>
+      <c r="AM21" s="145"/>
+      <c r="AN21" s="145"/>
+      <c r="AO21" s="145"/>
+      <c r="AP21" s="145"/>
+      <c r="AQ21" s="145"/>
+      <c r="AR21" s="145"/>
+      <c r="AS21" s="171" t="s">
         <v>120</v>
       </c>
-      <c r="AT21" s="169"/>
-      <c r="AU21" s="169"/>
-      <c r="AV21" s="169"/>
-      <c r="AW21" s="169"/>
-      <c r="AX21" s="169"/>
-      <c r="AY21" s="169"/>
-      <c r="AZ21" s="169"/>
-      <c r="BA21" s="169"/>
-      <c r="BB21" s="169"/>
-      <c r="BC21" s="169"/>
-      <c r="BD21" s="169"/>
-      <c r="BE21" s="169"/>
-      <c r="BF21" s="169"/>
-      <c r="BG21" s="169"/>
-      <c r="BH21" s="169"/>
+      <c r="AT21" s="171"/>
+      <c r="AU21" s="171"/>
+      <c r="AV21" s="171"/>
+      <c r="AW21" s="171"/>
+      <c r="AX21" s="171"/>
+      <c r="AY21" s="171"/>
+      <c r="AZ21" s="171"/>
+      <c r="BA21" s="171"/>
+      <c r="BB21" s="171"/>
+      <c r="BC21" s="171"/>
+      <c r="BD21" s="171"/>
+      <c r="BE21" s="171"/>
+      <c r="BF21" s="171"/>
+      <c r="BG21" s="171"/>
+      <c r="BH21" s="171"/>
       <c r="BJ21" s="17"/>
       <c r="BK21" s="17"/>
       <c r="BL21" s="17"/>
@@ -14182,68 +14217,68 @@
       <c r="CO21" s="17"/>
     </row>
     <row r="22" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="135">
+      <c r="A22" s="133">
         <v>16</v>
       </c>
-      <c r="B22" s="135"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
+      <c r="O22" s="134"/>
+      <c r="P22" s="134"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
       <c r="S22" s="60"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
-      <c r="Y22" s="144"/>
-      <c r="Z22" s="144"/>
-      <c r="AA22" s="144"/>
-      <c r="AB22" s="144"/>
-      <c r="AC22" s="144"/>
-      <c r="AD22" s="144"/>
-      <c r="AE22" s="144"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="144"/>
-      <c r="AH22" s="144"/>
-      <c r="AI22" s="144"/>
-      <c r="AJ22" s="144"/>
-      <c r="AK22" s="161"/>
-      <c r="AL22" s="161"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="161"/>
-      <c r="AO22" s="161"/>
-      <c r="AP22" s="161"/>
-      <c r="AQ22" s="161"/>
-      <c r="AR22" s="161"/>
-      <c r="AS22" s="168"/>
-      <c r="AT22" s="168"/>
-      <c r="AU22" s="168"/>
-      <c r="AV22" s="168"/>
-      <c r="AW22" s="168"/>
-      <c r="AX22" s="168"/>
-      <c r="AY22" s="168"/>
-      <c r="AZ22" s="168"/>
-      <c r="BA22" s="168"/>
-      <c r="BB22" s="168"/>
-      <c r="BC22" s="168"/>
-      <c r="BD22" s="168"/>
-      <c r="BE22" s="168"/>
-      <c r="BF22" s="168"/>
-      <c r="BG22" s="168"/>
-      <c r="BH22" s="168"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="145"/>
+      <c r="AJ22" s="145"/>
+      <c r="AK22" s="163"/>
+      <c r="AL22" s="163"/>
+      <c r="AM22" s="163"/>
+      <c r="AN22" s="163"/>
+      <c r="AO22" s="163"/>
+      <c r="AP22" s="163"/>
+      <c r="AQ22" s="163"/>
+      <c r="AR22" s="163"/>
+      <c r="AS22" s="170"/>
+      <c r="AT22" s="170"/>
+      <c r="AU22" s="170"/>
+      <c r="AV22" s="170"/>
+      <c r="AW22" s="170"/>
+      <c r="AX22" s="170"/>
+      <c r="AY22" s="170"/>
+      <c r="AZ22" s="170"/>
+      <c r="BA22" s="170"/>
+      <c r="BB22" s="170"/>
+      <c r="BC22" s="170"/>
+      <c r="BD22" s="170"/>
+      <c r="BE22" s="170"/>
+      <c r="BF22" s="170"/>
+      <c r="BG22" s="170"/>
+      <c r="BH22" s="170"/>
       <c r="BJ22" s="17"/>
       <c r="BK22" s="17"/>
       <c r="BL22" s="17"/>
@@ -14278,68 +14313,68 @@
       <c r="CO22" s="17"/>
     </row>
     <row r="23" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="135">
+      <c r="A23" s="133">
         <v>17</v>
       </c>
-      <c r="B23" s="135"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="131"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="144"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
+      <c r="O23" s="134"/>
+      <c r="P23" s="134"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
       <c r="S23" s="60"/>
-      <c r="T23" s="144"/>
-      <c r="U23" s="144"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="144"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="144"/>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="144"/>
-      <c r="AJ23" s="144"/>
-      <c r="AK23" s="144"/>
-      <c r="AL23" s="144"/>
-      <c r="AM23" s="144"/>
-      <c r="AN23" s="144"/>
-      <c r="AO23" s="144"/>
-      <c r="AP23" s="144"/>
-      <c r="AQ23" s="144"/>
-      <c r="AR23" s="144"/>
-      <c r="AS23" s="168"/>
-      <c r="AT23" s="168"/>
-      <c r="AU23" s="168"/>
-      <c r="AV23" s="168"/>
-      <c r="AW23" s="168"/>
-      <c r="AX23" s="168"/>
-      <c r="AY23" s="168"/>
-      <c r="AZ23" s="168"/>
-      <c r="BA23" s="168"/>
-      <c r="BB23" s="168"/>
-      <c r="BC23" s="168"/>
-      <c r="BD23" s="168"/>
-      <c r="BE23" s="168"/>
-      <c r="BF23" s="168"/>
-      <c r="BG23" s="168"/>
-      <c r="BH23" s="168"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="145"/>
+      <c r="AJ23" s="145"/>
+      <c r="AK23" s="145"/>
+      <c r="AL23" s="145"/>
+      <c r="AM23" s="145"/>
+      <c r="AN23" s="145"/>
+      <c r="AO23" s="145"/>
+      <c r="AP23" s="145"/>
+      <c r="AQ23" s="145"/>
+      <c r="AR23" s="145"/>
+      <c r="AS23" s="170"/>
+      <c r="AT23" s="170"/>
+      <c r="AU23" s="170"/>
+      <c r="AV23" s="170"/>
+      <c r="AW23" s="170"/>
+      <c r="AX23" s="170"/>
+      <c r="AY23" s="170"/>
+      <c r="AZ23" s="170"/>
+      <c r="BA23" s="170"/>
+      <c r="BB23" s="170"/>
+      <c r="BC23" s="170"/>
+      <c r="BD23" s="170"/>
+      <c r="BE23" s="170"/>
+      <c r="BF23" s="170"/>
+      <c r="BG23" s="170"/>
+      <c r="BH23" s="170"/>
       <c r="BJ23" s="17"/>
       <c r="BK23" s="17"/>
       <c r="BL23" s="17"/>
@@ -14374,68 +14409,68 @@
       <c r="CO23" s="17"/>
     </row>
     <row r="24" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="135">
+      <c r="A24" s="133">
         <v>18</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="131"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="144"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="134"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
       <c r="S24" s="60"/>
-      <c r="T24" s="144"/>
-      <c r="U24" s="144"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="144"/>
-      <c r="AA24" s="144"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="144"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="144"/>
-      <c r="AH24" s="144"/>
-      <c r="AI24" s="144"/>
-      <c r="AJ24" s="144"/>
-      <c r="AK24" s="144"/>
-      <c r="AL24" s="144"/>
-      <c r="AM24" s="144"/>
-      <c r="AN24" s="144"/>
-      <c r="AO24" s="144"/>
-      <c r="AP24" s="144"/>
-      <c r="AQ24" s="144"/>
-      <c r="AR24" s="144"/>
-      <c r="AS24" s="168"/>
-      <c r="AT24" s="168"/>
-      <c r="AU24" s="168"/>
-      <c r="AV24" s="168"/>
-      <c r="AW24" s="168"/>
-      <c r="AX24" s="168"/>
-      <c r="AY24" s="168"/>
-      <c r="AZ24" s="168"/>
-      <c r="BA24" s="168"/>
-      <c r="BB24" s="168"/>
-      <c r="BC24" s="168"/>
-      <c r="BD24" s="168"/>
-      <c r="BE24" s="168"/>
-      <c r="BF24" s="168"/>
-      <c r="BG24" s="168"/>
-      <c r="BH24" s="168"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
+      <c r="V24" s="145"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="145"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="145"/>
+      <c r="AG24" s="145"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="145"/>
+      <c r="AJ24" s="145"/>
+      <c r="AK24" s="145"/>
+      <c r="AL24" s="145"/>
+      <c r="AM24" s="145"/>
+      <c r="AN24" s="145"/>
+      <c r="AO24" s="145"/>
+      <c r="AP24" s="145"/>
+      <c r="AQ24" s="145"/>
+      <c r="AR24" s="145"/>
+      <c r="AS24" s="170"/>
+      <c r="AT24" s="170"/>
+      <c r="AU24" s="170"/>
+      <c r="AV24" s="170"/>
+      <c r="AW24" s="170"/>
+      <c r="AX24" s="170"/>
+      <c r="AY24" s="170"/>
+      <c r="AZ24" s="170"/>
+      <c r="BA24" s="170"/>
+      <c r="BB24" s="170"/>
+      <c r="BC24" s="170"/>
+      <c r="BD24" s="170"/>
+      <c r="BE24" s="170"/>
+      <c r="BF24" s="170"/>
+      <c r="BG24" s="170"/>
+      <c r="BH24" s="170"/>
       <c r="BJ24" s="17"/>
       <c r="BK24" s="17"/>
       <c r="BL24" s="17"/>
@@ -14470,68 +14505,68 @@
       <c r="CO24" s="17"/>
     </row>
     <row r="25" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="135">
+      <c r="A25" s="133">
         <v>19</v>
       </c>
-      <c r="B25" s="135"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="131"/>
-      <c r="J25" s="131"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="131"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="144"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
       <c r="S25" s="60"/>
-      <c r="T25" s="144"/>
-      <c r="U25" s="144"/>
-      <c r="V25" s="144"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="144"/>
-      <c r="AA25" s="144"/>
-      <c r="AB25" s="144"/>
-      <c r="AC25" s="144"/>
-      <c r="AD25" s="144"/>
-      <c r="AE25" s="144"/>
-      <c r="AF25" s="144"/>
-      <c r="AG25" s="144"/>
-      <c r="AH25" s="144"/>
-      <c r="AI25" s="144"/>
-      <c r="AJ25" s="144"/>
-      <c r="AK25" s="144"/>
-      <c r="AL25" s="144"/>
-      <c r="AM25" s="144"/>
-      <c r="AN25" s="144"/>
-      <c r="AO25" s="144"/>
-      <c r="AP25" s="144"/>
-      <c r="AQ25" s="144"/>
-      <c r="AR25" s="144"/>
-      <c r="AS25" s="168"/>
-      <c r="AT25" s="168"/>
-      <c r="AU25" s="168"/>
-      <c r="AV25" s="168"/>
-      <c r="AW25" s="168"/>
-      <c r="AX25" s="168"/>
-      <c r="AY25" s="168"/>
-      <c r="AZ25" s="168"/>
-      <c r="BA25" s="168"/>
-      <c r="BB25" s="168"/>
-      <c r="BC25" s="168"/>
-      <c r="BD25" s="168"/>
-      <c r="BE25" s="168"/>
-      <c r="BF25" s="168"/>
-      <c r="BG25" s="168"/>
-      <c r="BH25" s="168"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="145"/>
+      <c r="AJ25" s="145"/>
+      <c r="AK25" s="145"/>
+      <c r="AL25" s="145"/>
+      <c r="AM25" s="145"/>
+      <c r="AN25" s="145"/>
+      <c r="AO25" s="145"/>
+      <c r="AP25" s="145"/>
+      <c r="AQ25" s="145"/>
+      <c r="AR25" s="145"/>
+      <c r="AS25" s="170"/>
+      <c r="AT25" s="170"/>
+      <c r="AU25" s="170"/>
+      <c r="AV25" s="170"/>
+      <c r="AW25" s="170"/>
+      <c r="AX25" s="170"/>
+      <c r="AY25" s="170"/>
+      <c r="AZ25" s="170"/>
+      <c r="BA25" s="170"/>
+      <c r="BB25" s="170"/>
+      <c r="BC25" s="170"/>
+      <c r="BD25" s="170"/>
+      <c r="BE25" s="170"/>
+      <c r="BF25" s="170"/>
+      <c r="BG25" s="170"/>
+      <c r="BH25" s="170"/>
       <c r="BJ25" s="17"/>
       <c r="BK25" s="17"/>
       <c r="BL25" s="17"/>
@@ -14566,68 +14601,68 @@
       <c r="CO25" s="17"/>
     </row>
     <row r="26" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="135">
+      <c r="A26" s="133">
         <v>20</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="131"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="144"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+      <c r="N26" s="134"/>
+      <c r="O26" s="134"/>
+      <c r="P26" s="134"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
       <c r="S26" s="56"/>
-      <c r="T26" s="139"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
-      <c r="W26" s="141"/>
-      <c r="X26" s="140"/>
-      <c r="Y26" s="144"/>
-      <c r="Z26" s="144"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="144"/>
-      <c r="AC26" s="144"/>
-      <c r="AD26" s="144"/>
-      <c r="AE26" s="144"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="144"/>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="144"/>
-      <c r="AJ26" s="144"/>
-      <c r="AK26" s="144"/>
-      <c r="AL26" s="144"/>
-      <c r="AM26" s="144"/>
-      <c r="AN26" s="144"/>
-      <c r="AO26" s="144"/>
-      <c r="AP26" s="144"/>
-      <c r="AQ26" s="144"/>
-      <c r="AR26" s="144"/>
-      <c r="AS26" s="168"/>
-      <c r="AT26" s="168"/>
-      <c r="AU26" s="168"/>
-      <c r="AV26" s="168"/>
-      <c r="AW26" s="168"/>
-      <c r="AX26" s="168"/>
-      <c r="AY26" s="168"/>
-      <c r="AZ26" s="168"/>
-      <c r="BA26" s="168"/>
-      <c r="BB26" s="168"/>
-      <c r="BC26" s="168"/>
-      <c r="BD26" s="168"/>
-      <c r="BE26" s="168"/>
-      <c r="BF26" s="168"/>
-      <c r="BG26" s="168"/>
-      <c r="BH26" s="168"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="143"/>
+      <c r="W26" s="143"/>
+      <c r="X26" s="142"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
+      <c r="AK26" s="145"/>
+      <c r="AL26" s="145"/>
+      <c r="AM26" s="145"/>
+      <c r="AN26" s="145"/>
+      <c r="AO26" s="145"/>
+      <c r="AP26" s="145"/>
+      <c r="AQ26" s="145"/>
+      <c r="AR26" s="145"/>
+      <c r="AS26" s="170"/>
+      <c r="AT26" s="170"/>
+      <c r="AU26" s="170"/>
+      <c r="AV26" s="170"/>
+      <c r="AW26" s="170"/>
+      <c r="AX26" s="170"/>
+      <c r="AY26" s="170"/>
+      <c r="AZ26" s="170"/>
+      <c r="BA26" s="170"/>
+      <c r="BB26" s="170"/>
+      <c r="BC26" s="170"/>
+      <c r="BD26" s="170"/>
+      <c r="BE26" s="170"/>
+      <c r="BF26" s="170"/>
+      <c r="BG26" s="170"/>
+      <c r="BH26" s="170"/>
       <c r="BJ26" s="17"/>
       <c r="BK26" s="17"/>
       <c r="BL26" s="17"/>
@@ -14662,68 +14697,68 @@
       <c r="CO26" s="17"/>
     </row>
     <row r="27" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="135">
+      <c r="A27" s="133">
         <v>21</v>
       </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="133"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="133"/>
-      <c r="J27" s="133"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="140"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="142"/>
       <c r="S27" s="60"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="140"/>
-      <c r="Y27" s="139"/>
-      <c r="Z27" s="140"/>
-      <c r="AA27" s="139"/>
-      <c r="AB27" s="140"/>
-      <c r="AC27" s="139"/>
-      <c r="AD27" s="141"/>
-      <c r="AE27" s="141"/>
-      <c r="AF27" s="141"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="141"/>
-      <c r="AJ27" s="140"/>
-      <c r="AK27" s="139"/>
-      <c r="AL27" s="141"/>
-      <c r="AM27" s="141"/>
-      <c r="AN27" s="141"/>
-      <c r="AO27" s="141"/>
-      <c r="AP27" s="141"/>
-      <c r="AQ27" s="141"/>
-      <c r="AR27" s="140"/>
-      <c r="AS27" s="158"/>
-      <c r="AT27" s="159"/>
-      <c r="AU27" s="159"/>
-      <c r="AV27" s="159"/>
-      <c r="AW27" s="159"/>
-      <c r="AX27" s="159"/>
-      <c r="AY27" s="159"/>
-      <c r="AZ27" s="159"/>
-      <c r="BA27" s="159"/>
-      <c r="BB27" s="159"/>
-      <c r="BC27" s="159"/>
-      <c r="BD27" s="159"/>
-      <c r="BE27" s="159"/>
-      <c r="BF27" s="159"/>
-      <c r="BG27" s="159"/>
-      <c r="BH27" s="160"/>
+      <c r="T27" s="141"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="143"/>
+      <c r="W27" s="143"/>
+      <c r="X27" s="142"/>
+      <c r="Y27" s="141"/>
+      <c r="Z27" s="142"/>
+      <c r="AA27" s="141"/>
+      <c r="AB27" s="142"/>
+      <c r="AC27" s="141"/>
+      <c r="AD27" s="143"/>
+      <c r="AE27" s="143"/>
+      <c r="AF27" s="143"/>
+      <c r="AG27" s="143"/>
+      <c r="AH27" s="143"/>
+      <c r="AI27" s="143"/>
+      <c r="AJ27" s="142"/>
+      <c r="AK27" s="141"/>
+      <c r="AL27" s="143"/>
+      <c r="AM27" s="143"/>
+      <c r="AN27" s="143"/>
+      <c r="AO27" s="143"/>
+      <c r="AP27" s="143"/>
+      <c r="AQ27" s="143"/>
+      <c r="AR27" s="142"/>
+      <c r="AS27" s="160"/>
+      <c r="AT27" s="161"/>
+      <c r="AU27" s="161"/>
+      <c r="AV27" s="161"/>
+      <c r="AW27" s="161"/>
+      <c r="AX27" s="161"/>
+      <c r="AY27" s="161"/>
+      <c r="AZ27" s="161"/>
+      <c r="BA27" s="161"/>
+      <c r="BB27" s="161"/>
+      <c r="BC27" s="161"/>
+      <c r="BD27" s="161"/>
+      <c r="BE27" s="161"/>
+      <c r="BF27" s="161"/>
+      <c r="BG27" s="161"/>
+      <c r="BH27" s="162"/>
       <c r="BJ27" s="17"/>
       <c r="BK27" s="17"/>
       <c r="BL27" s="17"/>
@@ -14916,632 +14951,632 @@
       <c r="BH29" s="2"/>
     </row>
     <row r="30" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="142" t="s">
+      <c r="A30" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="142"/>
-      <c r="T30" s="142"/>
-      <c r="U30" s="142"/>
-      <c r="V30" s="142"/>
-      <c r="W30" s="142"/>
-      <c r="X30" s="142"/>
-      <c r="Y30" s="142"/>
-      <c r="Z30" s="142"/>
-      <c r="AA30" s="142"/>
-      <c r="AB30" s="142"/>
-      <c r="AC30" s="142"/>
-      <c r="AD30" s="142"/>
-      <c r="AE30" s="142"/>
-      <c r="AF30" s="142"/>
-      <c r="AG30" s="142"/>
-      <c r="AH30" s="142"/>
-      <c r="AI30" s="142" t="s">
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="144"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="144"/>
+      <c r="T30" s="144"/>
+      <c r="U30" s="144"/>
+      <c r="V30" s="144"/>
+      <c r="W30" s="144"/>
+      <c r="X30" s="144"/>
+      <c r="Y30" s="144"/>
+      <c r="Z30" s="144"/>
+      <c r="AA30" s="144"/>
+      <c r="AB30" s="144"/>
+      <c r="AC30" s="144"/>
+      <c r="AD30" s="144"/>
+      <c r="AE30" s="144"/>
+      <c r="AF30" s="144"/>
+      <c r="AG30" s="144"/>
+      <c r="AH30" s="144"/>
+      <c r="AI30" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="AJ30" s="142"/>
-      <c r="AK30" s="142"/>
-      <c r="AL30" s="142"/>
-      <c r="AM30" s="142"/>
-      <c r="AN30" s="142"/>
-      <c r="AO30" s="142"/>
-      <c r="AP30" s="142"/>
-      <c r="AQ30" s="142"/>
-      <c r="AR30" s="142"/>
-      <c r="AS30" s="142"/>
-      <c r="AT30" s="142"/>
-      <c r="AU30" s="142"/>
-      <c r="AV30" s="142" t="s">
+      <c r="AJ30" s="144"/>
+      <c r="AK30" s="144"/>
+      <c r="AL30" s="144"/>
+      <c r="AM30" s="144"/>
+      <c r="AN30" s="144"/>
+      <c r="AO30" s="144"/>
+      <c r="AP30" s="144"/>
+      <c r="AQ30" s="144"/>
+      <c r="AR30" s="144"/>
+      <c r="AS30" s="144"/>
+      <c r="AT30" s="144"/>
+      <c r="AU30" s="144"/>
+      <c r="AV30" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="AW30" s="142"/>
-      <c r="AX30" s="142"/>
-      <c r="AY30" s="142"/>
-      <c r="AZ30" s="142"/>
-      <c r="BA30" s="142"/>
-      <c r="BB30" s="142"/>
-      <c r="BC30" s="142"/>
-      <c r="BD30" s="142"/>
-      <c r="BE30" s="142"/>
-      <c r="BF30" s="142"/>
-      <c r="BG30" s="142"/>
-      <c r="BH30" s="142"/>
+      <c r="AW30" s="144"/>
+      <c r="AX30" s="144"/>
+      <c r="AY30" s="144"/>
+      <c r="AZ30" s="144"/>
+      <c r="BA30" s="144"/>
+      <c r="BB30" s="144"/>
+      <c r="BC30" s="144"/>
+      <c r="BD30" s="144"/>
+      <c r="BE30" s="144"/>
+      <c r="BF30" s="144"/>
+      <c r="BG30" s="144"/>
+      <c r="BH30" s="144"/>
     </row>
     <row r="31" spans="1:93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="161"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="161"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="161"/>
-      <c r="S31" s="161"/>
-      <c r="T31" s="161"/>
-      <c r="U31" s="161"/>
-      <c r="V31" s="161"/>
-      <c r="W31" s="161"/>
-      <c r="X31" s="161"/>
-      <c r="Y31" s="161"/>
-      <c r="Z31" s="161"/>
-      <c r="AA31" s="161"/>
-      <c r="AB31" s="161"/>
-      <c r="AC31" s="161"/>
-      <c r="AD31" s="161"/>
-      <c r="AE31" s="161"/>
-      <c r="AF31" s="161"/>
-      <c r="AG31" s="161"/>
-      <c r="AH31" s="161"/>
-      <c r="AI31" s="135"/>
-      <c r="AJ31" s="135"/>
-      <c r="AK31" s="135"/>
-      <c r="AL31" s="135"/>
-      <c r="AM31" s="135"/>
-      <c r="AN31" s="135"/>
-      <c r="AO31" s="135"/>
-      <c r="AP31" s="135"/>
-      <c r="AQ31" s="135"/>
-      <c r="AR31" s="135"/>
-      <c r="AS31" s="135"/>
-      <c r="AT31" s="135"/>
-      <c r="AU31" s="135"/>
-      <c r="AV31" s="171"/>
-      <c r="AW31" s="171"/>
-      <c r="AX31" s="171"/>
-      <c r="AY31" s="171"/>
-      <c r="AZ31" s="171"/>
-      <c r="BA31" s="171"/>
-      <c r="BB31" s="171"/>
-      <c r="BC31" s="171"/>
-      <c r="BD31" s="171"/>
-      <c r="BE31" s="171"/>
-      <c r="BF31" s="171"/>
-      <c r="BG31" s="171"/>
-      <c r="BH31" s="171"/>
+      <c r="A31" s="163"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="163"/>
+      <c r="K31" s="163"/>
+      <c r="L31" s="172"/>
+      <c r="M31" s="163"/>
+      <c r="N31" s="163"/>
+      <c r="O31" s="163"/>
+      <c r="P31" s="163"/>
+      <c r="Q31" s="163"/>
+      <c r="R31" s="163"/>
+      <c r="S31" s="163"/>
+      <c r="T31" s="163"/>
+      <c r="U31" s="163"/>
+      <c r="V31" s="163"/>
+      <c r="W31" s="163"/>
+      <c r="X31" s="163"/>
+      <c r="Y31" s="163"/>
+      <c r="Z31" s="163"/>
+      <c r="AA31" s="163"/>
+      <c r="AB31" s="163"/>
+      <c r="AC31" s="163"/>
+      <c r="AD31" s="163"/>
+      <c r="AE31" s="163"/>
+      <c r="AF31" s="163"/>
+      <c r="AG31" s="163"/>
+      <c r="AH31" s="163"/>
+      <c r="AI31" s="133"/>
+      <c r="AJ31" s="133"/>
+      <c r="AK31" s="133"/>
+      <c r="AL31" s="133"/>
+      <c r="AM31" s="133"/>
+      <c r="AN31" s="133"/>
+      <c r="AO31" s="133"/>
+      <c r="AP31" s="133"/>
+      <c r="AQ31" s="133"/>
+      <c r="AR31" s="133"/>
+      <c r="AS31" s="133"/>
+      <c r="AT31" s="133"/>
+      <c r="AU31" s="133"/>
+      <c r="AV31" s="173"/>
+      <c r="AW31" s="173"/>
+      <c r="AX31" s="173"/>
+      <c r="AY31" s="173"/>
+      <c r="AZ31" s="173"/>
+      <c r="BA31" s="173"/>
+      <c r="BB31" s="173"/>
+      <c r="BC31" s="173"/>
+      <c r="BD31" s="173"/>
+      <c r="BE31" s="173"/>
+      <c r="BF31" s="173"/>
+      <c r="BG31" s="173"/>
+      <c r="BH31" s="173"/>
     </row>
     <row r="32" spans="1:93" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="161"/>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
-      <c r="J32" s="161"/>
-      <c r="K32" s="161"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="161"/>
-      <c r="T32" s="161"/>
-      <c r="U32" s="161"/>
-      <c r="V32" s="161"/>
-      <c r="W32" s="161"/>
-      <c r="X32" s="161"/>
-      <c r="Y32" s="161"/>
-      <c r="Z32" s="161"/>
-      <c r="AA32" s="161"/>
-      <c r="AB32" s="161"/>
-      <c r="AC32" s="161"/>
-      <c r="AD32" s="161"/>
-      <c r="AE32" s="161"/>
-      <c r="AF32" s="161"/>
-      <c r="AG32" s="161"/>
-      <c r="AH32" s="161"/>
-      <c r="AI32" s="135"/>
-      <c r="AJ32" s="135"/>
-      <c r="AK32" s="135"/>
-      <c r="AL32" s="135"/>
-      <c r="AM32" s="135"/>
-      <c r="AN32" s="135"/>
-      <c r="AO32" s="135"/>
-      <c r="AP32" s="135"/>
-      <c r="AQ32" s="135"/>
-      <c r="AR32" s="135"/>
-      <c r="AS32" s="135"/>
-      <c r="AT32" s="135"/>
-      <c r="AU32" s="135"/>
-      <c r="AV32" s="144"/>
-      <c r="AW32" s="144"/>
-      <c r="AX32" s="144"/>
-      <c r="AY32" s="144"/>
-      <c r="AZ32" s="144"/>
-      <c r="BA32" s="144"/>
-      <c r="BB32" s="144"/>
-      <c r="BC32" s="144"/>
-      <c r="BD32" s="144"/>
-      <c r="BE32" s="144"/>
-      <c r="BF32" s="144"/>
-      <c r="BG32" s="144"/>
-      <c r="BH32" s="144"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="172"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="163"/>
+      <c r="S32" s="163"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="163"/>
+      <c r="V32" s="163"/>
+      <c r="W32" s="163"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="163"/>
+      <c r="Z32" s="163"/>
+      <c r="AA32" s="163"/>
+      <c r="AB32" s="163"/>
+      <c r="AC32" s="163"/>
+      <c r="AD32" s="163"/>
+      <c r="AE32" s="163"/>
+      <c r="AF32" s="163"/>
+      <c r="AG32" s="163"/>
+      <c r="AH32" s="163"/>
+      <c r="AI32" s="133"/>
+      <c r="AJ32" s="133"/>
+      <c r="AK32" s="133"/>
+      <c r="AL32" s="133"/>
+      <c r="AM32" s="133"/>
+      <c r="AN32" s="133"/>
+      <c r="AO32" s="133"/>
+      <c r="AP32" s="133"/>
+      <c r="AQ32" s="133"/>
+      <c r="AR32" s="133"/>
+      <c r="AS32" s="133"/>
+      <c r="AT32" s="133"/>
+      <c r="AU32" s="133"/>
+      <c r="AV32" s="145"/>
+      <c r="AW32" s="145"/>
+      <c r="AX32" s="145"/>
+      <c r="AY32" s="145"/>
+      <c r="AZ32" s="145"/>
+      <c r="BA32" s="145"/>
+      <c r="BB32" s="145"/>
+      <c r="BC32" s="145"/>
+      <c r="BD32" s="145"/>
+      <c r="BE32" s="145"/>
+      <c r="BF32" s="145"/>
+      <c r="BG32" s="145"/>
+      <c r="BH32" s="145"/>
     </row>
     <row r="33" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="144"/>
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="144"/>
-      <c r="R33" s="144"/>
-      <c r="S33" s="144"/>
-      <c r="T33" s="144"/>
-      <c r="U33" s="144"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="144"/>
-      <c r="Y33" s="144"/>
-      <c r="Z33" s="144"/>
-      <c r="AA33" s="144"/>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="144"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="144"/>
-      <c r="AF33" s="144"/>
-      <c r="AG33" s="144"/>
-      <c r="AH33" s="144"/>
-      <c r="AI33" s="135"/>
-      <c r="AJ33" s="135"/>
-      <c r="AK33" s="135"/>
-      <c r="AL33" s="135"/>
-      <c r="AM33" s="135"/>
-      <c r="AN33" s="135"/>
-      <c r="AO33" s="135"/>
-      <c r="AP33" s="135"/>
-      <c r="AQ33" s="135"/>
-      <c r="AR33" s="135"/>
-      <c r="AS33" s="135"/>
-      <c r="AT33" s="135"/>
-      <c r="AU33" s="135"/>
-      <c r="AV33" s="144"/>
-      <c r="AW33" s="144"/>
-      <c r="AX33" s="144"/>
-      <c r="AY33" s="144"/>
-      <c r="AZ33" s="144"/>
-      <c r="BA33" s="144"/>
-      <c r="BB33" s="144"/>
-      <c r="BC33" s="144"/>
-      <c r="BD33" s="144"/>
-      <c r="BE33" s="144"/>
-      <c r="BF33" s="144"/>
-      <c r="BG33" s="144"/>
-      <c r="BH33" s="144"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="145"/>
+      <c r="Q33" s="145"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="133"/>
+      <c r="AJ33" s="133"/>
+      <c r="AK33" s="133"/>
+      <c r="AL33" s="133"/>
+      <c r="AM33" s="133"/>
+      <c r="AN33" s="133"/>
+      <c r="AO33" s="133"/>
+      <c r="AP33" s="133"/>
+      <c r="AQ33" s="133"/>
+      <c r="AR33" s="133"/>
+      <c r="AS33" s="133"/>
+      <c r="AT33" s="133"/>
+      <c r="AU33" s="133"/>
+      <c r="AV33" s="145"/>
+      <c r="AW33" s="145"/>
+      <c r="AX33" s="145"/>
+      <c r="AY33" s="145"/>
+      <c r="AZ33" s="145"/>
+      <c r="BA33" s="145"/>
+      <c r="BB33" s="145"/>
+      <c r="BC33" s="145"/>
+      <c r="BD33" s="145"/>
+      <c r="BE33" s="145"/>
+      <c r="BF33" s="145"/>
+      <c r="BG33" s="145"/>
+      <c r="BH33" s="145"/>
     </row>
     <row r="34" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="144"/>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="144"/>
-      <c r="N34" s="144"/>
-      <c r="O34" s="144"/>
-      <c r="P34" s="144"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="144"/>
-      <c r="S34" s="144"/>
-      <c r="T34" s="144"/>
-      <c r="U34" s="144"/>
-      <c r="V34" s="144"/>
-      <c r="W34" s="144"/>
-      <c r="X34" s="144"/>
-      <c r="Y34" s="144"/>
-      <c r="Z34" s="144"/>
-      <c r="AA34" s="144"/>
-      <c r="AB34" s="144"/>
-      <c r="AC34" s="144"/>
-      <c r="AD34" s="144"/>
-      <c r="AE34" s="144"/>
-      <c r="AF34" s="144"/>
-      <c r="AG34" s="144"/>
-      <c r="AH34" s="144"/>
-      <c r="AI34" s="135"/>
-      <c r="AJ34" s="135"/>
-      <c r="AK34" s="135"/>
-      <c r="AL34" s="135"/>
-      <c r="AM34" s="135"/>
-      <c r="AN34" s="135"/>
-      <c r="AO34" s="135"/>
-      <c r="AP34" s="135"/>
-      <c r="AQ34" s="135"/>
-      <c r="AR34" s="135"/>
-      <c r="AS34" s="135"/>
-      <c r="AT34" s="135"/>
-      <c r="AU34" s="135"/>
-      <c r="AV34" s="144"/>
-      <c r="AW34" s="144"/>
-      <c r="AX34" s="144"/>
-      <c r="AY34" s="144"/>
-      <c r="AZ34" s="144"/>
-      <c r="BA34" s="144"/>
-      <c r="BB34" s="144"/>
-      <c r="BC34" s="144"/>
-      <c r="BD34" s="144"/>
-      <c r="BE34" s="144"/>
-      <c r="BF34" s="144"/>
-      <c r="BG34" s="144"/>
-      <c r="BH34" s="144"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="145"/>
+      <c r="Q34" s="145"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="145"/>
+      <c r="T34" s="145"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="145"/>
+      <c r="AF34" s="145"/>
+      <c r="AG34" s="145"/>
+      <c r="AH34" s="145"/>
+      <c r="AI34" s="133"/>
+      <c r="AJ34" s="133"/>
+      <c r="AK34" s="133"/>
+      <c r="AL34" s="133"/>
+      <c r="AM34" s="133"/>
+      <c r="AN34" s="133"/>
+      <c r="AO34" s="133"/>
+      <c r="AP34" s="133"/>
+      <c r="AQ34" s="133"/>
+      <c r="AR34" s="133"/>
+      <c r="AS34" s="133"/>
+      <c r="AT34" s="133"/>
+      <c r="AU34" s="133"/>
+      <c r="AV34" s="145"/>
+      <c r="AW34" s="145"/>
+      <c r="AX34" s="145"/>
+      <c r="AY34" s="145"/>
+      <c r="AZ34" s="145"/>
+      <c r="BA34" s="145"/>
+      <c r="BB34" s="145"/>
+      <c r="BC34" s="145"/>
+      <c r="BD34" s="145"/>
+      <c r="BE34" s="145"/>
+      <c r="BF34" s="145"/>
+      <c r="BG34" s="145"/>
+      <c r="BH34" s="145"/>
     </row>
     <row r="35" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="144"/>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="144"/>
-      <c r="N35" s="144"/>
-      <c r="O35" s="144"/>
-      <c r="P35" s="144"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="144"/>
-      <c r="S35" s="144"/>
-      <c r="T35" s="144"/>
-      <c r="U35" s="144"/>
-      <c r="V35" s="144"/>
-      <c r="W35" s="144"/>
-      <c r="X35" s="144"/>
-      <c r="Y35" s="144"/>
-      <c r="Z35" s="144"/>
-      <c r="AA35" s="144"/>
-      <c r="AB35" s="144"/>
-      <c r="AC35" s="144"/>
-      <c r="AD35" s="144"/>
-      <c r="AE35" s="144"/>
-      <c r="AF35" s="144"/>
-      <c r="AG35" s="144"/>
-      <c r="AH35" s="144"/>
-      <c r="AI35" s="135"/>
-      <c r="AJ35" s="135"/>
-      <c r="AK35" s="135"/>
-      <c r="AL35" s="135"/>
-      <c r="AM35" s="135"/>
-      <c r="AN35" s="135"/>
-      <c r="AO35" s="135"/>
-      <c r="AP35" s="135"/>
-      <c r="AQ35" s="135"/>
-      <c r="AR35" s="135"/>
-      <c r="AS35" s="135"/>
-      <c r="AT35" s="135"/>
-      <c r="AU35" s="135"/>
-      <c r="AV35" s="144"/>
-      <c r="AW35" s="144"/>
-      <c r="AX35" s="144"/>
-      <c r="AY35" s="144"/>
-      <c r="AZ35" s="144"/>
-      <c r="BA35" s="144"/>
-      <c r="BB35" s="144"/>
-      <c r="BC35" s="144"/>
-      <c r="BD35" s="144"/>
-      <c r="BE35" s="144"/>
-      <c r="BF35" s="144"/>
-      <c r="BG35" s="144"/>
-      <c r="BH35" s="144"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="145"/>
+      <c r="Q35" s="145"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
+      <c r="Y35" s="145"/>
+      <c r="Z35" s="145"/>
+      <c r="AA35" s="145"/>
+      <c r="AB35" s="145"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="145"/>
+      <c r="AF35" s="145"/>
+      <c r="AG35" s="145"/>
+      <c r="AH35" s="145"/>
+      <c r="AI35" s="133"/>
+      <c r="AJ35" s="133"/>
+      <c r="AK35" s="133"/>
+      <c r="AL35" s="133"/>
+      <c r="AM35" s="133"/>
+      <c r="AN35" s="133"/>
+      <c r="AO35" s="133"/>
+      <c r="AP35" s="133"/>
+      <c r="AQ35" s="133"/>
+      <c r="AR35" s="133"/>
+      <c r="AS35" s="133"/>
+      <c r="AT35" s="133"/>
+      <c r="AU35" s="133"/>
+      <c r="AV35" s="145"/>
+      <c r="AW35" s="145"/>
+      <c r="AX35" s="145"/>
+      <c r="AY35" s="145"/>
+      <c r="AZ35" s="145"/>
+      <c r="BA35" s="145"/>
+      <c r="BB35" s="145"/>
+      <c r="BC35" s="145"/>
+      <c r="BD35" s="145"/>
+      <c r="BE35" s="145"/>
+      <c r="BF35" s="145"/>
+      <c r="BG35" s="145"/>
+      <c r="BH35" s="145"/>
     </row>
     <row r="36" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="144"/>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="144"/>
-      <c r="N36" s="144"/>
-      <c r="O36" s="144"/>
-      <c r="P36" s="144"/>
-      <c r="Q36" s="144"/>
-      <c r="R36" s="144"/>
-      <c r="S36" s="144"/>
-      <c r="T36" s="144"/>
-      <c r="U36" s="144"/>
-      <c r="V36" s="144"/>
-      <c r="W36" s="144"/>
-      <c r="X36" s="144"/>
-      <c r="Y36" s="144"/>
-      <c r="Z36" s="144"/>
-      <c r="AA36" s="144"/>
-      <c r="AB36" s="144"/>
-      <c r="AC36" s="144"/>
-      <c r="AD36" s="144"/>
-      <c r="AE36" s="144"/>
-      <c r="AF36" s="144"/>
-      <c r="AG36" s="144"/>
-      <c r="AH36" s="144"/>
-      <c r="AI36" s="135"/>
-      <c r="AJ36" s="135"/>
-      <c r="AK36" s="135"/>
-      <c r="AL36" s="135"/>
-      <c r="AM36" s="135"/>
-      <c r="AN36" s="135"/>
-      <c r="AO36" s="135"/>
-      <c r="AP36" s="135"/>
-      <c r="AQ36" s="135"/>
-      <c r="AR36" s="135"/>
-      <c r="AS36" s="135"/>
-      <c r="AT36" s="135"/>
-      <c r="AU36" s="135"/>
-      <c r="AV36" s="144"/>
-      <c r="AW36" s="144"/>
-      <c r="AX36" s="144"/>
-      <c r="AY36" s="144"/>
-      <c r="AZ36" s="144"/>
-      <c r="BA36" s="144"/>
-      <c r="BB36" s="144"/>
-      <c r="BC36" s="144"/>
-      <c r="BD36" s="144"/>
-      <c r="BE36" s="144"/>
-      <c r="BF36" s="144"/>
-      <c r="BG36" s="144"/>
-      <c r="BH36" s="144"/>
+      <c r="A36" s="145"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
+      <c r="M36" s="145"/>
+      <c r="N36" s="145"/>
+      <c r="O36" s="145"/>
+      <c r="P36" s="145"/>
+      <c r="Q36" s="145"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="145"/>
+      <c r="T36" s="145"/>
+      <c r="U36" s="145"/>
+      <c r="V36" s="145"/>
+      <c r="W36" s="145"/>
+      <c r="X36" s="145"/>
+      <c r="Y36" s="145"/>
+      <c r="Z36" s="145"/>
+      <c r="AA36" s="145"/>
+      <c r="AB36" s="145"/>
+      <c r="AC36" s="145"/>
+      <c r="AD36" s="145"/>
+      <c r="AE36" s="145"/>
+      <c r="AF36" s="145"/>
+      <c r="AG36" s="145"/>
+      <c r="AH36" s="145"/>
+      <c r="AI36" s="133"/>
+      <c r="AJ36" s="133"/>
+      <c r="AK36" s="133"/>
+      <c r="AL36" s="133"/>
+      <c r="AM36" s="133"/>
+      <c r="AN36" s="133"/>
+      <c r="AO36" s="133"/>
+      <c r="AP36" s="133"/>
+      <c r="AQ36" s="133"/>
+      <c r="AR36" s="133"/>
+      <c r="AS36" s="133"/>
+      <c r="AT36" s="133"/>
+      <c r="AU36" s="133"/>
+      <c r="AV36" s="145"/>
+      <c r="AW36" s="145"/>
+      <c r="AX36" s="145"/>
+      <c r="AY36" s="145"/>
+      <c r="AZ36" s="145"/>
+      <c r="BA36" s="145"/>
+      <c r="BB36" s="145"/>
+      <c r="BC36" s="145"/>
+      <c r="BD36" s="145"/>
+      <c r="BE36" s="145"/>
+      <c r="BF36" s="145"/>
+      <c r="BG36" s="145"/>
+      <c r="BH36" s="145"/>
     </row>
     <row r="37" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="144"/>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
-      <c r="O37" s="144"/>
-      <c r="P37" s="144"/>
-      <c r="Q37" s="144"/>
-      <c r="R37" s="144"/>
-      <c r="S37" s="144"/>
-      <c r="T37" s="144"/>
-      <c r="U37" s="144"/>
-      <c r="V37" s="144"/>
-      <c r="W37" s="144"/>
-      <c r="X37" s="144"/>
-      <c r="Y37" s="144"/>
-      <c r="Z37" s="144"/>
-      <c r="AA37" s="144"/>
-      <c r="AB37" s="144"/>
-      <c r="AC37" s="144"/>
-      <c r="AD37" s="144"/>
-      <c r="AE37" s="144"/>
-      <c r="AF37" s="144"/>
-      <c r="AG37" s="144"/>
-      <c r="AH37" s="144"/>
-      <c r="AI37" s="135"/>
-      <c r="AJ37" s="135"/>
-      <c r="AK37" s="135"/>
-      <c r="AL37" s="135"/>
-      <c r="AM37" s="135"/>
-      <c r="AN37" s="135"/>
-      <c r="AO37" s="135"/>
-      <c r="AP37" s="135"/>
-      <c r="AQ37" s="135"/>
-      <c r="AR37" s="135"/>
-      <c r="AS37" s="135"/>
-      <c r="AT37" s="135"/>
-      <c r="AU37" s="135"/>
-      <c r="AV37" s="144"/>
-      <c r="AW37" s="144"/>
-      <c r="AX37" s="144"/>
-      <c r="AY37" s="144"/>
-      <c r="AZ37" s="144"/>
-      <c r="BA37" s="144"/>
-      <c r="BB37" s="144"/>
-      <c r="BC37" s="144"/>
-      <c r="BD37" s="144"/>
-      <c r="BE37" s="144"/>
-      <c r="BF37" s="144"/>
-      <c r="BG37" s="144"/>
-      <c r="BH37" s="144"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
+      <c r="M37" s="145"/>
+      <c r="N37" s="145"/>
+      <c r="O37" s="145"/>
+      <c r="P37" s="145"/>
+      <c r="Q37" s="145"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="145"/>
+      <c r="T37" s="145"/>
+      <c r="U37" s="145"/>
+      <c r="V37" s="145"/>
+      <c r="W37" s="145"/>
+      <c r="X37" s="145"/>
+      <c r="Y37" s="145"/>
+      <c r="Z37" s="145"/>
+      <c r="AA37" s="145"/>
+      <c r="AB37" s="145"/>
+      <c r="AC37" s="145"/>
+      <c r="AD37" s="145"/>
+      <c r="AE37" s="145"/>
+      <c r="AF37" s="145"/>
+      <c r="AG37" s="145"/>
+      <c r="AH37" s="145"/>
+      <c r="AI37" s="133"/>
+      <c r="AJ37" s="133"/>
+      <c r="AK37" s="133"/>
+      <c r="AL37" s="133"/>
+      <c r="AM37" s="133"/>
+      <c r="AN37" s="133"/>
+      <c r="AO37" s="133"/>
+      <c r="AP37" s="133"/>
+      <c r="AQ37" s="133"/>
+      <c r="AR37" s="133"/>
+      <c r="AS37" s="133"/>
+      <c r="AT37" s="133"/>
+      <c r="AU37" s="133"/>
+      <c r="AV37" s="145"/>
+      <c r="AW37" s="145"/>
+      <c r="AX37" s="145"/>
+      <c r="AY37" s="145"/>
+      <c r="AZ37" s="145"/>
+      <c r="BA37" s="145"/>
+      <c r="BB37" s="145"/>
+      <c r="BC37" s="145"/>
+      <c r="BD37" s="145"/>
+      <c r="BE37" s="145"/>
+      <c r="BF37" s="145"/>
+      <c r="BG37" s="145"/>
+      <c r="BH37" s="145"/>
     </row>
     <row r="38" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="144"/>
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
-      <c r="M38" s="144"/>
-      <c r="N38" s="144"/>
-      <c r="O38" s="144"/>
-      <c r="P38" s="144"/>
-      <c r="Q38" s="144"/>
-      <c r="R38" s="144"/>
-      <c r="S38" s="144"/>
-      <c r="T38" s="144"/>
-      <c r="U38" s="144"/>
-      <c r="V38" s="144"/>
-      <c r="W38" s="144"/>
-      <c r="X38" s="144"/>
-      <c r="Y38" s="144"/>
-      <c r="Z38" s="144"/>
-      <c r="AA38" s="144"/>
-      <c r="AB38" s="144"/>
-      <c r="AC38" s="144"/>
-      <c r="AD38" s="144"/>
-      <c r="AE38" s="144"/>
-      <c r="AF38" s="144"/>
-      <c r="AG38" s="144"/>
-      <c r="AH38" s="144"/>
-      <c r="AI38" s="135"/>
-      <c r="AJ38" s="135"/>
-      <c r="AK38" s="135"/>
-      <c r="AL38" s="135"/>
-      <c r="AM38" s="135"/>
-      <c r="AN38" s="135"/>
-      <c r="AO38" s="135"/>
-      <c r="AP38" s="135"/>
-      <c r="AQ38" s="135"/>
-      <c r="AR38" s="135"/>
-      <c r="AS38" s="135"/>
-      <c r="AT38" s="135"/>
-      <c r="AU38" s="135"/>
-      <c r="AV38" s="144"/>
-      <c r="AW38" s="144"/>
-      <c r="AX38" s="144"/>
-      <c r="AY38" s="144"/>
-      <c r="AZ38" s="144"/>
-      <c r="BA38" s="144"/>
-      <c r="BB38" s="144"/>
-      <c r="BC38" s="144"/>
-      <c r="BD38" s="144"/>
-      <c r="BE38" s="144"/>
-      <c r="BF38" s="144"/>
-      <c r="BG38" s="144"/>
-      <c r="BH38" s="144"/>
+      <c r="A38" s="145"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
+      <c r="M38" s="145"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="145"/>
+      <c r="P38" s="145"/>
+      <c r="Q38" s="145"/>
+      <c r="R38" s="145"/>
+      <c r="S38" s="145"/>
+      <c r="T38" s="145"/>
+      <c r="U38" s="145"/>
+      <c r="V38" s="145"/>
+      <c r="W38" s="145"/>
+      <c r="X38" s="145"/>
+      <c r="Y38" s="145"/>
+      <c r="Z38" s="145"/>
+      <c r="AA38" s="145"/>
+      <c r="AB38" s="145"/>
+      <c r="AC38" s="145"/>
+      <c r="AD38" s="145"/>
+      <c r="AE38" s="145"/>
+      <c r="AF38" s="145"/>
+      <c r="AG38" s="145"/>
+      <c r="AH38" s="145"/>
+      <c r="AI38" s="133"/>
+      <c r="AJ38" s="133"/>
+      <c r="AK38" s="133"/>
+      <c r="AL38" s="133"/>
+      <c r="AM38" s="133"/>
+      <c r="AN38" s="133"/>
+      <c r="AO38" s="133"/>
+      <c r="AP38" s="133"/>
+      <c r="AQ38" s="133"/>
+      <c r="AR38" s="133"/>
+      <c r="AS38" s="133"/>
+      <c r="AT38" s="133"/>
+      <c r="AU38" s="133"/>
+      <c r="AV38" s="145"/>
+      <c r="AW38" s="145"/>
+      <c r="AX38" s="145"/>
+      <c r="AY38" s="145"/>
+      <c r="AZ38" s="145"/>
+      <c r="BA38" s="145"/>
+      <c r="BB38" s="145"/>
+      <c r="BC38" s="145"/>
+      <c r="BD38" s="145"/>
+      <c r="BE38" s="145"/>
+      <c r="BF38" s="145"/>
+      <c r="BG38" s="145"/>
+      <c r="BH38" s="145"/>
     </row>
     <row r="39" spans="1:60" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="144"/>
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="144"/>
-      <c r="O39" s="144"/>
-      <c r="P39" s="144"/>
-      <c r="Q39" s="144"/>
-      <c r="R39" s="144"/>
-      <c r="S39" s="144"/>
-      <c r="T39" s="144"/>
-      <c r="U39" s="144"/>
-      <c r="V39" s="144"/>
-      <c r="W39" s="144"/>
-      <c r="X39" s="144"/>
-      <c r="Y39" s="144"/>
-      <c r="Z39" s="144"/>
-      <c r="AA39" s="144"/>
-      <c r="AB39" s="144"/>
-      <c r="AC39" s="144"/>
-      <c r="AD39" s="144"/>
-      <c r="AE39" s="144"/>
-      <c r="AF39" s="144"/>
-      <c r="AG39" s="144"/>
-      <c r="AH39" s="144"/>
-      <c r="AI39" s="135"/>
-      <c r="AJ39" s="135"/>
-      <c r="AK39" s="135"/>
-      <c r="AL39" s="135"/>
-      <c r="AM39" s="135"/>
-      <c r="AN39" s="135"/>
-      <c r="AO39" s="135"/>
-      <c r="AP39" s="135"/>
-      <c r="AQ39" s="135"/>
-      <c r="AR39" s="135"/>
-      <c r="AS39" s="135"/>
-      <c r="AT39" s="135"/>
-      <c r="AU39" s="135"/>
-      <c r="AV39" s="144"/>
-      <c r="AW39" s="144"/>
-      <c r="AX39" s="144"/>
-      <c r="AY39" s="144"/>
-      <c r="AZ39" s="144"/>
-      <c r="BA39" s="144"/>
-      <c r="BB39" s="144"/>
-      <c r="BC39" s="144"/>
-      <c r="BD39" s="144"/>
-      <c r="BE39" s="144"/>
-      <c r="BF39" s="144"/>
-      <c r="BG39" s="144"/>
-      <c r="BH39" s="144"/>
+      <c r="A39" s="145"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
+      <c r="L39" s="145"/>
+      <c r="M39" s="145"/>
+      <c r="N39" s="145"/>
+      <c r="O39" s="145"/>
+      <c r="P39" s="145"/>
+      <c r="Q39" s="145"/>
+      <c r="R39" s="145"/>
+      <c r="S39" s="145"/>
+      <c r="T39" s="145"/>
+      <c r="U39" s="145"/>
+      <c r="V39" s="145"/>
+      <c r="W39" s="145"/>
+      <c r="X39" s="145"/>
+      <c r="Y39" s="145"/>
+      <c r="Z39" s="145"/>
+      <c r="AA39" s="145"/>
+      <c r="AB39" s="145"/>
+      <c r="AC39" s="145"/>
+      <c r="AD39" s="145"/>
+      <c r="AE39" s="145"/>
+      <c r="AF39" s="145"/>
+      <c r="AG39" s="145"/>
+      <c r="AH39" s="145"/>
+      <c r="AI39" s="133"/>
+      <c r="AJ39" s="133"/>
+      <c r="AK39" s="133"/>
+      <c r="AL39" s="133"/>
+      <c r="AM39" s="133"/>
+      <c r="AN39" s="133"/>
+      <c r="AO39" s="133"/>
+      <c r="AP39" s="133"/>
+      <c r="AQ39" s="133"/>
+      <c r="AR39" s="133"/>
+      <c r="AS39" s="133"/>
+      <c r="AT39" s="133"/>
+      <c r="AU39" s="133"/>
+      <c r="AV39" s="145"/>
+      <c r="AW39" s="145"/>
+      <c r="AX39" s="145"/>
+      <c r="AY39" s="145"/>
+      <c r="AZ39" s="145"/>
+      <c r="BA39" s="145"/>
+      <c r="BB39" s="145"/>
+      <c r="BC39" s="145"/>
+      <c r="BD39" s="145"/>
+      <c r="BE39" s="145"/>
+      <c r="BF39" s="145"/>
+      <c r="BG39" s="145"/>
+      <c r="BH39" s="145"/>
     </row>
     <row r="40" spans="1:60" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6"/>
@@ -15757,6 +15792,7 @@
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="AA23:AB23"/>
     <mergeCell ref="AC23:AJ23"/>
+    <mergeCell ref="M10:P10"/>
     <mergeCell ref="AK15:AR15"/>
     <mergeCell ref="AC16:AJ16"/>
     <mergeCell ref="AK16:AR16"/>
@@ -15780,7 +15816,8 @@
     <mergeCell ref="AS13:BH13"/>
     <mergeCell ref="AS14:BH14"/>
     <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="AC7:AJ7"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="A1:K2"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="S4:AB4"/>
@@ -15803,16 +15840,6 @@
     <mergeCell ref="T8:X8"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="AS4:BH6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="BB1:BH1"/>
     <mergeCell ref="BB2:BH2"/>
     <mergeCell ref="AU1:BA1"/>
@@ -15823,14 +15850,22 @@
     <mergeCell ref="S1:AF1"/>
     <mergeCell ref="S2:AF2"/>
     <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="AS4:BH6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="A4:B6"/>
     <mergeCell ref="C4:L6"/>
     <mergeCell ref="M4:P6"/>
     <mergeCell ref="Q4:R6"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="AC7:AJ7"/>
     <mergeCell ref="AC4:AR4"/>
     <mergeCell ref="AK5:AR6"/>
     <mergeCell ref="AC5:AJ6"/>
@@ -15860,17 +15895,6 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="M11:P11"/>
@@ -15884,6 +15908,17 @@
     <mergeCell ref="C14:L14"/>
     <mergeCell ref="M13:P13"/>
     <mergeCell ref="C13:L13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15901,7 +15936,7 @@
   </sheetPr>
   <dimension ref="A1:BR143"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A97" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A97" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AF102" sqref="AF102"/>
     </sheetView>
   </sheetViews>
@@ -15913,133 +15948,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="182" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="184" t="s">
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="185" t="str">
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="187" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="185"/>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="186" t="s">
+      <c r="T1" s="187"/>
+      <c r="U1" s="187"/>
+      <c r="V1" s="187"/>
+      <c r="W1" s="187"/>
+      <c r="X1" s="187"/>
+      <c r="Y1" s="187"/>
+      <c r="Z1" s="187"/>
+      <c r="AA1" s="187"/>
+      <c r="AB1" s="187"/>
+      <c r="AC1" s="187"/>
+      <c r="AD1" s="187"/>
+      <c r="AE1" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="186"/>
-      <c r="AG1" s="186"/>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="188" t="s">
+      <c r="AF1" s="188"/>
+      <c r="AG1" s="188"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="189"/>
-      <c r="AK1" s="189"/>
-      <c r="AL1" s="189"/>
-      <c r="AM1" s="189"/>
-      <c r="AN1" s="190"/>
-      <c r="AO1" s="192" t="s">
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="192"/>
+      <c r="AO1" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="193"/>
-      <c r="AQ1" s="193"/>
-      <c r="AR1" s="194"/>
-      <c r="AS1" s="188" t="s">
+      <c r="AP1" s="195"/>
+      <c r="AQ1" s="195"/>
+      <c r="AR1" s="196"/>
+      <c r="AS1" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="189"/>
-      <c r="AU1" s="189"/>
-      <c r="AV1" s="189"/>
-      <c r="AW1" s="189"/>
-      <c r="AX1" s="190"/>
+      <c r="AT1" s="191"/>
+      <c r="AU1" s="191"/>
+      <c r="AV1" s="191"/>
+      <c r="AW1" s="191"/>
+      <c r="AX1" s="192"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="182"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184" t="s">
+      <c r="A2" s="184"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
-      <c r="U2" s="185"/>
-      <c r="V2" s="185"/>
-      <c r="W2" s="185"/>
-      <c r="X2" s="185"/>
-      <c r="Y2" s="185"/>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="185"/>
-      <c r="AB2" s="185"/>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="185"/>
-      <c r="AE2" s="186" t="s">
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="187"/>
+      <c r="AB2" s="187"/>
+      <c r="AC2" s="187"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="188" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="186"/>
-      <c r="AG2" s="186"/>
-      <c r="AH2" s="187"/>
-      <c r="AI2" s="191">
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="193">
         <v>44539</v>
       </c>
-      <c r="AJ2" s="189"/>
-      <c r="AK2" s="189"/>
-      <c r="AL2" s="189"/>
-      <c r="AM2" s="189"/>
-      <c r="AN2" s="190"/>
-      <c r="AO2" s="192" t="s">
+      <c r="AJ2" s="191"/>
+      <c r="AK2" s="191"/>
+      <c r="AL2" s="191"/>
+      <c r="AM2" s="191"/>
+      <c r="AN2" s="192"/>
+      <c r="AO2" s="194" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="193"/>
-      <c r="AQ2" s="193"/>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="191">
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="195"/>
+      <c r="AR2" s="196"/>
+      <c r="AS2" s="193">
         <v>44540</v>
       </c>
-      <c r="AT2" s="189"/>
-      <c r="AU2" s="189"/>
-      <c r="AV2" s="189"/>
-      <c r="AW2" s="189"/>
-      <c r="AX2" s="190"/>
+      <c r="AT2" s="191"/>
+      <c r="AU2" s="191"/>
+      <c r="AV2" s="191"/>
+      <c r="AW2" s="191"/>
+      <c r="AX2" s="192"/>
     </row>
     <row r="3" spans="1:50" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20"/>
@@ -16149,22 +16184,22 @@
     </row>
     <row r="5" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23"/>
-      <c r="B5" s="179" t="s">
+      <c r="B5" s="181" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="179"/>
-      <c r="I5" s="148" t="s">
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
       <c r="N5" s="18" t="s">
         <v>51</v>
       </c>
@@ -16213,22 +16248,22 @@
     </row>
     <row r="6" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23"/>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="180" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="178"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="178"/>
-      <c r="H6" s="178"/>
-      <c r="I6" s="170" t="s">
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="180"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="180"/>
+      <c r="I6" s="172" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
         <v>44</v>
@@ -16271,18 +16306,18 @@
     </row>
     <row r="7" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -16323,18 +16358,18 @@
     </row>
     <row r="8" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
-      <c r="E8" s="178"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="178"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="180"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
@@ -16375,18 +16410,18 @@
     </row>
     <row r="9" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="174"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="179"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="176"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -18791,7 +18826,7 @@
       <c r="G54" s="45"/>
       <c r="H54" s="45"/>
       <c r="I54" s="45"/>
-      <c r="J54" s="196"/>
+      <c r="J54" s="83"/>
       <c r="K54" s="47" t="s">
         <v>188</v>
       </c>
@@ -18847,7 +18882,7 @@
       <c r="G55" s="50"/>
       <c r="H55" s="50"/>
       <c r="I55" s="50"/>
-      <c r="J55" s="195"/>
+      <c r="J55" s="82"/>
       <c r="K55" s="46" t="s">
         <v>58</v>
       </c>

--- a/2.詳細設計/2-6_詳細設計_顧客情報一覧・表示画面.xlsx
+++ b/2.詳細設計/2-6_詳細設計_顧客情報一覧・表示画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\customerSampleYM\2.詳細設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81806\Desktop\仕事\2回目課題\2.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84AA59-3BA0-4FB5-8286-ADDD31821226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2996A28-060F-4AA2-B4F9-D20C43333796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="645" windowWidth="17475" windowHeight="15555" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12645" yWindow="120" windowWidth="15600" windowHeight="15555" tabRatio="747" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.表紙" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="193">
   <si>
     <t>詳細設計書</t>
   </si>
@@ -485,15 +485,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>BIRTH_YEAR</t>
-  </si>
-  <si>
-    <t>BIRTH_MONTH</t>
-  </si>
-  <si>
-    <t>BIRTH_DAY</t>
-  </si>
-  <si>
     <t>SEX</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2248,6 +2239,41 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>キジュツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BIRTH_YEAR</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BIRTH_MONTH</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BIRTH_DAY</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.入出力定義</t>
+    <rPh sb="2" eb="7">
+      <t>ニュウシュツリョクテイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>苗字・名前の画面桁数の変更</t>
+    <rPh sb="0" eb="2">
+      <t>ミョウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ガメンケタスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2997,6 +3023,27 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3024,42 +3071,29 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3076,24 +3110,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3103,10 +3137,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3119,16 +3150,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3140,15 +3172,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3157,34 +3180,28 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3205,18 +3222,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3235,17 +3240,83 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3270,51 +3341,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7216,7 +7242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7555,28 +7583,28 @@
       <c r="E10" s="62"/>
       <c r="F10" s="62"/>
       <c r="G10" s="62"/>
-      <c r="H10" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="86"/>
+      <c r="H10" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="93"/>
       <c r="AB10" s="63"/>
       <c r="AC10" s="63"/>
       <c r="AD10" s="63"/>
@@ -7593,26 +7621,26 @@
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="88"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="89"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="95"/>
+      <c r="Q11" s="95"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="96"/>
       <c r="AB11" s="63"/>
       <c r="AC11" s="63"/>
       <c r="AD11" s="63"/>
@@ -7629,26 +7657,26 @@
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="88"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
-      <c r="W12" s="88"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="88"/>
-      <c r="Z12" s="88"/>
-      <c r="AA12" s="89"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="95"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="96"/>
       <c r="AB12" s="63"/>
       <c r="AC12" s="63"/>
       <c r="AD12" s="63"/>
@@ -7665,28 +7693,28 @@
       <c r="E13" s="62"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62"/>
-      <c r="H13" s="87" t="s">
+      <c r="H13" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
-      <c r="W13" s="88"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="88"/>
-      <c r="Z13" s="88"/>
-      <c r="AA13" s="89"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="95"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="96"/>
       <c r="AB13" s="63"/>
       <c r="AC13" s="63"/>
       <c r="AD13" s="63"/>
@@ -7703,26 +7731,26 @@
       <c r="E14" s="62"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="88"/>
-      <c r="Z14" s="88"/>
-      <c r="AA14" s="89"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="96"/>
       <c r="AB14" s="63"/>
       <c r="AC14" s="63"/>
       <c r="AD14" s="63"/>
@@ -7739,26 +7767,26 @@
       <c r="E15" s="62"/>
       <c r="F15" s="62"/>
       <c r="G15" s="62"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
-      <c r="T15" s="91"/>
-      <c r="U15" s="91"/>
-      <c r="V15" s="91"/>
-      <c r="W15" s="91"/>
-      <c r="X15" s="91"/>
-      <c r="Y15" s="91"/>
-      <c r="Z15" s="91"/>
-      <c r="AA15" s="92"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="99"/>
       <c r="AB15" s="63"/>
       <c r="AC15" s="63"/>
       <c r="AD15" s="63"/>
@@ -8028,28 +8056,28 @@
       <c r="F23" s="62"/>
       <c r="G23" s="62"/>
       <c r="H23" s="62"/>
-      <c r="I23" s="93" t="s">
+      <c r="I23" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="93" t="s">
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="94"/>
-      <c r="S23" s="94"/>
-      <c r="T23" s="94"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="94"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="94"/>
-      <c r="Y23" s="94"/>
-      <c r="Z23" s="95"/>
+      <c r="P23" s="85"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="85"/>
+      <c r="S23" s="85"/>
+      <c r="T23" s="85"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="85"/>
+      <c r="X23" s="85"/>
+      <c r="Y23" s="85"/>
+      <c r="Z23" s="86"/>
       <c r="AA23" s="62"/>
       <c r="AB23" s="63"/>
       <c r="AC23" s="63"/>
@@ -8068,24 +8096,24 @@
       <c r="F24" s="62"/>
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="98"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="88"/>
+      <c r="X24" s="88"/>
+      <c r="Y24" s="88"/>
+      <c r="Z24" s="89"/>
       <c r="AA24" s="62"/>
       <c r="AB24" s="63"/>
       <c r="AC24" s="63"/>
@@ -8104,28 +8132,28 @@
       <c r="F25" s="62"/>
       <c r="G25" s="62"/>
       <c r="H25" s="62"/>
-      <c r="I25" s="93" t="s">
+      <c r="I25" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="93" t="s">
-        <v>101</v>
-      </c>
-      <c r="P25" s="94"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="94"/>
-      <c r="S25" s="94"/>
-      <c r="T25" s="94"/>
-      <c r="U25" s="94"/>
-      <c r="V25" s="94"/>
-      <c r="W25" s="94"/>
-      <c r="X25" s="94"/>
-      <c r="Y25" s="94"/>
-      <c r="Z25" s="95"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="84" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="86"/>
       <c r="AA25" s="62"/>
       <c r="AB25" s="63"/>
       <c r="AC25" s="63"/>
@@ -8144,24 +8172,24 @@
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
       <c r="H26" s="62"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="98"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="88"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="88"/>
+      <c r="Z26" s="89"/>
       <c r="AA26" s="62"/>
       <c r="AB26" s="63"/>
       <c r="AC26" s="63"/>
@@ -8180,28 +8208,28 @@
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
       <c r="H27" s="62"/>
-      <c r="I27" s="93" t="s">
+      <c r="I27" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="93" t="s">
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="94"/>
-      <c r="S27" s="94"/>
-      <c r="T27" s="94"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="94"/>
-      <c r="W27" s="94"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="94"/>
-      <c r="Z27" s="95"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="86"/>
       <c r="AA27" s="62"/>
       <c r="AB27" s="63"/>
       <c r="AC27" s="63"/>
@@ -8220,24 +8248,24 @@
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
       <c r="H28" s="62"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="98"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="89"/>
       <c r="AA28" s="62"/>
       <c r="AB28" s="63"/>
       <c r="AC28" s="63"/>
@@ -8256,28 +8284,28 @@
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
       <c r="H29" s="62"/>
-      <c r="I29" s="93" t="s">
+      <c r="I29" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="99">
-        <v>44545</v>
-      </c>
-      <c r="P29" s="94"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="94"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
-      <c r="Z29" s="95"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="90">
+        <v>44565</v>
+      </c>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="86"/>
       <c r="AA29" s="62"/>
       <c r="AB29" s="63"/>
       <c r="AC29" s="63"/>
@@ -8296,24 +8324,24 @@
       <c r="F30" s="62"/>
       <c r="G30" s="62"/>
       <c r="H30" s="62"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="98"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="89"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+      <c r="W30" s="88"/>
+      <c r="X30" s="88"/>
+      <c r="Y30" s="88"/>
+      <c r="Z30" s="89"/>
       <c r="AA30" s="62"/>
       <c r="AB30" s="63"/>
       <c r="AC30" s="63"/>
@@ -8332,28 +8360,28 @@
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
       <c r="H31" s="62"/>
-      <c r="I31" s="93" t="s">
+      <c r="I31" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="93" t="s">
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="94"/>
-      <c r="S31" s="94"/>
-      <c r="T31" s="94"/>
-      <c r="U31" s="94"/>
-      <c r="V31" s="94"/>
-      <c r="W31" s="94"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="94"/>
-      <c r="Z31" s="95"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="86"/>
       <c r="AA31" s="62"/>
       <c r="AB31" s="63"/>
       <c r="AC31" s="63"/>
@@ -8372,24 +8400,24 @@
       <c r="F32" s="62"/>
       <c r="G32" s="62"/>
       <c r="H32" s="62"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="97"/>
-      <c r="Z32" s="98"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="88"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="89"/>
       <c r="AA32" s="62"/>
       <c r="AB32" s="63"/>
       <c r="AC32" s="63"/>
@@ -8408,28 +8436,28 @@
       <c r="F33" s="62"/>
       <c r="G33" s="62"/>
       <c r="H33" s="62"/>
-      <c r="I33" s="93" t="s">
+      <c r="I33" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="99">
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="90">
         <v>44539</v>
       </c>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="94"/>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="94"/>
-      <c r="W33" s="94"/>
-      <c r="X33" s="94"/>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="95"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="85"/>
+      <c r="T33" s="85"/>
+      <c r="U33" s="85"/>
+      <c r="V33" s="85"/>
+      <c r="W33" s="85"/>
+      <c r="X33" s="85"/>
+      <c r="Y33" s="85"/>
+      <c r="Z33" s="86"/>
       <c r="AA33" s="62"/>
       <c r="AB33" s="63"/>
       <c r="AC33" s="63"/>
@@ -8448,24 +8476,24 @@
       <c r="F34" s="62"/>
       <c r="G34" s="62"/>
       <c r="H34" s="62"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="97"/>
-      <c r="T34" s="97"/>
-      <c r="U34" s="97"/>
-      <c r="V34" s="97"/>
-      <c r="W34" s="97"/>
-      <c r="X34" s="97"/>
-      <c r="Y34" s="97"/>
-      <c r="Z34" s="98"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="89"/>
       <c r="AA34" s="62"/>
       <c r="AB34" s="63"/>
       <c r="AC34" s="63"/>
@@ -8693,6 +8721,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H10:AA12"/>
+    <mergeCell ref="H13:AA15"/>
+    <mergeCell ref="I23:N24"/>
+    <mergeCell ref="O23:Z24"/>
+    <mergeCell ref="I25:N26"/>
+    <mergeCell ref="O25:Z26"/>
     <mergeCell ref="I33:N34"/>
     <mergeCell ref="O33:Z34"/>
     <mergeCell ref="I27:N28"/>
@@ -8701,12 +8735,6 @@
     <mergeCell ref="O29:Z30"/>
     <mergeCell ref="I31:N32"/>
     <mergeCell ref="O31:Z32"/>
-    <mergeCell ref="H10:AA12"/>
-    <mergeCell ref="H13:AA15"/>
-    <mergeCell ref="I23:N24"/>
-    <mergeCell ref="O23:Z24"/>
-    <mergeCell ref="I25:N26"/>
-    <mergeCell ref="O25:Z26"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8719,7 +8747,7 @@
   <dimension ref="A1:AX40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:AX7"/>
+      <selection activeCell="C7" sqref="C7:AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8730,127 +8758,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="104" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="109" t="str">
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="111" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
-      <c r="AG1" s="109"/>
-      <c r="AH1" s="109"/>
-      <c r="AI1" s="109"/>
-      <c r="AJ1" s="109"/>
-      <c r="AK1" s="107" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="111"/>
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="111"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="AL1" s="107"/>
-      <c r="AM1" s="107"/>
-      <c r="AN1" s="107"/>
-      <c r="AO1" s="107"/>
-      <c r="AP1" s="107"/>
-      <c r="AQ1" s="107"/>
-      <c r="AR1" s="106" t="str">
+      <c r="AL1" s="109"/>
+      <c r="AM1" s="109"/>
+      <c r="AN1" s="109"/>
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="109"/>
+      <c r="AQ1" s="109"/>
+      <c r="AR1" s="108" t="str">
         <f>'0.表紙'!O31</f>
         <v>山城</v>
       </c>
-      <c r="AS1" s="106"/>
-      <c r="AT1" s="106"/>
-      <c r="AU1" s="106"/>
-      <c r="AV1" s="106"/>
-      <c r="AW1" s="106"/>
-      <c r="AX1" s="106"/>
+      <c r="AS1" s="108"/>
+      <c r="AT1" s="108"/>
+      <c r="AU1" s="108"/>
+      <c r="AV1" s="108"/>
+      <c r="AW1" s="108"/>
+      <c r="AX1" s="108"/>
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="104" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="106"/>
-      <c r="AJ2" s="106"/>
-      <c r="AK2" s="107" t="s">
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="108"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="108"/>
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="108"/>
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="108"/>
+      <c r="AJ2" s="108"/>
+      <c r="AK2" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="107"/>
-      <c r="AN2" s="107"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="107"/>
-      <c r="AQ2" s="107"/>
-      <c r="AR2" s="108">
+      <c r="AL2" s="109"/>
+      <c r="AM2" s="109"/>
+      <c r="AN2" s="109"/>
+      <c r="AO2" s="109"/>
+      <c r="AP2" s="109"/>
+      <c r="AQ2" s="109"/>
+      <c r="AR2" s="110">
         <f>'0.表紙'!O33</f>
         <v>44539</v>
       </c>
-      <c r="AS2" s="108"/>
-      <c r="AT2" s="108"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="108"/>
-      <c r="AW2" s="108"/>
-      <c r="AX2" s="108"/>
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="110"/>
+      <c r="AU2" s="110"/>
+      <c r="AV2" s="110"/>
+      <c r="AW2" s="110"/>
+      <c r="AX2" s="110"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3" s="51"/>
@@ -8873,77 +8901,77 @@
       <c r="R3" s="51"/>
     </row>
     <row r="4" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101" t="s">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101" t="s">
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="112" t="s">
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="112"/>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="112"/>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="112"/>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="112"/>
-      <c r="AX4" s="112"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="114"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="114"/>
+      <c r="Z4" s="114"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="114"/>
+      <c r="AE4" s="114"/>
+      <c r="AF4" s="114"/>
+      <c r="AG4" s="114"/>
+      <c r="AH4" s="114"/>
+      <c r="AI4" s="114"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="114"/>
+      <c r="AM4" s="114"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="114"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
+      <c r="AW4" s="114"/>
+      <c r="AX4" s="114"/>
     </row>
     <row r="5" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105">
+      <c r="A5" s="104">
         <v>1</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="111">
+      <c r="B5" s="104"/>
+      <c r="C5" s="106">
         <v>44539</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="102" t="s">
         <v>5</v>
       </c>
@@ -8963,45 +8991,45 @@
       <c r="R5" s="102"/>
       <c r="S5" s="102"/>
       <c r="T5" s="102"/>
-      <c r="U5" s="113" t="s">
+      <c r="U5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="113"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
-      <c r="Y5" s="113"/>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="113"/>
-      <c r="AB5" s="113"/>
-      <c r="AC5" s="113"/>
-      <c r="AD5" s="113"/>
-      <c r="AE5" s="113"/>
-      <c r="AF5" s="113"/>
-      <c r="AG5" s="113"/>
-      <c r="AH5" s="113"/>
-      <c r="AI5" s="113"/>
-      <c r="AJ5" s="113"/>
-      <c r="AK5" s="113"/>
-      <c r="AL5" s="113"/>
-      <c r="AM5" s="113"/>
-      <c r="AN5" s="113"/>
-      <c r="AO5" s="113"/>
-      <c r="AP5" s="113"/>
-      <c r="AQ5" s="113"/>
-      <c r="AR5" s="113"/>
-      <c r="AS5" s="113"/>
-      <c r="AT5" s="113"/>
-      <c r="AU5" s="113"/>
-      <c r="AV5" s="113"/>
-      <c r="AW5" s="113"/>
-      <c r="AX5" s="113"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
+      <c r="AA5" s="103"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="103"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="103"/>
+      <c r="AI5" s="103"/>
+      <c r="AJ5" s="103"/>
+      <c r="AK5" s="103"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="103"/>
+      <c r="AN5" s="103"/>
+      <c r="AO5" s="103"/>
+      <c r="AP5" s="103"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="103"/>
+      <c r="AS5" s="103"/>
+      <c r="AT5" s="103"/>
+      <c r="AU5" s="103"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="103"/>
+      <c r="AX5" s="103"/>
     </row>
     <row r="6" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="105">
+      <c r="A6" s="104">
         <v>2</v>
       </c>
-      <c r="B6" s="105"/>
-      <c r="C6" s="111">
+      <c r="B6" s="104"/>
+      <c r="C6" s="106">
         <v>44545</v>
       </c>
       <c r="D6" s="102"/>
@@ -9014,7 +9042,7 @@
       <c r="I6" s="102"/>
       <c r="J6" s="102"/>
       <c r="K6" s="102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L6" s="102"/>
       <c r="M6" s="102"/>
@@ -9025,53 +9053,59 @@
       <c r="R6" s="102"/>
       <c r="S6" s="102"/>
       <c r="T6" s="102"/>
-      <c r="U6" s="113" t="s">
-        <v>190</v>
-      </c>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113"/>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113"/>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
+      <c r="U6" s="103" t="s">
+        <v>187</v>
+      </c>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="103"/>
+      <c r="Y6" s="103"/>
+      <c r="Z6" s="103"/>
+      <c r="AA6" s="103"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="103"/>
+      <c r="AI6" s="103"/>
+      <c r="AJ6" s="103"/>
+      <c r="AK6" s="103"/>
+      <c r="AL6" s="103"/>
+      <c r="AM6" s="103"/>
+      <c r="AN6" s="103"/>
+      <c r="AO6" s="103"/>
+      <c r="AP6" s="103"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="103"/>
+      <c r="AS6" s="103"/>
+      <c r="AT6" s="103"/>
+      <c r="AU6" s="103"/>
+      <c r="AV6" s="103"/>
+      <c r="AW6" s="103"/>
+      <c r="AX6" s="103"/>
     </row>
     <row r="7" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105">
+      <c r="A7" s="104">
         <v>3</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="111"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="106">
+        <v>44565</v>
+      </c>
       <c r="D7" s="102"/>
       <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="F7" s="102" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="102"/>
       <c r="H7" s="102"/>
       <c r="I7" s="102"/>
       <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
+      <c r="K7" s="105" t="s">
+        <v>191</v>
+      </c>
       <c r="L7" s="102"/>
       <c r="M7" s="102"/>
       <c r="N7" s="102"/>
@@ -9081,43 +9115,45 @@
       <c r="R7" s="102"/>
       <c r="S7" s="102"/>
       <c r="T7" s="102"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="113"/>
-      <c r="X7" s="113"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="113"/>
-      <c r="AB7" s="113"/>
-      <c r="AC7" s="113"/>
-      <c r="AD7" s="113"/>
-      <c r="AE7" s="113"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="113"/>
-      <c r="AH7" s="113"/>
-      <c r="AI7" s="113"/>
-      <c r="AJ7" s="113"/>
-      <c r="AK7" s="113"/>
-      <c r="AL7" s="113"/>
-      <c r="AM7" s="113"/>
-      <c r="AN7" s="113"/>
-      <c r="AO7" s="113"/>
-      <c r="AP7" s="113"/>
-      <c r="AQ7" s="113"/>
-      <c r="AR7" s="113"/>
-      <c r="AS7" s="113"/>
-      <c r="AT7" s="113"/>
-      <c r="AU7" s="113"/>
-      <c r="AV7" s="113"/>
-      <c r="AW7" s="113"/>
-      <c r="AX7" s="113"/>
+      <c r="U7" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="103"/>
+      <c r="AK7" s="103"/>
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="103"/>
+      <c r="AN7" s="103"/>
+      <c r="AO7" s="103"/>
+      <c r="AP7" s="103"/>
+      <c r="AQ7" s="103"/>
+      <c r="AR7" s="103"/>
+      <c r="AS7" s="103"/>
+      <c r="AT7" s="103"/>
+      <c r="AU7" s="103"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="103"/>
+      <c r="AX7" s="103"/>
     </row>
     <row r="8" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="105">
+      <c r="A8" s="104">
         <v>4</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="102"/>
       <c r="E8" s="102"/>
       <c r="F8" s="102"/>
@@ -9125,7 +9161,7 @@
       <c r="H8" s="102"/>
       <c r="I8" s="102"/>
       <c r="J8" s="102"/>
-      <c r="K8" s="114"/>
+      <c r="K8" s="105"/>
       <c r="L8" s="102"/>
       <c r="M8" s="102"/>
       <c r="N8" s="102"/>
@@ -9135,43 +9171,43 @@
       <c r="R8" s="102"/>
       <c r="S8" s="102"/>
       <c r="T8" s="102"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="113"/>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="113"/>
-      <c r="AJ8" s="113"/>
-      <c r="AK8" s="113"/>
-      <c r="AL8" s="113"/>
-      <c r="AM8" s="113"/>
-      <c r="AN8" s="113"/>
-      <c r="AO8" s="113"/>
-      <c r="AP8" s="113"/>
-      <c r="AQ8" s="113"/>
-      <c r="AR8" s="113"/>
-      <c r="AS8" s="113"/>
-      <c r="AT8" s="113"/>
-      <c r="AU8" s="113"/>
-      <c r="AV8" s="113"/>
-      <c r="AW8" s="113"/>
-      <c r="AX8" s="113"/>
+      <c r="U8" s="103"/>
+      <c r="V8" s="103"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="103"/>
+      <c r="Y8" s="103"/>
+      <c r="Z8" s="103"/>
+      <c r="AA8" s="103"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="103"/>
+      <c r="AD8" s="103"/>
+      <c r="AE8" s="103"/>
+      <c r="AF8" s="103"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="103"/>
+      <c r="AI8" s="103"/>
+      <c r="AJ8" s="103"/>
+      <c r="AK8" s="103"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="103"/>
+      <c r="AN8" s="103"/>
+      <c r="AO8" s="103"/>
+      <c r="AP8" s="103"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="103"/>
+      <c r="AS8" s="103"/>
+      <c r="AT8" s="103"/>
+      <c r="AU8" s="103"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="103"/>
+      <c r="AX8" s="103"/>
     </row>
     <row r="9" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="105">
+      <c r="A9" s="104">
         <v>5</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="102"/>
       <c r="E9" s="102"/>
       <c r="F9" s="102"/>
@@ -9179,7 +9215,7 @@
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
       <c r="J9" s="102"/>
-      <c r="K9" s="114"/>
+      <c r="K9" s="105"/>
       <c r="L9" s="102"/>
       <c r="M9" s="102"/>
       <c r="N9" s="102"/>
@@ -9189,42 +9225,42 @@
       <c r="R9" s="102"/>
       <c r="S9" s="102"/>
       <c r="T9" s="102"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="113"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="113"/>
-      <c r="AB9" s="113"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="113"/>
-      <c r="AJ9" s="113"/>
-      <c r="AK9" s="113"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="113"/>
-      <c r="AO9" s="113"/>
-      <c r="AP9" s="113"/>
-      <c r="AQ9" s="113"/>
-      <c r="AR9" s="113"/>
-      <c r="AS9" s="113"/>
-      <c r="AT9" s="113"/>
-      <c r="AU9" s="113"/>
-      <c r="AV9" s="113"/>
-      <c r="AW9" s="113"/>
-      <c r="AX9" s="113"/>
+      <c r="U9" s="103"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="103"/>
+      <c r="Y9" s="103"/>
+      <c r="Z9" s="103"/>
+      <c r="AA9" s="103"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="103"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="103"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="103"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="103"/>
+      <c r="AN9" s="103"/>
+      <c r="AO9" s="103"/>
+      <c r="AP9" s="103"/>
+      <c r="AQ9" s="103"/>
+      <c r="AR9" s="103"/>
+      <c r="AS9" s="103"/>
+      <c r="AT9" s="103"/>
+      <c r="AU9" s="103"/>
+      <c r="AV9" s="103"/>
+      <c r="AW9" s="103"/>
+      <c r="AX9" s="103"/>
     </row>
     <row r="10" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="105">
+      <c r="A10" s="104">
         <v>6</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="102"/>
       <c r="D10" s="102"/>
       <c r="E10" s="102"/>
@@ -9243,42 +9279,42 @@
       <c r="R10" s="102"/>
       <c r="S10" s="102"/>
       <c r="T10" s="102"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="113"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="113"/>
-      <c r="AG10" s="113"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="113"/>
-      <c r="AJ10" s="113"/>
-      <c r="AK10" s="113"/>
-      <c r="AL10" s="113"/>
-      <c r="AM10" s="113"/>
-      <c r="AN10" s="113"/>
-      <c r="AO10" s="113"/>
-      <c r="AP10" s="113"/>
-      <c r="AQ10" s="113"/>
-      <c r="AR10" s="113"/>
-      <c r="AS10" s="113"/>
-      <c r="AT10" s="113"/>
-      <c r="AU10" s="113"/>
-      <c r="AV10" s="113"/>
-      <c r="AW10" s="113"/>
-      <c r="AX10" s="113"/>
+      <c r="U10" s="103"/>
+      <c r="V10" s="103"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="103"/>
+      <c r="Y10" s="103"/>
+      <c r="Z10" s="103"/>
+      <c r="AA10" s="103"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="103"/>
+      <c r="AD10" s="103"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="103"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="103"/>
+      <c r="AI10" s="103"/>
+      <c r="AJ10" s="103"/>
+      <c r="AK10" s="103"/>
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="103"/>
+      <c r="AN10" s="103"/>
+      <c r="AO10" s="103"/>
+      <c r="AP10" s="103"/>
+      <c r="AQ10" s="103"/>
+      <c r="AR10" s="103"/>
+      <c r="AS10" s="103"/>
+      <c r="AT10" s="103"/>
+      <c r="AU10" s="103"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="103"/>
     </row>
     <row r="11" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="105">
+      <c r="A11" s="104">
         <v>7</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="102"/>
       <c r="D11" s="102"/>
       <c r="E11" s="102"/>
@@ -9297,42 +9333,42 @@
       <c r="R11" s="102"/>
       <c r="S11" s="102"/>
       <c r="T11" s="102"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="113"/>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="113"/>
-      <c r="AH11" s="113"/>
-      <c r="AI11" s="113"/>
-      <c r="AJ11" s="113"/>
-      <c r="AK11" s="113"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="113"/>
-      <c r="AN11" s="113"/>
-      <c r="AO11" s="113"/>
-      <c r="AP11" s="113"/>
-      <c r="AQ11" s="113"/>
-      <c r="AR11" s="113"/>
-      <c r="AS11" s="113"/>
-      <c r="AT11" s="113"/>
-      <c r="AU11" s="113"/>
-      <c r="AV11" s="113"/>
-      <c r="AW11" s="113"/>
-      <c r="AX11" s="113"/>
+      <c r="U11" s="103"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="103"/>
+      <c r="Y11" s="103"/>
+      <c r="Z11" s="103"/>
+      <c r="AA11" s="103"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="103"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="103"/>
+      <c r="AG11" s="103"/>
+      <c r="AH11" s="103"/>
+      <c r="AI11" s="103"/>
+      <c r="AJ11" s="103"/>
+      <c r="AK11" s="103"/>
+      <c r="AL11" s="103"/>
+      <c r="AM11" s="103"/>
+      <c r="AN11" s="103"/>
+      <c r="AO11" s="103"/>
+      <c r="AP11" s="103"/>
+      <c r="AQ11" s="103"/>
+      <c r="AR11" s="103"/>
+      <c r="AS11" s="103"/>
+      <c r="AT11" s="103"/>
+      <c r="AU11" s="103"/>
+      <c r="AV11" s="103"/>
+      <c r="AW11" s="103"/>
+      <c r="AX11" s="103"/>
     </row>
     <row r="12" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="105">
+      <c r="A12" s="104">
         <v>8</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="102"/>
       <c r="D12" s="102"/>
       <c r="E12" s="102"/>
@@ -9351,42 +9387,42 @@
       <c r="R12" s="102"/>
       <c r="S12" s="102"/>
       <c r="T12" s="102"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="113"/>
-      <c r="X12" s="113"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="113"/>
-      <c r="AB12" s="113"/>
-      <c r="AC12" s="113"/>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
-      <c r="AF12" s="113"/>
-      <c r="AG12" s="113"/>
-      <c r="AH12" s="113"/>
-      <c r="AI12" s="113"/>
-      <c r="AJ12" s="113"/>
-      <c r="AK12" s="113"/>
-      <c r="AL12" s="113"/>
-      <c r="AM12" s="113"/>
-      <c r="AN12" s="113"/>
-      <c r="AO12" s="113"/>
-      <c r="AP12" s="113"/>
-      <c r="AQ12" s="113"/>
-      <c r="AR12" s="113"/>
-      <c r="AS12" s="113"/>
-      <c r="AT12" s="113"/>
-      <c r="AU12" s="113"/>
-      <c r="AV12" s="113"/>
-      <c r="AW12" s="113"/>
-      <c r="AX12" s="113"/>
+      <c r="U12" s="103"/>
+      <c r="V12" s="103"/>
+      <c r="W12" s="103"/>
+      <c r="X12" s="103"/>
+      <c r="Y12" s="103"/>
+      <c r="Z12" s="103"/>
+      <c r="AA12" s="103"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="103"/>
+      <c r="AD12" s="103"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="103"/>
+      <c r="AG12" s="103"/>
+      <c r="AH12" s="103"/>
+      <c r="AI12" s="103"/>
+      <c r="AJ12" s="103"/>
+      <c r="AK12" s="103"/>
+      <c r="AL12" s="103"/>
+      <c r="AM12" s="103"/>
+      <c r="AN12" s="103"/>
+      <c r="AO12" s="103"/>
+      <c r="AP12" s="103"/>
+      <c r="AQ12" s="103"/>
+      <c r="AR12" s="103"/>
+      <c r="AS12" s="103"/>
+      <c r="AT12" s="103"/>
+      <c r="AU12" s="103"/>
+      <c r="AV12" s="103"/>
+      <c r="AW12" s="103"/>
+      <c r="AX12" s="103"/>
     </row>
     <row r="13" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="105">
+      <c r="A13" s="104">
         <v>9</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="102"/>
       <c r="D13" s="102"/>
       <c r="E13" s="102"/>
@@ -9405,42 +9441,42 @@
       <c r="R13" s="102"/>
       <c r="S13" s="102"/>
       <c r="T13" s="102"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="113"/>
-      <c r="W13" s="113"/>
-      <c r="X13" s="113"/>
-      <c r="Y13" s="113"/>
-      <c r="Z13" s="113"/>
-      <c r="AA13" s="113"/>
-      <c r="AB13" s="113"/>
-      <c r="AC13" s="113"/>
-      <c r="AD13" s="113"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
-      <c r="AG13" s="113"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="113"/>
-      <c r="AJ13" s="113"/>
-      <c r="AK13" s="113"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="113"/>
-      <c r="AN13" s="113"/>
-      <c r="AO13" s="113"/>
-      <c r="AP13" s="113"/>
-      <c r="AQ13" s="113"/>
-      <c r="AR13" s="113"/>
-      <c r="AS13" s="113"/>
-      <c r="AT13" s="113"/>
-      <c r="AU13" s="113"/>
-      <c r="AV13" s="113"/>
-      <c r="AW13" s="113"/>
-      <c r="AX13" s="113"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="103"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="103"/>
+      <c r="AG13" s="103"/>
+      <c r="AH13" s="103"/>
+      <c r="AI13" s="103"/>
+      <c r="AJ13" s="103"/>
+      <c r="AK13" s="103"/>
+      <c r="AL13" s="103"/>
+      <c r="AM13" s="103"/>
+      <c r="AN13" s="103"/>
+      <c r="AO13" s="103"/>
+      <c r="AP13" s="103"/>
+      <c r="AQ13" s="103"/>
+      <c r="AR13" s="103"/>
+      <c r="AS13" s="103"/>
+      <c r="AT13" s="103"/>
+      <c r="AU13" s="103"/>
+      <c r="AV13" s="103"/>
+      <c r="AW13" s="103"/>
+      <c r="AX13" s="103"/>
     </row>
     <row r="14" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="105">
+      <c r="A14" s="104">
         <v>10</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="102"/>
       <c r="D14" s="102"/>
       <c r="E14" s="102"/>
@@ -9459,42 +9495,42 @@
       <c r="R14" s="102"/>
       <c r="S14" s="102"/>
       <c r="T14" s="102"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="113"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="113"/>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="113"/>
-      <c r="AB14" s="113"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="113"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="113"/>
-      <c r="AG14" s="113"/>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="113"/>
-      <c r="AJ14" s="113"/>
-      <c r="AK14" s="113"/>
-      <c r="AL14" s="113"/>
-      <c r="AM14" s="113"/>
-      <c r="AN14" s="113"/>
-      <c r="AO14" s="113"/>
-      <c r="AP14" s="113"/>
-      <c r="AQ14" s="113"/>
-      <c r="AR14" s="113"/>
-      <c r="AS14" s="113"/>
-      <c r="AT14" s="113"/>
-      <c r="AU14" s="113"/>
-      <c r="AV14" s="113"/>
-      <c r="AW14" s="113"/>
-      <c r="AX14" s="113"/>
+      <c r="U14" s="103"/>
+      <c r="V14" s="103"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="103"/>
+      <c r="Y14" s="103"/>
+      <c r="Z14" s="103"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="103"/>
+      <c r="AD14" s="103"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="103"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="103"/>
+      <c r="AI14" s="103"/>
+      <c r="AJ14" s="103"/>
+      <c r="AK14" s="103"/>
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="103"/>
+      <c r="AN14" s="103"/>
+      <c r="AO14" s="103"/>
+      <c r="AP14" s="103"/>
+      <c r="AQ14" s="103"/>
+      <c r="AR14" s="103"/>
+      <c r="AS14" s="103"/>
+      <c r="AT14" s="103"/>
+      <c r="AU14" s="103"/>
+      <c r="AV14" s="103"/>
+      <c r="AW14" s="103"/>
+      <c r="AX14" s="103"/>
     </row>
     <row r="15" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="105">
+      <c r="A15" s="104">
         <v>11</v>
       </c>
-      <c r="B15" s="105"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="102"/>
       <c r="D15" s="102"/>
       <c r="E15" s="102"/>
@@ -9513,42 +9549,42 @@
       <c r="R15" s="102"/>
       <c r="S15" s="102"/>
       <c r="T15" s="102"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="113"/>
-      <c r="X15" s="113"/>
-      <c r="Y15" s="113"/>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="113"/>
-      <c r="AB15" s="113"/>
-      <c r="AC15" s="113"/>
-      <c r="AD15" s="113"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="113"/>
-      <c r="AG15" s="113"/>
-      <c r="AH15" s="113"/>
-      <c r="AI15" s="113"/>
-      <c r="AJ15" s="113"/>
-      <c r="AK15" s="113"/>
-      <c r="AL15" s="113"/>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="113"/>
-      <c r="AO15" s="113"/>
-      <c r="AP15" s="113"/>
-      <c r="AQ15" s="113"/>
-      <c r="AR15" s="113"/>
-      <c r="AS15" s="113"/>
-      <c r="AT15" s="113"/>
-      <c r="AU15" s="113"/>
-      <c r="AV15" s="113"/>
-      <c r="AW15" s="113"/>
-      <c r="AX15" s="113"/>
+      <c r="U15" s="103"/>
+      <c r="V15" s="103"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="103"/>
+      <c r="Y15" s="103"/>
+      <c r="Z15" s="103"/>
+      <c r="AA15" s="103"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="103"/>
+      <c r="AD15" s="103"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="103"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="103"/>
+      <c r="AI15" s="103"/>
+      <c r="AJ15" s="103"/>
+      <c r="AK15" s="103"/>
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="103"/>
+      <c r="AN15" s="103"/>
+      <c r="AO15" s="103"/>
+      <c r="AP15" s="103"/>
+      <c r="AQ15" s="103"/>
+      <c r="AR15" s="103"/>
+      <c r="AS15" s="103"/>
+      <c r="AT15" s="103"/>
+      <c r="AU15" s="103"/>
+      <c r="AV15" s="103"/>
+      <c r="AW15" s="103"/>
+      <c r="AX15" s="103"/>
     </row>
     <row r="16" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="105">
+      <c r="A16" s="104">
         <v>12</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="102"/>
       <c r="D16" s="102"/>
       <c r="E16" s="102"/>
@@ -9567,42 +9603,42 @@
       <c r="R16" s="102"/>
       <c r="S16" s="102"/>
       <c r="T16" s="102"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
-      <c r="AB16" s="113"/>
-      <c r="AC16" s="113"/>
-      <c r="AD16" s="113"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="113"/>
-      <c r="AG16" s="113"/>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="113"/>
-      <c r="AJ16" s="113"/>
-      <c r="AK16" s="113"/>
-      <c r="AL16" s="113"/>
-      <c r="AM16" s="113"/>
-      <c r="AN16" s="113"/>
-      <c r="AO16" s="113"/>
-      <c r="AP16" s="113"/>
-      <c r="AQ16" s="113"/>
-      <c r="AR16" s="113"/>
-      <c r="AS16" s="113"/>
-      <c r="AT16" s="113"/>
-      <c r="AU16" s="113"/>
-      <c r="AV16" s="113"/>
-      <c r="AW16" s="113"/>
-      <c r="AX16" s="113"/>
+      <c r="U16" s="103"/>
+      <c r="V16" s="103"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="103"/>
+      <c r="Y16" s="103"/>
+      <c r="Z16" s="103"/>
+      <c r="AA16" s="103"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="103"/>
+      <c r="AD16" s="103"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="103"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="103"/>
+      <c r="AI16" s="103"/>
+      <c r="AJ16" s="103"/>
+      <c r="AK16" s="103"/>
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="103"/>
+      <c r="AN16" s="103"/>
+      <c r="AO16" s="103"/>
+      <c r="AP16" s="103"/>
+      <c r="AQ16" s="103"/>
+      <c r="AR16" s="103"/>
+      <c r="AS16" s="103"/>
+      <c r="AT16" s="103"/>
+      <c r="AU16" s="103"/>
+      <c r="AV16" s="103"/>
+      <c r="AW16" s="103"/>
+      <c r="AX16" s="103"/>
     </row>
     <row r="17" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="105">
+      <c r="A17" s="104">
         <v>13</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="102"/>
       <c r="D17" s="102"/>
       <c r="E17" s="102"/>
@@ -9621,42 +9657,42 @@
       <c r="R17" s="102"/>
       <c r="S17" s="102"/>
       <c r="T17" s="102"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="113"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="113"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="113"/>
-      <c r="AC17" s="113"/>
-      <c r="AD17" s="113"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="113"/>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="113"/>
-      <c r="AJ17" s="113"/>
-      <c r="AK17" s="113"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="113"/>
-      <c r="AN17" s="113"/>
-      <c r="AO17" s="113"/>
-      <c r="AP17" s="113"/>
-      <c r="AQ17" s="113"/>
-      <c r="AR17" s="113"/>
-      <c r="AS17" s="113"/>
-      <c r="AT17" s="113"/>
-      <c r="AU17" s="113"/>
-      <c r="AV17" s="113"/>
-      <c r="AW17" s="113"/>
-      <c r="AX17" s="113"/>
+      <c r="U17" s="103"/>
+      <c r="V17" s="103"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="103"/>
+      <c r="Y17" s="103"/>
+      <c r="Z17" s="103"/>
+      <c r="AA17" s="103"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="103"/>
+      <c r="AD17" s="103"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="103"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="103"/>
+      <c r="AI17" s="103"/>
+      <c r="AJ17" s="103"/>
+      <c r="AK17" s="103"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="103"/>
+      <c r="AN17" s="103"/>
+      <c r="AO17" s="103"/>
+      <c r="AP17" s="103"/>
+      <c r="AQ17" s="103"/>
+      <c r="AR17" s="103"/>
+      <c r="AS17" s="103"/>
+      <c r="AT17" s="103"/>
+      <c r="AU17" s="103"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="103"/>
+      <c r="AX17" s="103"/>
     </row>
     <row r="18" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="105">
+      <c r="A18" s="104">
         <v>14</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="102"/>
       <c r="D18" s="102"/>
       <c r="E18" s="102"/>
@@ -9675,42 +9711,42 @@
       <c r="R18" s="102"/>
       <c r="S18" s="102"/>
       <c r="T18" s="102"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="113"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="113"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="113"/>
-      <c r="AC18" s="113"/>
-      <c r="AD18" s="113"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="113"/>
-      <c r="AG18" s="113"/>
-      <c r="AH18" s="113"/>
-      <c r="AI18" s="113"/>
-      <c r="AJ18" s="113"/>
-      <c r="AK18" s="113"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="113"/>
-      <c r="AN18" s="113"/>
-      <c r="AO18" s="113"/>
-      <c r="AP18" s="113"/>
-      <c r="AQ18" s="113"/>
-      <c r="AR18" s="113"/>
-      <c r="AS18" s="113"/>
-      <c r="AT18" s="113"/>
-      <c r="AU18" s="113"/>
-      <c r="AV18" s="113"/>
-      <c r="AW18" s="113"/>
-      <c r="AX18" s="113"/>
+      <c r="U18" s="103"/>
+      <c r="V18" s="103"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="103"/>
+      <c r="Y18" s="103"/>
+      <c r="Z18" s="103"/>
+      <c r="AA18" s="103"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="103"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="103"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="103"/>
+      <c r="AI18" s="103"/>
+      <c r="AJ18" s="103"/>
+      <c r="AK18" s="103"/>
+      <c r="AL18" s="103"/>
+      <c r="AM18" s="103"/>
+      <c r="AN18" s="103"/>
+      <c r="AO18" s="103"/>
+      <c r="AP18" s="103"/>
+      <c r="AQ18" s="103"/>
+      <c r="AR18" s="103"/>
+      <c r="AS18" s="103"/>
+      <c r="AT18" s="103"/>
+      <c r="AU18" s="103"/>
+      <c r="AV18" s="103"/>
+      <c r="AW18" s="103"/>
+      <c r="AX18" s="103"/>
     </row>
     <row r="19" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="105">
+      <c r="A19" s="104">
         <v>15</v>
       </c>
-      <c r="B19" s="105"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="102"/>
       <c r="D19" s="102"/>
       <c r="E19" s="102"/>
@@ -9729,42 +9765,42 @@
       <c r="R19" s="102"/>
       <c r="S19" s="102"/>
       <c r="T19" s="102"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="113"/>
-      <c r="W19" s="113"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="113"/>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="113"/>
-      <c r="AB19" s="113"/>
-      <c r="AC19" s="113"/>
-      <c r="AD19" s="113"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="113"/>
-      <c r="AG19" s="113"/>
-      <c r="AH19" s="113"/>
-      <c r="AI19" s="113"/>
-      <c r="AJ19" s="113"/>
-      <c r="AK19" s="113"/>
-      <c r="AL19" s="113"/>
-      <c r="AM19" s="113"/>
-      <c r="AN19" s="113"/>
-      <c r="AO19" s="113"/>
-      <c r="AP19" s="113"/>
-      <c r="AQ19" s="113"/>
-      <c r="AR19" s="113"/>
-      <c r="AS19" s="113"/>
-      <c r="AT19" s="113"/>
-      <c r="AU19" s="113"/>
-      <c r="AV19" s="113"/>
-      <c r="AW19" s="113"/>
-      <c r="AX19" s="113"/>
+      <c r="U19" s="103"/>
+      <c r="V19" s="103"/>
+      <c r="W19" s="103"/>
+      <c r="X19" s="103"/>
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="103"/>
+      <c r="AB19" s="103"/>
+      <c r="AC19" s="103"/>
+      <c r="AD19" s="103"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="103"/>
+      <c r="AG19" s="103"/>
+      <c r="AH19" s="103"/>
+      <c r="AI19" s="103"/>
+      <c r="AJ19" s="103"/>
+      <c r="AK19" s="103"/>
+      <c r="AL19" s="103"/>
+      <c r="AM19" s="103"/>
+      <c r="AN19" s="103"/>
+      <c r="AO19" s="103"/>
+      <c r="AP19" s="103"/>
+      <c r="AQ19" s="103"/>
+      <c r="AR19" s="103"/>
+      <c r="AS19" s="103"/>
+      <c r="AT19" s="103"/>
+      <c r="AU19" s="103"/>
+      <c r="AV19" s="103"/>
+      <c r="AW19" s="103"/>
+      <c r="AX19" s="103"/>
     </row>
     <row r="20" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="105">
+      <c r="A20" s="104">
         <v>16</v>
       </c>
-      <c r="B20" s="105"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="102"/>
       <c r="D20" s="102"/>
       <c r="E20" s="102"/>
@@ -9783,99 +9819,99 @@
       <c r="R20" s="102"/>
       <c r="S20" s="102"/>
       <c r="T20" s="102"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="113"/>
-      <c r="W20" s="113"/>
-      <c r="X20" s="113"/>
-      <c r="Y20" s="113"/>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="113"/>
-      <c r="AB20" s="113"/>
-      <c r="AC20" s="113"/>
-      <c r="AD20" s="113"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="113"/>
-      <c r="AG20" s="113"/>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="113"/>
-      <c r="AJ20" s="113"/>
-      <c r="AK20" s="113"/>
-      <c r="AL20" s="113"/>
-      <c r="AM20" s="113"/>
-      <c r="AN20" s="113"/>
-      <c r="AO20" s="113"/>
-      <c r="AP20" s="113"/>
-      <c r="AQ20" s="113"/>
-      <c r="AR20" s="113"/>
-      <c r="AS20" s="113"/>
-      <c r="AT20" s="113"/>
-      <c r="AU20" s="113"/>
-      <c r="AV20" s="113"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="113"/>
+      <c r="U20" s="103"/>
+      <c r="V20" s="103"/>
+      <c r="W20" s="103"/>
+      <c r="X20" s="103"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="103"/>
+      <c r="AC20" s="103"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="103"/>
+      <c r="AG20" s="103"/>
+      <c r="AH20" s="103"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="103"/>
+      <c r="AK20" s="103"/>
+      <c r="AL20" s="103"/>
+      <c r="AM20" s="103"/>
+      <c r="AN20" s="103"/>
+      <c r="AO20" s="103"/>
+      <c r="AP20" s="103"/>
+      <c r="AQ20" s="103"/>
+      <c r="AR20" s="103"/>
+      <c r="AS20" s="103"/>
+      <c r="AT20" s="103"/>
+      <c r="AU20" s="103"/>
+      <c r="AV20" s="103"/>
+      <c r="AW20" s="103"/>
+      <c r="AX20" s="103"/>
     </row>
     <row r="21" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="110">
+      <c r="A21" s="112">
         <v>17</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="116"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="116"/>
-      <c r="Y21" s="116"/>
-      <c r="Z21" s="116"/>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="116"/>
-      <c r="AC21" s="116"/>
-      <c r="AD21" s="116"/>
-      <c r="AE21" s="116"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="116"/>
-      <c r="AJ21" s="116"/>
-      <c r="AK21" s="116"/>
-      <c r="AL21" s="116"/>
-      <c r="AM21" s="116"/>
-      <c r="AN21" s="116"/>
-      <c r="AO21" s="116"/>
-      <c r="AP21" s="116"/>
-      <c r="AQ21" s="116"/>
-      <c r="AR21" s="116"/>
-      <c r="AS21" s="116"/>
-      <c r="AT21" s="116"/>
-      <c r="AU21" s="116"/>
-      <c r="AV21" s="116"/>
-      <c r="AW21" s="116"/>
-      <c r="AX21" s="116"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="101"/>
+      <c r="W21" s="101"/>
+      <c r="X21" s="101"/>
+      <c r="Y21" s="101"/>
+      <c r="Z21" s="101"/>
+      <c r="AA21" s="101"/>
+      <c r="AB21" s="101"/>
+      <c r="AC21" s="101"/>
+      <c r="AD21" s="101"/>
+      <c r="AE21" s="101"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="101"/>
+      <c r="AJ21" s="101"/>
+      <c r="AK21" s="101"/>
+      <c r="AL21" s="101"/>
+      <c r="AM21" s="101"/>
+      <c r="AN21" s="101"/>
+      <c r="AO21" s="101"/>
+      <c r="AP21" s="101"/>
+      <c r="AQ21" s="101"/>
+      <c r="AR21" s="101"/>
+      <c r="AS21" s="101"/>
+      <c r="AT21" s="101"/>
+      <c r="AU21" s="101"/>
+      <c r="AV21" s="101"/>
+      <c r="AW21" s="101"/>
+      <c r="AX21" s="101"/>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K23" s="100"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="100"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -9888,13 +9924,13 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
@@ -9907,13 +9943,13 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -9926,13 +9962,13 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -9945,13 +9981,13 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -9964,13 +10000,13 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -9983,13 +10019,13 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K29" s="100"/>
-      <c r="L29" s="100"/>
-      <c r="M29" s="100"/>
-      <c r="N29" s="100"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="115"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -10002,13 +10038,13 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K30" s="100"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -10021,13 +10057,13 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -10040,13 +10076,13 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -10059,13 +10095,13 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="100"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -10078,13 +10114,13 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="100"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -10097,13 +10133,13 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="100"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -10116,13 +10152,13 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="100"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
@@ -10135,13 +10171,13 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="115"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
@@ -10154,13 +10190,13 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
+      <c r="K38" s="115"/>
+      <c r="L38" s="115"/>
+      <c r="M38" s="115"/>
+      <c r="N38" s="115"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="115"/>
+      <c r="Q38" s="115"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -10173,13 +10209,13 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="100"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="115"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
@@ -10192,13 +10228,13 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="11:27" x14ac:dyDescent="0.15">
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="100"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="115"/>
+      <c r="N40" s="115"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="115"/>
+      <c r="Q40" s="115"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
@@ -10212,47 +10248,94 @@
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="K21:T21"/>
-    <mergeCell ref="U21:AX21"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="K19:T19"/>
-    <mergeCell ref="U19:AX19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="K20:T20"/>
-    <mergeCell ref="U20:AX20"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:T17"/>
-    <mergeCell ref="U17:AX17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="K18:T18"/>
-    <mergeCell ref="U18:AX18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:T15"/>
-    <mergeCell ref="U15:AX15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K16:T16"/>
-    <mergeCell ref="U16:AX16"/>
-    <mergeCell ref="U13:AX13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AX14"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AX11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:T12"/>
-    <mergeCell ref="U12:AX12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:Q38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:Q37"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="AR1:AX1"/>
+    <mergeCell ref="AK1:AQ1"/>
+    <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="S1:AJ1"/>
+    <mergeCell ref="S2:AJ2"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="U4:AX4"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="U5:AX5"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="K6:T6"/>
@@ -10277,94 +10360,47 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="K13:T13"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="AR1:AX1"/>
-    <mergeCell ref="AK1:AQ1"/>
-    <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="S1:AJ1"/>
-    <mergeCell ref="S2:AJ2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="U4:AX4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="O38:Q38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:Q37"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:Q31"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:Q29"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="K4:T4"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="K5:T5"/>
+    <mergeCell ref="U13:AX13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AX14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AX11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:T12"/>
+    <mergeCell ref="U12:AX12"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:T17"/>
+    <mergeCell ref="U17:AX17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="K18:T18"/>
+    <mergeCell ref="U18:AX18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:T15"/>
+    <mergeCell ref="U15:AX15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K16:T16"/>
+    <mergeCell ref="U16:AX16"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="K21:T21"/>
+    <mergeCell ref="U21:AX21"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="K19:T19"/>
+    <mergeCell ref="U19:AX19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="K20:T20"/>
+    <mergeCell ref="U20:AX20"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10396,133 +10432,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="120" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="132" t="str">
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="122" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="122" t="s">
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="122"/>
-      <c r="AH1" s="123"/>
-      <c r="AI1" s="117" t="s">
+      <c r="AF1" s="123"/>
+      <c r="AG1" s="123"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="119"/>
-      <c r="AO1" s="125" t="s">
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="127"/>
+      <c r="AO1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="126"/>
-      <c r="AQ1" s="126"/>
-      <c r="AR1" s="127"/>
-      <c r="AS1" s="117" t="s">
+      <c r="AP1" s="131"/>
+      <c r="AQ1" s="131"/>
+      <c r="AR1" s="132"/>
+      <c r="AS1" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="118"/>
-      <c r="AW1" s="118"/>
-      <c r="AX1" s="119"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="127"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="120" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="122" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="123"/>
-      <c r="AI2" s="124">
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="124"/>
+      <c r="AI2" s="129">
         <v>44539</v>
       </c>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="118"/>
-      <c r="AN2" s="119"/>
-      <c r="AO2" s="125" t="s">
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="127"/>
-      <c r="AS2" s="124">
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="132"/>
+      <c r="AS2" s="129">
         <v>44539</v>
       </c>
-      <c r="AT2" s="118"/>
-      <c r="AU2" s="118"/>
-      <c r="AV2" s="118"/>
-      <c r="AW2" s="118"/>
-      <c r="AX2" s="119"/>
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="127"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="66"/>
@@ -11913,11 +11949,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="AS1:AX1"/>
     <mergeCell ref="L2:R2"/>
     <mergeCell ref="S2:AD2"/>
@@ -11926,6 +11957,11 @@
     <mergeCell ref="AO2:AR2"/>
     <mergeCell ref="AS2:AX2"/>
     <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11939,7 +11975,7 @@
   <dimension ref="A1:CO40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="93" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:L15"/>
+      <selection activeCell="BB3" sqref="BB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11948,28 +11984,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="151" t="s">
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="164"/>
+      <c r="H1" s="164"/>
+      <c r="I1" s="164"/>
+      <c r="J1" s="164"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="151"/>
-      <c r="N1" s="151"/>
-      <c r="O1" s="151"/>
-      <c r="P1" s="151"/>
-      <c r="Q1" s="151"/>
-      <c r="R1" s="151"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
       <c r="S1" s="145" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報一覧・表示画面</v>
@@ -11987,15 +12023,15 @@
       <c r="AD1" s="145"/>
       <c r="AE1" s="145"/>
       <c r="AF1" s="145"/>
-      <c r="AG1" s="148" t="s">
+      <c r="AG1" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="148"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="167"/>
+      <c r="AJ1" s="167"/>
+      <c r="AK1" s="167"/>
+      <c r="AL1" s="167"/>
+      <c r="AM1" s="167"/>
       <c r="AN1" s="145" t="s">
         <v>5</v>
       </c>
@@ -12005,15 +12041,15 @@
       <c r="AR1" s="145"/>
       <c r="AS1" s="145"/>
       <c r="AT1" s="145"/>
-      <c r="AU1" s="148" t="s">
+      <c r="AU1" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
-      <c r="AX1" s="148"/>
-      <c r="AY1" s="148"/>
-      <c r="AZ1" s="148"/>
-      <c r="BA1" s="148"/>
+      <c r="AV1" s="167"/>
+      <c r="AW1" s="167"/>
+      <c r="AX1" s="167"/>
+      <c r="AY1" s="167"/>
+      <c r="AZ1" s="167"/>
+      <c r="BA1" s="167"/>
       <c r="BB1" s="145" t="s">
         <v>5</v>
       </c>
@@ -12025,26 +12061,26 @@
       <c r="BH1" s="145"/>
     </row>
     <row r="2" spans="1:93" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="152"/>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="151" t="s">
+      <c r="A2" s="164"/>
+      <c r="B2" s="164"/>
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="151"/>
-      <c r="N2" s="151"/>
-      <c r="O2" s="151"/>
-      <c r="P2" s="151"/>
-      <c r="Q2" s="151"/>
-      <c r="R2" s="151"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
       <c r="S2" s="145"/>
       <c r="T2" s="145"/>
       <c r="U2" s="145"/>
@@ -12059,42 +12095,42 @@
       <c r="AD2" s="145"/>
       <c r="AE2" s="145"/>
       <c r="AF2" s="145"/>
-      <c r="AG2" s="149" t="s">
+      <c r="AG2" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="149"/>
-      <c r="AN2" s="147">
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="166">
         <v>44539</v>
       </c>
-      <c r="AO2" s="147"/>
-      <c r="AP2" s="147"/>
-      <c r="AQ2" s="147"/>
-      <c r="AR2" s="147"/>
-      <c r="AS2" s="147"/>
-      <c r="AT2" s="147"/>
-      <c r="AU2" s="149" t="s">
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="AV2" s="149"/>
-      <c r="AW2" s="149"/>
-      <c r="AX2" s="149"/>
-      <c r="AY2" s="149"/>
-      <c r="AZ2" s="149"/>
-      <c r="BA2" s="149"/>
-      <c r="BB2" s="147">
-        <v>44539</v>
-      </c>
-      <c r="BC2" s="147"/>
-      <c r="BD2" s="147"/>
-      <c r="BE2" s="147"/>
-      <c r="BF2" s="147"/>
-      <c r="BG2" s="147"/>
-      <c r="BH2" s="147"/>
+      <c r="AV2" s="168"/>
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="168"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="166">
+        <v>44565</v>
+      </c>
+      <c r="BC2" s="166"/>
+      <c r="BD2" s="166"/>
+      <c r="BE2" s="166"/>
+      <c r="BF2" s="166"/>
+      <c r="BG2" s="166"/>
+      <c r="BH2" s="166"/>
     </row>
     <row r="3" spans="1:93" s="12" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="15"/>
@@ -12159,80 +12195,80 @@
       <c r="BH3" s="10"/>
     </row>
     <row r="4" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150" t="s">
+      <c r="B4" s="170"/>
+      <c r="C4" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150" t="s">
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="170"/>
+      <c r="M4" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="144" t="s">
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="170"/>
+      <c r="Q4" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144" t="s">
+      <c r="R4" s="146"/>
+      <c r="S4" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144" t="s">
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
+      <c r="AB4" s="146"/>
+      <c r="AC4" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
-      <c r="AQ4" s="144"/>
-      <c r="AR4" s="144"/>
-      <c r="AS4" s="146" t="s">
+      <c r="AD4" s="146"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="146"/>
+      <c r="AG4" s="146"/>
+      <c r="AH4" s="146"/>
+      <c r="AI4" s="146"/>
+      <c r="AJ4" s="146"/>
+      <c r="AK4" s="146"/>
+      <c r="AL4" s="146"/>
+      <c r="AM4" s="146"/>
+      <c r="AN4" s="146"/>
+      <c r="AO4" s="146"/>
+      <c r="AP4" s="146"/>
+      <c r="AQ4" s="146"/>
+      <c r="AR4" s="146"/>
+      <c r="AS4" s="169" t="s">
         <v>42</v>
       </c>
-      <c r="AT4" s="146"/>
-      <c r="AU4" s="146"/>
-      <c r="AV4" s="146"/>
-      <c r="AW4" s="146"/>
-      <c r="AX4" s="146"/>
-      <c r="AY4" s="146"/>
-      <c r="AZ4" s="146"/>
-      <c r="BA4" s="146"/>
-      <c r="BB4" s="146"/>
-      <c r="BC4" s="146"/>
-      <c r="BD4" s="146"/>
-      <c r="BE4" s="146"/>
-      <c r="BF4" s="146"/>
-      <c r="BG4" s="146"/>
-      <c r="BH4" s="146"/>
+      <c r="AT4" s="169"/>
+      <c r="AU4" s="169"/>
+      <c r="AV4" s="169"/>
+      <c r="AW4" s="169"/>
+      <c r="AX4" s="169"/>
+      <c r="AY4" s="169"/>
+      <c r="AZ4" s="169"/>
+      <c r="BA4" s="169"/>
+      <c r="BB4" s="169"/>
+      <c r="BC4" s="169"/>
+      <c r="BD4" s="169"/>
+      <c r="BE4" s="169"/>
+      <c r="BF4" s="169"/>
+      <c r="BG4" s="169"/>
+      <c r="BH4" s="169"/>
       <c r="BJ4" s="17"/>
       <c r="BK4" s="17"/>
       <c r="BL4" s="17"/>
@@ -12267,76 +12303,76 @@
       <c r="CO4" s="17"/>
     </row>
     <row r="5" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="153" t="s">
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
+      <c r="N5" s="170"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="144" t="s">
+      <c r="T5" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144" t="s">
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="Z5" s="144"/>
-      <c r="AA5" s="144"/>
-      <c r="AB5" s="144"/>
-      <c r="AC5" s="144" t="s">
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="AD5" s="144"/>
-      <c r="AE5" s="144"/>
-      <c r="AF5" s="144"/>
-      <c r="AG5" s="144"/>
-      <c r="AH5" s="144"/>
-      <c r="AI5" s="144"/>
-      <c r="AJ5" s="144"/>
-      <c r="AK5" s="144" t="s">
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="146"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="AL5" s="144"/>
-      <c r="AM5" s="144"/>
-      <c r="AN5" s="144"/>
-      <c r="AO5" s="144"/>
-      <c r="AP5" s="144"/>
-      <c r="AQ5" s="144"/>
-      <c r="AR5" s="144"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="146"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="146"/>
-      <c r="AZ5" s="146"/>
-      <c r="BA5" s="146"/>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="146"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="146"/>
-      <c r="BH5" s="146"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="146"/>
+      <c r="AN5" s="146"/>
+      <c r="AO5" s="146"/>
+      <c r="AP5" s="146"/>
+      <c r="AQ5" s="146"/>
+      <c r="AR5" s="146"/>
+      <c r="AS5" s="169"/>
+      <c r="AT5" s="169"/>
+      <c r="AU5" s="169"/>
+      <c r="AV5" s="169"/>
+      <c r="AW5" s="169"/>
+      <c r="AX5" s="169"/>
+      <c r="AY5" s="169"/>
+      <c r="AZ5" s="169"/>
+      <c r="BA5" s="169"/>
+      <c r="BB5" s="169"/>
+      <c r="BC5" s="169"/>
+      <c r="BD5" s="169"/>
+      <c r="BE5" s="169"/>
+      <c r="BF5" s="169"/>
+      <c r="BG5" s="169"/>
+      <c r="BH5" s="169"/>
       <c r="BJ5" s="17"/>
       <c r="BK5" s="17"/>
       <c r="BL5" s="17"/>
@@ -12371,70 +12407,70 @@
       <c r="CO5" s="17"/>
     </row>
     <row r="6" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="150"/>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144" t="s">
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="146"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144" t="s">
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="AB6" s="144"/>
-      <c r="AC6" s="144"/>
-      <c r="AD6" s="144"/>
-      <c r="AE6" s="144"/>
-      <c r="AF6" s="144"/>
-      <c r="AG6" s="144"/>
-      <c r="AH6" s="144"/>
-      <c r="AI6" s="144"/>
-      <c r="AJ6" s="144"/>
-      <c r="AK6" s="144"/>
-      <c r="AL6" s="144"/>
-      <c r="AM6" s="144"/>
-      <c r="AN6" s="144"/>
-      <c r="AO6" s="144"/>
-      <c r="AP6" s="144"/>
-      <c r="AQ6" s="144"/>
-      <c r="AR6" s="144"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="146"/>
-      <c r="AZ6" s="146"/>
-      <c r="BA6" s="146"/>
-      <c r="BB6" s="146"/>
-      <c r="BC6" s="146"/>
-      <c r="BD6" s="146"/>
-      <c r="BE6" s="146"/>
-      <c r="BF6" s="146"/>
-      <c r="BG6" s="146"/>
-      <c r="BH6" s="146"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="146"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="146"/>
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="146"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="146"/>
+      <c r="AL6" s="146"/>
+      <c r="AM6" s="146"/>
+      <c r="AN6" s="146"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="146"/>
+      <c r="AQ6" s="146"/>
+      <c r="AR6" s="146"/>
+      <c r="AS6" s="169"/>
+      <c r="AT6" s="169"/>
+      <c r="AU6" s="169"/>
+      <c r="AV6" s="169"/>
+      <c r="AW6" s="169"/>
+      <c r="AX6" s="169"/>
+      <c r="AY6" s="169"/>
+      <c r="AZ6" s="169"/>
+      <c r="BA6" s="169"/>
+      <c r="BB6" s="169"/>
+      <c r="BC6" s="169"/>
+      <c r="BD6" s="169"/>
+      <c r="BE6" s="169"/>
+      <c r="BF6" s="169"/>
+      <c r="BG6" s="169"/>
+      <c r="BH6" s="169"/>
       <c r="BJ6" s="17"/>
       <c r="BK6" s="17"/>
       <c r="BL6" s="17"/>
@@ -12469,28 +12505,28 @@
       <c r="CO6" s="17"/>
     </row>
     <row r="7" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="133">
+      <c r="A7" s="136">
         <v>1</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="134" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134" t="s">
+      <c r="B7" s="136"/>
+      <c r="C7" s="144" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
       <c r="Q7" s="145" t="s">
         <v>25</v>
       </c>
@@ -12533,24 +12569,24 @@
       <c r="AP7" s="145"/>
       <c r="AQ7" s="145"/>
       <c r="AR7" s="145"/>
-      <c r="AS7" s="170" t="s">
+      <c r="AS7" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AT7" s="170"/>
-      <c r="AU7" s="170"/>
-      <c r="AV7" s="170"/>
-      <c r="AW7" s="170"/>
-      <c r="AX7" s="170"/>
-      <c r="AY7" s="170"/>
-      <c r="AZ7" s="170"/>
-      <c r="BA7" s="170"/>
-      <c r="BB7" s="170"/>
-      <c r="BC7" s="170"/>
-      <c r="BD7" s="170"/>
-      <c r="BE7" s="170"/>
-      <c r="BF7" s="170"/>
-      <c r="BG7" s="170"/>
-      <c r="BH7" s="170"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
+      <c r="AX7" s="143"/>
+      <c r="AY7" s="143"/>
+      <c r="AZ7" s="143"/>
+      <c r="BA7" s="143"/>
+      <c r="BB7" s="143"/>
+      <c r="BC7" s="143"/>
+      <c r="BD7" s="143"/>
+      <c r="BE7" s="143"/>
+      <c r="BF7" s="143"/>
+      <c r="BG7" s="143"/>
+      <c r="BH7" s="143"/>
       <c r="BI7" s="7"/>
       <c r="BJ7" s="17"/>
       <c r="BK7" s="17"/>
@@ -12586,28 +12622,28 @@
       <c r="CO7" s="17"/>
     </row>
     <row r="8" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="133">
+      <c r="A8" s="136">
         <v>2</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="134" t="s">
+      <c r="B8" s="136"/>
+      <c r="C8" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134" t="s">
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="134"/>
-      <c r="O8" s="134"/>
-      <c r="P8" s="134"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
       <c r="Q8" s="145" t="s">
         <v>25</v>
       </c>
@@ -12640,34 +12676,34 @@
       <c r="AH8" s="145"/>
       <c r="AI8" s="145"/>
       <c r="AJ8" s="145"/>
-      <c r="AK8" s="163" t="s">
+      <c r="AK8" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="AL8" s="163"/>
-      <c r="AM8" s="163"/>
-      <c r="AN8" s="163"/>
-      <c r="AO8" s="163"/>
-      <c r="AP8" s="163"/>
-      <c r="AQ8" s="163"/>
-      <c r="AR8" s="163"/>
-      <c r="AS8" s="170" t="s">
+      <c r="AL8" s="147"/>
+      <c r="AM8" s="147"/>
+      <c r="AN8" s="147"/>
+      <c r="AO8" s="147"/>
+      <c r="AP8" s="147"/>
+      <c r="AQ8" s="147"/>
+      <c r="AR8" s="147"/>
+      <c r="AS8" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AT8" s="170"/>
-      <c r="AU8" s="170"/>
-      <c r="AV8" s="170"/>
-      <c r="AW8" s="170"/>
-      <c r="AX8" s="170"/>
-      <c r="AY8" s="170"/>
-      <c r="AZ8" s="170"/>
-      <c r="BA8" s="170"/>
-      <c r="BB8" s="170"/>
-      <c r="BC8" s="170"/>
-      <c r="BD8" s="170"/>
-      <c r="BE8" s="170"/>
-      <c r="BF8" s="170"/>
-      <c r="BG8" s="170"/>
-      <c r="BH8" s="170"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
+      <c r="AX8" s="143"/>
+      <c r="AY8" s="143"/>
+      <c r="AZ8" s="143"/>
+      <c r="BA8" s="143"/>
+      <c r="BB8" s="143"/>
+      <c r="BC8" s="143"/>
+      <c r="BD8" s="143"/>
+      <c r="BE8" s="143"/>
+      <c r="BF8" s="143"/>
+      <c r="BG8" s="143"/>
+      <c r="BH8" s="143"/>
       <c r="BI8" s="7"/>
       <c r="BJ8" s="17"/>
       <c r="BK8" s="17"/>
@@ -12703,88 +12739,88 @@
       <c r="CO8" s="17"/>
     </row>
     <row r="9" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="133">
+      <c r="A9" s="136">
         <v>3</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="138" t="s">
+      <c r="B9" s="136"/>
+      <c r="C9" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="135" t="s">
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="173"/>
+      <c r="M9" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="136"/>
-      <c r="O9" s="136"/>
-      <c r="P9" s="137"/>
-      <c r="Q9" s="141" t="s">
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R9" s="142"/>
+      <c r="R9" s="141"/>
       <c r="S9" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="142"/>
-      <c r="Y9" s="141">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="142"/>
-      <c r="AA9" s="141" t="s">
+      <c r="T9" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="141"/>
+      <c r="Y9" s="140">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="141" t="s">
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="143"/>
-      <c r="AG9" s="143"/>
-      <c r="AH9" s="143"/>
-      <c r="AI9" s="143"/>
-      <c r="AJ9" s="142"/>
-      <c r="AK9" s="164" t="s">
+      <c r="AD9" s="142"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="142"/>
+      <c r="AJ9" s="141"/>
+      <c r="AK9" s="157" t="s">
         <v>75</v>
       </c>
-      <c r="AL9" s="165"/>
-      <c r="AM9" s="165"/>
-      <c r="AN9" s="165"/>
-      <c r="AO9" s="165"/>
-      <c r="AP9" s="165"/>
-      <c r="AQ9" s="165"/>
-      <c r="AR9" s="166"/>
-      <c r="AS9" s="160" t="s">
+      <c r="AL9" s="158"/>
+      <c r="AM9" s="158"/>
+      <c r="AN9" s="158"/>
+      <c r="AO9" s="158"/>
+      <c r="AP9" s="158"/>
+      <c r="AQ9" s="158"/>
+      <c r="AR9" s="159"/>
+      <c r="AS9" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT9" s="161"/>
-      <c r="AU9" s="161"/>
-      <c r="AV9" s="161"/>
-      <c r="AW9" s="161"/>
-      <c r="AX9" s="161"/>
-      <c r="AY9" s="161"/>
-      <c r="AZ9" s="161"/>
-      <c r="BA9" s="161"/>
-      <c r="BB9" s="161"/>
-      <c r="BC9" s="161"/>
-      <c r="BD9" s="161"/>
-      <c r="BE9" s="161"/>
-      <c r="BF9" s="161"/>
-      <c r="BG9" s="161"/>
-      <c r="BH9" s="162"/>
+      <c r="AT9" s="134"/>
+      <c r="AU9" s="134"/>
+      <c r="AV9" s="134"/>
+      <c r="AW9" s="134"/>
+      <c r="AX9" s="134"/>
+      <c r="AY9" s="134"/>
+      <c r="AZ9" s="134"/>
+      <c r="BA9" s="134"/>
+      <c r="BB9" s="134"/>
+      <c r="BC9" s="134"/>
+      <c r="BD9" s="134"/>
+      <c r="BE9" s="134"/>
+      <c r="BF9" s="134"/>
+      <c r="BG9" s="134"/>
+      <c r="BH9" s="135"/>
       <c r="BI9" s="7"/>
       <c r="BJ9" s="17"/>
       <c r="BK9" s="17"/>
@@ -12820,88 +12856,88 @@
       <c r="CO9" s="17"/>
     </row>
     <row r="10" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="133">
+      <c r="A10" s="136">
         <v>4</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="138" t="s">
+      <c r="B10" s="136"/>
+      <c r="C10" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="135" t="s">
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="173"/>
+      <c r="M10" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="136"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="141" t="s">
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="142"/>
+      <c r="R10" s="141"/>
       <c r="S10" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T10" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
-      <c r="W10" s="143"/>
-      <c r="X10" s="142"/>
-      <c r="Y10" s="141">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="142"/>
-      <c r="AA10" s="141" t="s">
+      <c r="T10" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="U10" s="142"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="142"/>
+      <c r="X10" s="141"/>
+      <c r="Y10" s="140">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="142"/>
-      <c r="AC10" s="141" t="s">
+      <c r="AB10" s="141"/>
+      <c r="AC10" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="AD10" s="143"/>
-      <c r="AE10" s="143"/>
-      <c r="AF10" s="143"/>
-      <c r="AG10" s="143"/>
-      <c r="AH10" s="143"/>
-      <c r="AI10" s="143"/>
-      <c r="AJ10" s="142"/>
-      <c r="AK10" s="164" t="s">
+      <c r="AD10" s="142"/>
+      <c r="AE10" s="142"/>
+      <c r="AF10" s="142"/>
+      <c r="AG10" s="142"/>
+      <c r="AH10" s="142"/>
+      <c r="AI10" s="142"/>
+      <c r="AJ10" s="141"/>
+      <c r="AK10" s="157" t="s">
         <v>76</v>
       </c>
-      <c r="AL10" s="165"/>
-      <c r="AM10" s="165"/>
-      <c r="AN10" s="165"/>
-      <c r="AO10" s="165"/>
-      <c r="AP10" s="165"/>
-      <c r="AQ10" s="165"/>
-      <c r="AR10" s="166"/>
-      <c r="AS10" s="160" t="s">
+      <c r="AL10" s="158"/>
+      <c r="AM10" s="158"/>
+      <c r="AN10" s="158"/>
+      <c r="AO10" s="158"/>
+      <c r="AP10" s="158"/>
+      <c r="AQ10" s="158"/>
+      <c r="AR10" s="159"/>
+      <c r="AS10" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT10" s="161"/>
-      <c r="AU10" s="161"/>
-      <c r="AV10" s="161"/>
-      <c r="AW10" s="161"/>
-      <c r="AX10" s="161"/>
-      <c r="AY10" s="161"/>
-      <c r="AZ10" s="161"/>
-      <c r="BA10" s="161"/>
-      <c r="BB10" s="161"/>
-      <c r="BC10" s="161"/>
-      <c r="BD10" s="161"/>
-      <c r="BE10" s="161"/>
-      <c r="BF10" s="161"/>
-      <c r="BG10" s="161"/>
-      <c r="BH10" s="162"/>
+      <c r="AT10" s="134"/>
+      <c r="AU10" s="134"/>
+      <c r="AV10" s="134"/>
+      <c r="AW10" s="134"/>
+      <c r="AX10" s="134"/>
+      <c r="AY10" s="134"/>
+      <c r="AZ10" s="134"/>
+      <c r="BA10" s="134"/>
+      <c r="BB10" s="134"/>
+      <c r="BC10" s="134"/>
+      <c r="BD10" s="134"/>
+      <c r="BE10" s="134"/>
+      <c r="BF10" s="134"/>
+      <c r="BG10" s="134"/>
+      <c r="BH10" s="135"/>
       <c r="BI10" s="7"/>
       <c r="BJ10" s="17"/>
       <c r="BK10" s="17"/>
@@ -12937,88 +12973,88 @@
       <c r="CO10" s="17"/>
     </row>
     <row r="11" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="133">
+      <c r="A11" s="136">
         <v>5</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="138" t="s">
+      <c r="B11" s="136"/>
+      <c r="C11" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="135" t="s">
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="173"/>
+      <c r="M11" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="136"/>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137"/>
-      <c r="Q11" s="141" t="s">
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R11" s="142"/>
+      <c r="R11" s="141"/>
       <c r="S11" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T11" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="U11" s="143"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="143"/>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="141">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="142"/>
-      <c r="AA11" s="141" t="s">
+      <c r="T11" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="142"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="142"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="140">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="AB11" s="142"/>
-      <c r="AC11" s="141" t="s">
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="AD11" s="143"/>
-      <c r="AE11" s="143"/>
-      <c r="AF11" s="143"/>
-      <c r="AG11" s="143"/>
-      <c r="AH11" s="143"/>
-      <c r="AI11" s="143"/>
-      <c r="AJ11" s="142"/>
-      <c r="AK11" s="167" t="s">
+      <c r="AD11" s="142"/>
+      <c r="AE11" s="142"/>
+      <c r="AF11" s="142"/>
+      <c r="AG11" s="142"/>
+      <c r="AH11" s="142"/>
+      <c r="AI11" s="142"/>
+      <c r="AJ11" s="141"/>
+      <c r="AK11" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="AL11" s="168"/>
-      <c r="AM11" s="168"/>
-      <c r="AN11" s="168"/>
-      <c r="AO11" s="168"/>
-      <c r="AP11" s="168"/>
-      <c r="AQ11" s="168"/>
-      <c r="AR11" s="169"/>
-      <c r="AS11" s="160" t="s">
+      <c r="AL11" s="161"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="161"/>
+      <c r="AO11" s="161"/>
+      <c r="AP11" s="161"/>
+      <c r="AQ11" s="161"/>
+      <c r="AR11" s="162"/>
+      <c r="AS11" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT11" s="161"/>
-      <c r="AU11" s="161"/>
-      <c r="AV11" s="161"/>
-      <c r="AW11" s="161"/>
-      <c r="AX11" s="161"/>
-      <c r="AY11" s="161"/>
-      <c r="AZ11" s="161"/>
-      <c r="BA11" s="161"/>
-      <c r="BB11" s="161"/>
-      <c r="BC11" s="161"/>
-      <c r="BD11" s="161"/>
-      <c r="BE11" s="161"/>
-      <c r="BF11" s="161"/>
-      <c r="BG11" s="161"/>
-      <c r="BH11" s="162"/>
+      <c r="AT11" s="134"/>
+      <c r="AU11" s="134"/>
+      <c r="AV11" s="134"/>
+      <c r="AW11" s="134"/>
+      <c r="AX11" s="134"/>
+      <c r="AY11" s="134"/>
+      <c r="AZ11" s="134"/>
+      <c r="BA11" s="134"/>
+      <c r="BB11" s="134"/>
+      <c r="BC11" s="134"/>
+      <c r="BD11" s="134"/>
+      <c r="BE11" s="134"/>
+      <c r="BF11" s="134"/>
+      <c r="BG11" s="134"/>
+      <c r="BH11" s="135"/>
       <c r="BI11" s="7"/>
       <c r="BJ11" s="17"/>
       <c r="BK11" s="17"/>
@@ -13054,88 +13090,88 @@
       <c r="CO11" s="17"/>
     </row>
     <row r="12" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="133">
+      <c r="A12" s="136">
         <v>6</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="138" t="s">
+      <c r="B12" s="136"/>
+      <c r="C12" s="171" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="135" t="s">
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="173"/>
+      <c r="M12" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137"/>
-      <c r="Q12" s="141" t="s">
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R12" s="142"/>
+      <c r="R12" s="141"/>
       <c r="S12" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T12" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="U12" s="143"/>
-      <c r="V12" s="143"/>
-      <c r="W12" s="143"/>
-      <c r="X12" s="142"/>
-      <c r="Y12" s="141">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="142"/>
-      <c r="AA12" s="141" t="s">
+      <c r="T12" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="142"/>
+      <c r="V12" s="142"/>
+      <c r="W12" s="142"/>
+      <c r="X12" s="141"/>
+      <c r="Y12" s="140">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="AB12" s="142"/>
-      <c r="AC12" s="141" t="s">
+      <c r="AB12" s="141"/>
+      <c r="AC12" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="AD12" s="143"/>
-      <c r="AE12" s="143"/>
-      <c r="AF12" s="143"/>
-      <c r="AG12" s="143"/>
-      <c r="AH12" s="143"/>
-      <c r="AI12" s="143"/>
-      <c r="AJ12" s="142"/>
-      <c r="AK12" s="164" t="s">
+      <c r="AD12" s="142"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="142"/>
+      <c r="AG12" s="142"/>
+      <c r="AH12" s="142"/>
+      <c r="AI12" s="142"/>
+      <c r="AJ12" s="141"/>
+      <c r="AK12" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="AL12" s="165"/>
-      <c r="AM12" s="165"/>
-      <c r="AN12" s="165"/>
-      <c r="AO12" s="165"/>
-      <c r="AP12" s="165"/>
-      <c r="AQ12" s="165"/>
-      <c r="AR12" s="166"/>
-      <c r="AS12" s="160" t="s">
+      <c r="AL12" s="158"/>
+      <c r="AM12" s="158"/>
+      <c r="AN12" s="158"/>
+      <c r="AO12" s="158"/>
+      <c r="AP12" s="158"/>
+      <c r="AQ12" s="158"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT12" s="161"/>
-      <c r="AU12" s="161"/>
-      <c r="AV12" s="161"/>
-      <c r="AW12" s="161"/>
-      <c r="AX12" s="161"/>
-      <c r="AY12" s="161"/>
-      <c r="AZ12" s="161"/>
-      <c r="BA12" s="161"/>
-      <c r="BB12" s="161"/>
-      <c r="BC12" s="161"/>
-      <c r="BD12" s="161"/>
-      <c r="BE12" s="161"/>
-      <c r="BF12" s="161"/>
-      <c r="BG12" s="161"/>
-      <c r="BH12" s="162"/>
+      <c r="AT12" s="134"/>
+      <c r="AU12" s="134"/>
+      <c r="AV12" s="134"/>
+      <c r="AW12" s="134"/>
+      <c r="AX12" s="134"/>
+      <c r="AY12" s="134"/>
+      <c r="AZ12" s="134"/>
+      <c r="BA12" s="134"/>
+      <c r="BB12" s="134"/>
+      <c r="BC12" s="134"/>
+      <c r="BD12" s="134"/>
+      <c r="BE12" s="134"/>
+      <c r="BF12" s="134"/>
+      <c r="BG12" s="134"/>
+      <c r="BH12" s="135"/>
       <c r="BI12" s="7"/>
       <c r="BJ12" s="17"/>
       <c r="BK12" s="17"/>
@@ -13171,88 +13207,88 @@
       <c r="CO12" s="17"/>
     </row>
     <row r="13" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="133">
+      <c r="A13" s="136">
         <v>7</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="135" t="s">
+      <c r="B13" s="136"/>
+      <c r="C13" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="135" t="s">
+      <c r="D13" s="138"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="136"/>
-      <c r="O13" s="136"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="141" t="s">
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R13" s="142"/>
+      <c r="R13" s="141"/>
       <c r="S13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T13" s="141" t="s">
+      <c r="T13" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="U13" s="143"/>
-      <c r="V13" s="143"/>
-      <c r="W13" s="143"/>
-      <c r="X13" s="142"/>
-      <c r="Y13" s="141">
+      <c r="U13" s="142"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="142"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="140">
         <v>4</v>
       </c>
-      <c r="Z13" s="142"/>
-      <c r="AA13" s="141" t="s">
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="142"/>
-      <c r="AC13" s="141" t="s">
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="AD13" s="143"/>
-      <c r="AE13" s="143"/>
-      <c r="AF13" s="143"/>
-      <c r="AG13" s="143"/>
-      <c r="AH13" s="143"/>
-      <c r="AI13" s="143"/>
-      <c r="AJ13" s="142"/>
-      <c r="AK13" s="154" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL13" s="155"/>
-      <c r="AM13" s="155"/>
-      <c r="AN13" s="155"/>
-      <c r="AO13" s="155"/>
-      <c r="AP13" s="155"/>
-      <c r="AQ13" s="155"/>
-      <c r="AR13" s="156"/>
-      <c r="AS13" s="160" t="s">
+      <c r="AD13" s="142"/>
+      <c r="AE13" s="142"/>
+      <c r="AF13" s="142"/>
+      <c r="AG13" s="142"/>
+      <c r="AH13" s="142"/>
+      <c r="AI13" s="142"/>
+      <c r="AJ13" s="141"/>
+      <c r="AK13" s="151" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL13" s="152"/>
+      <c r="AM13" s="152"/>
+      <c r="AN13" s="152"/>
+      <c r="AO13" s="152"/>
+      <c r="AP13" s="152"/>
+      <c r="AQ13" s="152"/>
+      <c r="AR13" s="153"/>
+      <c r="AS13" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT13" s="161"/>
-      <c r="AU13" s="161"/>
-      <c r="AV13" s="161"/>
-      <c r="AW13" s="161"/>
-      <c r="AX13" s="161"/>
-      <c r="AY13" s="161"/>
-      <c r="AZ13" s="161"/>
-      <c r="BA13" s="161"/>
-      <c r="BB13" s="161"/>
-      <c r="BC13" s="161"/>
-      <c r="BD13" s="161"/>
-      <c r="BE13" s="161"/>
-      <c r="BF13" s="161"/>
-      <c r="BG13" s="161"/>
-      <c r="BH13" s="162"/>
+      <c r="AT13" s="134"/>
+      <c r="AU13" s="134"/>
+      <c r="AV13" s="134"/>
+      <c r="AW13" s="134"/>
+      <c r="AX13" s="134"/>
+      <c r="AY13" s="134"/>
+      <c r="AZ13" s="134"/>
+      <c r="BA13" s="134"/>
+      <c r="BB13" s="134"/>
+      <c r="BC13" s="134"/>
+      <c r="BD13" s="134"/>
+      <c r="BE13" s="134"/>
+      <c r="BF13" s="134"/>
+      <c r="BG13" s="134"/>
+      <c r="BH13" s="135"/>
       <c r="BI13" s="7"/>
       <c r="BJ13" s="17"/>
       <c r="BK13" s="17"/>
@@ -13288,88 +13324,88 @@
       <c r="CO13" s="17"/>
     </row>
     <row r="14" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="133">
+      <c r="A14" s="136">
         <v>8</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="135" t="s">
+      <c r="B14" s="136"/>
+      <c r="C14" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="135" t="s">
+      <c r="D14" s="138"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="141" t="s">
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R14" s="142"/>
+      <c r="R14" s="141"/>
       <c r="S14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T14" s="141" t="s">
+      <c r="T14" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="U14" s="143"/>
-      <c r="V14" s="143"/>
-      <c r="W14" s="143"/>
-      <c r="X14" s="142"/>
-      <c r="Y14" s="141">
+      <c r="U14" s="142"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="141"/>
+      <c r="Y14" s="140">
         <v>2</v>
       </c>
-      <c r="Z14" s="142"/>
-      <c r="AA14" s="141" t="s">
+      <c r="Z14" s="141"/>
+      <c r="AA14" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="AB14" s="142"/>
-      <c r="AC14" s="141" t="s">
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="AD14" s="143"/>
-      <c r="AE14" s="143"/>
-      <c r="AF14" s="143"/>
-      <c r="AG14" s="143"/>
-      <c r="AH14" s="143"/>
-      <c r="AI14" s="143"/>
-      <c r="AJ14" s="142"/>
-      <c r="AK14" s="154" t="s">
-        <v>84</v>
-      </c>
-      <c r="AL14" s="155"/>
-      <c r="AM14" s="155"/>
-      <c r="AN14" s="155"/>
-      <c r="AO14" s="155"/>
-      <c r="AP14" s="155"/>
-      <c r="AQ14" s="155"/>
-      <c r="AR14" s="156"/>
-      <c r="AS14" s="160" t="s">
+      <c r="AD14" s="142"/>
+      <c r="AE14" s="142"/>
+      <c r="AF14" s="142"/>
+      <c r="AG14" s="142"/>
+      <c r="AH14" s="142"/>
+      <c r="AI14" s="142"/>
+      <c r="AJ14" s="141"/>
+      <c r="AK14" s="151" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="152"/>
+      <c r="AN14" s="152"/>
+      <c r="AO14" s="152"/>
+      <c r="AP14" s="152"/>
+      <c r="AQ14" s="152"/>
+      <c r="AR14" s="153"/>
+      <c r="AS14" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT14" s="161"/>
-      <c r="AU14" s="161"/>
-      <c r="AV14" s="161"/>
-      <c r="AW14" s="161"/>
-      <c r="AX14" s="161"/>
-      <c r="AY14" s="161"/>
-      <c r="AZ14" s="161"/>
-      <c r="BA14" s="161"/>
-      <c r="BB14" s="161"/>
-      <c r="BC14" s="161"/>
-      <c r="BD14" s="161"/>
-      <c r="BE14" s="161"/>
-      <c r="BF14" s="161"/>
-      <c r="BG14" s="161"/>
-      <c r="BH14" s="162"/>
+      <c r="AT14" s="134"/>
+      <c r="AU14" s="134"/>
+      <c r="AV14" s="134"/>
+      <c r="AW14" s="134"/>
+      <c r="AX14" s="134"/>
+      <c r="AY14" s="134"/>
+      <c r="AZ14" s="134"/>
+      <c r="BA14" s="134"/>
+      <c r="BB14" s="134"/>
+      <c r="BC14" s="134"/>
+      <c r="BD14" s="134"/>
+      <c r="BE14" s="134"/>
+      <c r="BF14" s="134"/>
+      <c r="BG14" s="134"/>
+      <c r="BH14" s="135"/>
       <c r="BI14" s="7"/>
       <c r="BJ14" s="17"/>
       <c r="BK14" s="17"/>
@@ -13405,88 +13441,88 @@
       <c r="CO14" s="17"/>
     </row>
     <row r="15" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="133">
+      <c r="A15" s="136">
         <v>9</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="135" t="s">
+      <c r="B15" s="136"/>
+      <c r="C15" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="135" t="s">
+      <c r="D15" s="138"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="N15" s="136"/>
-      <c r="O15" s="136"/>
-      <c r="P15" s="137"/>
-      <c r="Q15" s="141" t="s">
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R15" s="142"/>
+      <c r="R15" s="141"/>
       <c r="S15" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T15" s="141" t="s">
+      <c r="T15" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
-      <c r="W15" s="143"/>
-      <c r="X15" s="142"/>
-      <c r="Y15" s="141">
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="141"/>
+      <c r="Y15" s="140">
         <v>2</v>
       </c>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="141" t="s">
+      <c r="Z15" s="141"/>
+      <c r="AA15" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="AB15" s="142"/>
-      <c r="AC15" s="141" t="s">
+      <c r="AB15" s="141"/>
+      <c r="AC15" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="AD15" s="143"/>
-      <c r="AE15" s="143"/>
-      <c r="AF15" s="143"/>
-      <c r="AG15" s="143"/>
-      <c r="AH15" s="143"/>
-      <c r="AI15" s="143"/>
-      <c r="AJ15" s="142"/>
-      <c r="AK15" s="154" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL15" s="155"/>
-      <c r="AM15" s="155"/>
-      <c r="AN15" s="155"/>
-      <c r="AO15" s="155"/>
-      <c r="AP15" s="155"/>
-      <c r="AQ15" s="155"/>
-      <c r="AR15" s="156"/>
-      <c r="AS15" s="160" t="s">
+      <c r="AD15" s="142"/>
+      <c r="AE15" s="142"/>
+      <c r="AF15" s="142"/>
+      <c r="AG15" s="142"/>
+      <c r="AH15" s="142"/>
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="141"/>
+      <c r="AK15" s="151" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL15" s="152"/>
+      <c r="AM15" s="152"/>
+      <c r="AN15" s="152"/>
+      <c r="AO15" s="152"/>
+      <c r="AP15" s="152"/>
+      <c r="AQ15" s="152"/>
+      <c r="AR15" s="153"/>
+      <c r="AS15" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="AT15" s="161"/>
-      <c r="AU15" s="161"/>
-      <c r="AV15" s="161"/>
-      <c r="AW15" s="161"/>
-      <c r="AX15" s="161"/>
-      <c r="AY15" s="161"/>
-      <c r="AZ15" s="161"/>
-      <c r="BA15" s="161"/>
-      <c r="BB15" s="161"/>
-      <c r="BC15" s="161"/>
-      <c r="BD15" s="161"/>
-      <c r="BE15" s="161"/>
-      <c r="BF15" s="161"/>
-      <c r="BG15" s="161"/>
-      <c r="BH15" s="162"/>
+      <c r="AT15" s="134"/>
+      <c r="AU15" s="134"/>
+      <c r="AV15" s="134"/>
+      <c r="AW15" s="134"/>
+      <c r="AX15" s="134"/>
+      <c r="AY15" s="134"/>
+      <c r="AZ15" s="134"/>
+      <c r="BA15" s="134"/>
+      <c r="BB15" s="134"/>
+      <c r="BC15" s="134"/>
+      <c r="BD15" s="134"/>
+      <c r="BE15" s="134"/>
+      <c r="BF15" s="134"/>
+      <c r="BG15" s="134"/>
+      <c r="BH15" s="135"/>
       <c r="BJ15" s="17"/>
       <c r="BK15" s="17"/>
       <c r="BL15" s="17"/>
@@ -13521,88 +13557,88 @@
       <c r="CO15" s="17"/>
     </row>
     <row r="16" spans="1:93" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="133">
+      <c r="A16" s="136">
         <v>10</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="135" t="s">
+      <c r="B16" s="136"/>
+      <c r="C16" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="136"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="N16" s="136"/>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="141" t="s">
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="142"/>
+      <c r="R16" s="141"/>
       <c r="S16" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T16" s="141" t="s">
+      <c r="T16" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="143"/>
-      <c r="V16" s="143"/>
-      <c r="W16" s="143"/>
-      <c r="X16" s="142"/>
-      <c r="Y16" s="141" t="s">
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="141"/>
+      <c r="Y16" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="Z16" s="142"/>
-      <c r="AA16" s="141" t="s">
+      <c r="Z16" s="141"/>
+      <c r="AA16" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="141" t="s">
+      <c r="AB16" s="141"/>
+      <c r="AC16" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="AD16" s="143"/>
-      <c r="AE16" s="143"/>
-      <c r="AF16" s="143"/>
-      <c r="AG16" s="143"/>
-      <c r="AH16" s="143"/>
-      <c r="AI16" s="143"/>
-      <c r="AJ16" s="142"/>
-      <c r="AK16" s="154" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL16" s="155"/>
-      <c r="AM16" s="155"/>
-      <c r="AN16" s="155"/>
-      <c r="AO16" s="155"/>
-      <c r="AP16" s="155"/>
-      <c r="AQ16" s="155"/>
-      <c r="AR16" s="156"/>
-      <c r="AS16" s="157" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT16" s="158"/>
-      <c r="AU16" s="158"/>
-      <c r="AV16" s="158"/>
-      <c r="AW16" s="158"/>
-      <c r="AX16" s="158"/>
-      <c r="AY16" s="158"/>
-      <c r="AZ16" s="158"/>
-      <c r="BA16" s="158"/>
-      <c r="BB16" s="158"/>
-      <c r="BC16" s="158"/>
-      <c r="BD16" s="158"/>
-      <c r="BE16" s="158"/>
-      <c r="BF16" s="158"/>
-      <c r="BG16" s="158"/>
-      <c r="BH16" s="159"/>
+      <c r="AD16" s="142"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="142"/>
+      <c r="AG16" s="142"/>
+      <c r="AH16" s="142"/>
+      <c r="AI16" s="142"/>
+      <c r="AJ16" s="141"/>
+      <c r="AK16" s="151" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL16" s="152"/>
+      <c r="AM16" s="152"/>
+      <c r="AN16" s="152"/>
+      <c r="AO16" s="152"/>
+      <c r="AP16" s="152"/>
+      <c r="AQ16" s="152"/>
+      <c r="AR16" s="153"/>
+      <c r="AS16" s="154" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT16" s="155"/>
+      <c r="AU16" s="155"/>
+      <c r="AV16" s="155"/>
+      <c r="AW16" s="155"/>
+      <c r="AX16" s="155"/>
+      <c r="AY16" s="155"/>
+      <c r="AZ16" s="155"/>
+      <c r="BA16" s="155"/>
+      <c r="BB16" s="155"/>
+      <c r="BC16" s="155"/>
+      <c r="BD16" s="155"/>
+      <c r="BE16" s="155"/>
+      <c r="BF16" s="155"/>
+      <c r="BG16" s="155"/>
+      <c r="BH16" s="156"/>
       <c r="BJ16" s="17"/>
       <c r="BK16" s="17"/>
       <c r="BL16" s="17"/>
@@ -13637,28 +13673,28 @@
       <c r="CO16" s="17"/>
     </row>
     <row r="17" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="133">
+      <c r="A17" s="136">
         <v>11</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="134" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134" t="s">
+      <c r="B17" s="136"/>
+      <c r="C17" s="144" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="134"/>
-      <c r="O17" s="134"/>
-      <c r="P17" s="134"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
       <c r="Q17" s="145" t="s">
         <v>25</v>
       </c>
@@ -13701,24 +13737,24 @@
       <c r="AP17" s="145"/>
       <c r="AQ17" s="145"/>
       <c r="AR17" s="145"/>
-      <c r="AS17" s="170" t="s">
+      <c r="AS17" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AT17" s="170"/>
-      <c r="AU17" s="170"/>
-      <c r="AV17" s="170"/>
-      <c r="AW17" s="170"/>
-      <c r="AX17" s="170"/>
-      <c r="AY17" s="170"/>
-      <c r="AZ17" s="170"/>
-      <c r="BA17" s="170"/>
-      <c r="BB17" s="170"/>
-      <c r="BC17" s="170"/>
-      <c r="BD17" s="170"/>
-      <c r="BE17" s="170"/>
-      <c r="BF17" s="170"/>
-      <c r="BG17" s="170"/>
-      <c r="BH17" s="170"/>
+      <c r="AT17" s="143"/>
+      <c r="AU17" s="143"/>
+      <c r="AV17" s="143"/>
+      <c r="AW17" s="143"/>
+      <c r="AX17" s="143"/>
+      <c r="AY17" s="143"/>
+      <c r="AZ17" s="143"/>
+      <c r="BA17" s="143"/>
+      <c r="BB17" s="143"/>
+      <c r="BC17" s="143"/>
+      <c r="BD17" s="143"/>
+      <c r="BE17" s="143"/>
+      <c r="BF17" s="143"/>
+      <c r="BG17" s="143"/>
+      <c r="BH17" s="143"/>
       <c r="BJ17" s="17"/>
       <c r="BK17" s="17"/>
       <c r="BL17" s="17"/>
@@ -13753,28 +13789,28 @@
       <c r="CO17" s="17"/>
     </row>
     <row r="18" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="133">
+      <c r="A18" s="136">
         <v>12</v>
       </c>
-      <c r="B18" s="133"/>
-      <c r="C18" s="134" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134" t="s">
+      <c r="B18" s="136"/>
+      <c r="C18" s="144" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
       <c r="Q18" s="145" t="s">
         <v>25</v>
       </c>
@@ -13782,13 +13818,13 @@
       <c r="S18" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T18" s="141" t="s">
+      <c r="T18" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
-      <c r="W18" s="143"/>
-      <c r="X18" s="142"/>
+      <c r="U18" s="142"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="141"/>
       <c r="Y18" s="145" t="s">
         <v>45</v>
       </c>
@@ -13817,24 +13853,24 @@
       <c r="AP18" s="145"/>
       <c r="AQ18" s="145"/>
       <c r="AR18" s="145"/>
-      <c r="AS18" s="170" t="s">
+      <c r="AS18" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AT18" s="170"/>
-      <c r="AU18" s="170"/>
-      <c r="AV18" s="170"/>
-      <c r="AW18" s="170"/>
-      <c r="AX18" s="170"/>
-      <c r="AY18" s="170"/>
-      <c r="AZ18" s="170"/>
-      <c r="BA18" s="170"/>
-      <c r="BB18" s="170"/>
-      <c r="BC18" s="170"/>
-      <c r="BD18" s="170"/>
-      <c r="BE18" s="170"/>
-      <c r="BF18" s="170"/>
-      <c r="BG18" s="170"/>
-      <c r="BH18" s="170"/>
+      <c r="AT18" s="143"/>
+      <c r="AU18" s="143"/>
+      <c r="AV18" s="143"/>
+      <c r="AW18" s="143"/>
+      <c r="AX18" s="143"/>
+      <c r="AY18" s="143"/>
+      <c r="AZ18" s="143"/>
+      <c r="BA18" s="143"/>
+      <c r="BB18" s="143"/>
+      <c r="BC18" s="143"/>
+      <c r="BD18" s="143"/>
+      <c r="BE18" s="143"/>
+      <c r="BF18" s="143"/>
+      <c r="BG18" s="143"/>
+      <c r="BH18" s="143"/>
       <c r="BJ18" s="17"/>
       <c r="BK18" s="17"/>
       <c r="BL18" s="17"/>
@@ -13869,28 +13905,28 @@
       <c r="CO18" s="17"/>
     </row>
     <row r="19" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="133">
+      <c r="A19" s="136">
         <v>13</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="134" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134" t="s">
+      <c r="B19" s="136"/>
+      <c r="C19" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="134"/>
-      <c r="O19" s="134"/>
-      <c r="P19" s="134"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
       <c r="Q19" s="145" t="s">
         <v>25</v>
       </c>
@@ -13933,24 +13969,24 @@
       <c r="AP19" s="145"/>
       <c r="AQ19" s="145"/>
       <c r="AR19" s="145"/>
-      <c r="AS19" s="170" t="s">
+      <c r="AS19" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AT19" s="170"/>
-      <c r="AU19" s="170"/>
-      <c r="AV19" s="170"/>
-      <c r="AW19" s="170"/>
-      <c r="AX19" s="170"/>
-      <c r="AY19" s="170"/>
-      <c r="AZ19" s="170"/>
-      <c r="BA19" s="170"/>
-      <c r="BB19" s="170"/>
-      <c r="BC19" s="170"/>
-      <c r="BD19" s="170"/>
-      <c r="BE19" s="170"/>
-      <c r="BF19" s="170"/>
-      <c r="BG19" s="170"/>
-      <c r="BH19" s="170"/>
+      <c r="AT19" s="143"/>
+      <c r="AU19" s="143"/>
+      <c r="AV19" s="143"/>
+      <c r="AW19" s="143"/>
+      <c r="AX19" s="143"/>
+      <c r="AY19" s="143"/>
+      <c r="AZ19" s="143"/>
+      <c r="BA19" s="143"/>
+      <c r="BB19" s="143"/>
+      <c r="BC19" s="143"/>
+      <c r="BD19" s="143"/>
+      <c r="BE19" s="143"/>
+      <c r="BF19" s="143"/>
+      <c r="BG19" s="143"/>
+      <c r="BH19" s="143"/>
       <c r="BJ19" s="17"/>
       <c r="BK19" s="17"/>
       <c r="BL19" s="17"/>
@@ -13985,28 +14021,28 @@
       <c r="CO19" s="17"/>
     </row>
     <row r="20" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="133">
+      <c r="A20" s="136">
         <v>14</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="134" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134" t="s">
+      <c r="B20" s="136"/>
+      <c r="C20" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="134"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
       <c r="Q20" s="145" t="s">
         <v>25</v>
       </c>
@@ -14014,13 +14050,13 @@
       <c r="S20" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="T20" s="141" t="s">
+      <c r="T20" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="142"/>
+      <c r="U20" s="142"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="141"/>
       <c r="Y20" s="145" t="s">
         <v>45</v>
       </c>
@@ -14049,24 +14085,24 @@
       <c r="AP20" s="145"/>
       <c r="AQ20" s="145"/>
       <c r="AR20" s="145"/>
-      <c r="AS20" s="170" t="s">
+      <c r="AS20" s="143" t="s">
         <v>20</v>
       </c>
-      <c r="AT20" s="170"/>
-      <c r="AU20" s="170"/>
-      <c r="AV20" s="170"/>
-      <c r="AW20" s="170"/>
-      <c r="AX20" s="170"/>
-      <c r="AY20" s="170"/>
-      <c r="AZ20" s="170"/>
-      <c r="BA20" s="170"/>
-      <c r="BB20" s="170"/>
-      <c r="BC20" s="170"/>
-      <c r="BD20" s="170"/>
-      <c r="BE20" s="170"/>
-      <c r="BF20" s="170"/>
-      <c r="BG20" s="170"/>
-      <c r="BH20" s="170"/>
+      <c r="AT20" s="143"/>
+      <c r="AU20" s="143"/>
+      <c r="AV20" s="143"/>
+      <c r="AW20" s="143"/>
+      <c r="AX20" s="143"/>
+      <c r="AY20" s="143"/>
+      <c r="AZ20" s="143"/>
+      <c r="BA20" s="143"/>
+      <c r="BB20" s="143"/>
+      <c r="BC20" s="143"/>
+      <c r="BD20" s="143"/>
+      <c r="BE20" s="143"/>
+      <c r="BF20" s="143"/>
+      <c r="BG20" s="143"/>
+      <c r="BH20" s="143"/>
       <c r="BJ20" s="17"/>
       <c r="BK20" s="17"/>
       <c r="BL20" s="17"/>
@@ -14101,28 +14137,28 @@
       <c r="CO20" s="17"/>
     </row>
     <row r="21" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="133">
+      <c r="A21" s="136">
         <v>15</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="134" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="134"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="144"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
       <c r="Q21" s="145" t="s">
         <v>26</v>
       </c>
@@ -14130,13 +14166,13 @@
       <c r="S21" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="T21" s="141" t="s">
+      <c r="T21" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="U21" s="143"/>
-      <c r="V21" s="143"/>
-      <c r="W21" s="143"/>
-      <c r="X21" s="142"/>
+      <c r="U21" s="142"/>
+      <c r="V21" s="142"/>
+      <c r="W21" s="142"/>
+      <c r="X21" s="141"/>
       <c r="Y21" s="145" t="s">
         <v>45</v>
       </c>
@@ -14165,24 +14201,24 @@
       <c r="AP21" s="145"/>
       <c r="AQ21" s="145"/>
       <c r="AR21" s="145"/>
-      <c r="AS21" s="171" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT21" s="171"/>
-      <c r="AU21" s="171"/>
-      <c r="AV21" s="171"/>
-      <c r="AW21" s="171"/>
-      <c r="AX21" s="171"/>
-      <c r="AY21" s="171"/>
-      <c r="AZ21" s="171"/>
-      <c r="BA21" s="171"/>
-      <c r="BB21" s="171"/>
-      <c r="BC21" s="171"/>
-      <c r="BD21" s="171"/>
-      <c r="BE21" s="171"/>
-      <c r="BF21" s="171"/>
-      <c r="BG21" s="171"/>
-      <c r="BH21" s="171"/>
+      <c r="AS21" s="150" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT21" s="150"/>
+      <c r="AU21" s="150"/>
+      <c r="AV21" s="150"/>
+      <c r="AW21" s="150"/>
+      <c r="AX21" s="150"/>
+      <c r="AY21" s="150"/>
+      <c r="AZ21" s="150"/>
+      <c r="BA21" s="150"/>
+      <c r="BB21" s="150"/>
+      <c r="BC21" s="150"/>
+      <c r="BD21" s="150"/>
+      <c r="BE21" s="150"/>
+      <c r="BF21" s="150"/>
+      <c r="BG21" s="150"/>
+      <c r="BH21" s="150"/>
       <c r="BJ21" s="17"/>
       <c r="BK21" s="17"/>
       <c r="BL21" s="17"/>
@@ -14217,24 +14253,24 @@
       <c r="CO21" s="17"/>
     </row>
     <row r="22" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="133">
+      <c r="A22" s="136">
         <v>16</v>
       </c>
-      <c r="B22" s="133"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
-      <c r="O22" s="134"/>
-      <c r="P22" s="134"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
       <c r="Q22" s="145"/>
       <c r="R22" s="145"/>
       <c r="S22" s="60"/>
@@ -14255,30 +14291,30 @@
       <c r="AH22" s="145"/>
       <c r="AI22" s="145"/>
       <c r="AJ22" s="145"/>
-      <c r="AK22" s="163"/>
-      <c r="AL22" s="163"/>
-      <c r="AM22" s="163"/>
-      <c r="AN22" s="163"/>
-      <c r="AO22" s="163"/>
-      <c r="AP22" s="163"/>
-      <c r="AQ22" s="163"/>
-      <c r="AR22" s="163"/>
-      <c r="AS22" s="170"/>
-      <c r="AT22" s="170"/>
-      <c r="AU22" s="170"/>
-      <c r="AV22" s="170"/>
-      <c r="AW22" s="170"/>
-      <c r="AX22" s="170"/>
-      <c r="AY22" s="170"/>
-      <c r="AZ22" s="170"/>
-      <c r="BA22" s="170"/>
-      <c r="BB22" s="170"/>
-      <c r="BC22" s="170"/>
-      <c r="BD22" s="170"/>
-      <c r="BE22" s="170"/>
-      <c r="BF22" s="170"/>
-      <c r="BG22" s="170"/>
-      <c r="BH22" s="170"/>
+      <c r="AK22" s="147"/>
+      <c r="AL22" s="147"/>
+      <c r="AM22" s="147"/>
+      <c r="AN22" s="147"/>
+      <c r="AO22" s="147"/>
+      <c r="AP22" s="147"/>
+      <c r="AQ22" s="147"/>
+      <c r="AR22" s="147"/>
+      <c r="AS22" s="143"/>
+      <c r="AT22" s="143"/>
+      <c r="AU22" s="143"/>
+      <c r="AV22" s="143"/>
+      <c r="AW22" s="143"/>
+      <c r="AX22" s="143"/>
+      <c r="AY22" s="143"/>
+      <c r="AZ22" s="143"/>
+      <c r="BA22" s="143"/>
+      <c r="BB22" s="143"/>
+      <c r="BC22" s="143"/>
+      <c r="BD22" s="143"/>
+      <c r="BE22" s="143"/>
+      <c r="BF22" s="143"/>
+      <c r="BG22" s="143"/>
+      <c r="BH22" s="143"/>
       <c r="BJ22" s="17"/>
       <c r="BK22" s="17"/>
       <c r="BL22" s="17"/>
@@ -14313,24 +14349,24 @@
       <c r="CO22" s="17"/>
     </row>
     <row r="23" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="133">
+      <c r="A23" s="136">
         <v>17</v>
       </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
-      <c r="O23" s="134"/>
-      <c r="P23" s="134"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="144"/>
       <c r="Q23" s="145"/>
       <c r="R23" s="145"/>
       <c r="S23" s="60"/>
@@ -14359,22 +14395,22 @@
       <c r="AP23" s="145"/>
       <c r="AQ23" s="145"/>
       <c r="AR23" s="145"/>
-      <c r="AS23" s="170"/>
-      <c r="AT23" s="170"/>
-      <c r="AU23" s="170"/>
-      <c r="AV23" s="170"/>
-      <c r="AW23" s="170"/>
-      <c r="AX23" s="170"/>
-      <c r="AY23" s="170"/>
-      <c r="AZ23" s="170"/>
-      <c r="BA23" s="170"/>
-      <c r="BB23" s="170"/>
-      <c r="BC23" s="170"/>
-      <c r="BD23" s="170"/>
-      <c r="BE23" s="170"/>
-      <c r="BF23" s="170"/>
-      <c r="BG23" s="170"/>
-      <c r="BH23" s="170"/>
+      <c r="AS23" s="143"/>
+      <c r="AT23" s="143"/>
+      <c r="AU23" s="143"/>
+      <c r="AV23" s="143"/>
+      <c r="AW23" s="143"/>
+      <c r="AX23" s="143"/>
+      <c r="AY23" s="143"/>
+      <c r="AZ23" s="143"/>
+      <c r="BA23" s="143"/>
+      <c r="BB23" s="143"/>
+      <c r="BC23" s="143"/>
+      <c r="BD23" s="143"/>
+      <c r="BE23" s="143"/>
+      <c r="BF23" s="143"/>
+      <c r="BG23" s="143"/>
+      <c r="BH23" s="143"/>
       <c r="BJ23" s="17"/>
       <c r="BK23" s="17"/>
       <c r="BL23" s="17"/>
@@ -14409,24 +14445,24 @@
       <c r="CO23" s="17"/>
     </row>
     <row r="24" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="133">
+      <c r="A24" s="136">
         <v>18</v>
       </c>
-      <c r="B24" s="133"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="134"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="134"/>
-      <c r="N24" s="134"/>
-      <c r="O24" s="134"/>
-      <c r="P24" s="134"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="144"/>
       <c r="Q24" s="145"/>
       <c r="R24" s="145"/>
       <c r="S24" s="60"/>
@@ -14455,22 +14491,22 @@
       <c r="AP24" s="145"/>
       <c r="AQ24" s="145"/>
       <c r="AR24" s="145"/>
-      <c r="AS24" s="170"/>
-      <c r="AT24" s="170"/>
-      <c r="AU24" s="170"/>
-      <c r="AV24" s="170"/>
-      <c r="AW24" s="170"/>
-      <c r="AX24" s="170"/>
-      <c r="AY24" s="170"/>
-      <c r="AZ24" s="170"/>
-      <c r="BA24" s="170"/>
-      <c r="BB24" s="170"/>
-      <c r="BC24" s="170"/>
-      <c r="BD24" s="170"/>
-      <c r="BE24" s="170"/>
-      <c r="BF24" s="170"/>
-      <c r="BG24" s="170"/>
-      <c r="BH24" s="170"/>
+      <c r="AS24" s="143"/>
+      <c r="AT24" s="143"/>
+      <c r="AU24" s="143"/>
+      <c r="AV24" s="143"/>
+      <c r="AW24" s="143"/>
+      <c r="AX24" s="143"/>
+      <c r="AY24" s="143"/>
+      <c r="AZ24" s="143"/>
+      <c r="BA24" s="143"/>
+      <c r="BB24" s="143"/>
+      <c r="BC24" s="143"/>
+      <c r="BD24" s="143"/>
+      <c r="BE24" s="143"/>
+      <c r="BF24" s="143"/>
+      <c r="BG24" s="143"/>
+      <c r="BH24" s="143"/>
       <c r="BJ24" s="17"/>
       <c r="BK24" s="17"/>
       <c r="BL24" s="17"/>
@@ -14505,24 +14541,24 @@
       <c r="CO24" s="17"/>
     </row>
     <row r="25" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="133">
+      <c r="A25" s="136">
         <v>19</v>
       </c>
-      <c r="B25" s="133"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="134"/>
-      <c r="N25" s="134"/>
-      <c r="O25" s="134"/>
-      <c r="P25" s="134"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
       <c r="Q25" s="145"/>
       <c r="R25" s="145"/>
       <c r="S25" s="60"/>
@@ -14551,22 +14587,22 @@
       <c r="AP25" s="145"/>
       <c r="AQ25" s="145"/>
       <c r="AR25" s="145"/>
-      <c r="AS25" s="170"/>
-      <c r="AT25" s="170"/>
-      <c r="AU25" s="170"/>
-      <c r="AV25" s="170"/>
-      <c r="AW25" s="170"/>
-      <c r="AX25" s="170"/>
-      <c r="AY25" s="170"/>
-      <c r="AZ25" s="170"/>
-      <c r="BA25" s="170"/>
-      <c r="BB25" s="170"/>
-      <c r="BC25" s="170"/>
-      <c r="BD25" s="170"/>
-      <c r="BE25" s="170"/>
-      <c r="BF25" s="170"/>
-      <c r="BG25" s="170"/>
-      <c r="BH25" s="170"/>
+      <c r="AS25" s="143"/>
+      <c r="AT25" s="143"/>
+      <c r="AU25" s="143"/>
+      <c r="AV25" s="143"/>
+      <c r="AW25" s="143"/>
+      <c r="AX25" s="143"/>
+      <c r="AY25" s="143"/>
+      <c r="AZ25" s="143"/>
+      <c r="BA25" s="143"/>
+      <c r="BB25" s="143"/>
+      <c r="BC25" s="143"/>
+      <c r="BD25" s="143"/>
+      <c r="BE25" s="143"/>
+      <c r="BF25" s="143"/>
+      <c r="BG25" s="143"/>
+      <c r="BH25" s="143"/>
       <c r="BJ25" s="17"/>
       <c r="BK25" s="17"/>
       <c r="BL25" s="17"/>
@@ -14601,32 +14637,32 @@
       <c r="CO25" s="17"/>
     </row>
     <row r="26" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="133">
+      <c r="A26" s="136">
         <v>20</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
-      <c r="N26" s="134"/>
-      <c r="O26" s="134"/>
-      <c r="P26" s="134"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
       <c r="Q26" s="145"/>
       <c r="R26" s="145"/>
       <c r="S26" s="56"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
-      <c r="W26" s="143"/>
-      <c r="X26" s="142"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="142"/>
+      <c r="V26" s="142"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="141"/>
       <c r="Y26" s="145"/>
       <c r="Z26" s="145"/>
       <c r="AA26" s="145"/>
@@ -14647,22 +14683,22 @@
       <c r="AP26" s="145"/>
       <c r="AQ26" s="145"/>
       <c r="AR26" s="145"/>
-      <c r="AS26" s="170"/>
-      <c r="AT26" s="170"/>
-      <c r="AU26" s="170"/>
-      <c r="AV26" s="170"/>
-      <c r="AW26" s="170"/>
-      <c r="AX26" s="170"/>
-      <c r="AY26" s="170"/>
-      <c r="AZ26" s="170"/>
-      <c r="BA26" s="170"/>
-      <c r="BB26" s="170"/>
-      <c r="BC26" s="170"/>
-      <c r="BD26" s="170"/>
-      <c r="BE26" s="170"/>
-      <c r="BF26" s="170"/>
-      <c r="BG26" s="170"/>
-      <c r="BH26" s="170"/>
+      <c r="AS26" s="143"/>
+      <c r="AT26" s="143"/>
+      <c r="AU26" s="143"/>
+      <c r="AV26" s="143"/>
+      <c r="AW26" s="143"/>
+      <c r="AX26" s="143"/>
+      <c r="AY26" s="143"/>
+      <c r="AZ26" s="143"/>
+      <c r="BA26" s="143"/>
+      <c r="BB26" s="143"/>
+      <c r="BC26" s="143"/>
+      <c r="BD26" s="143"/>
+      <c r="BE26" s="143"/>
+      <c r="BF26" s="143"/>
+      <c r="BG26" s="143"/>
+      <c r="BH26" s="143"/>
       <c r="BJ26" s="17"/>
       <c r="BK26" s="17"/>
       <c r="BL26" s="17"/>
@@ -14697,68 +14733,68 @@
       <c r="CO26" s="17"/>
     </row>
     <row r="27" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="133">
+      <c r="A27" s="136">
         <v>21</v>
       </c>
-      <c r="B27" s="133"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="137"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="142"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="138"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="141"/>
       <c r="S27" s="60"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="143"/>
-      <c r="W27" s="143"/>
-      <c r="X27" s="142"/>
-      <c r="Y27" s="141"/>
-      <c r="Z27" s="142"/>
-      <c r="AA27" s="141"/>
-      <c r="AB27" s="142"/>
-      <c r="AC27" s="141"/>
-      <c r="AD27" s="143"/>
-      <c r="AE27" s="143"/>
-      <c r="AF27" s="143"/>
-      <c r="AG27" s="143"/>
-      <c r="AH27" s="143"/>
-      <c r="AI27" s="143"/>
-      <c r="AJ27" s="142"/>
-      <c r="AK27" s="141"/>
-      <c r="AL27" s="143"/>
-      <c r="AM27" s="143"/>
-      <c r="AN27" s="143"/>
-      <c r="AO27" s="143"/>
-      <c r="AP27" s="143"/>
-      <c r="AQ27" s="143"/>
-      <c r="AR27" s="142"/>
-      <c r="AS27" s="160"/>
-      <c r="AT27" s="161"/>
-      <c r="AU27" s="161"/>
-      <c r="AV27" s="161"/>
-      <c r="AW27" s="161"/>
-      <c r="AX27" s="161"/>
-      <c r="AY27" s="161"/>
-      <c r="AZ27" s="161"/>
-      <c r="BA27" s="161"/>
-      <c r="BB27" s="161"/>
-      <c r="BC27" s="161"/>
-      <c r="BD27" s="161"/>
-      <c r="BE27" s="161"/>
-      <c r="BF27" s="161"/>
-      <c r="BG27" s="161"/>
-      <c r="BH27" s="162"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="142"/>
+      <c r="W27" s="142"/>
+      <c r="X27" s="141"/>
+      <c r="Y27" s="140"/>
+      <c r="Z27" s="141"/>
+      <c r="AA27" s="140"/>
+      <c r="AB27" s="141"/>
+      <c r="AC27" s="140"/>
+      <c r="AD27" s="142"/>
+      <c r="AE27" s="142"/>
+      <c r="AF27" s="142"/>
+      <c r="AG27" s="142"/>
+      <c r="AH27" s="142"/>
+      <c r="AI27" s="142"/>
+      <c r="AJ27" s="141"/>
+      <c r="AK27" s="140"/>
+      <c r="AL27" s="142"/>
+      <c r="AM27" s="142"/>
+      <c r="AN27" s="142"/>
+      <c r="AO27" s="142"/>
+      <c r="AP27" s="142"/>
+      <c r="AQ27" s="142"/>
+      <c r="AR27" s="141"/>
+      <c r="AS27" s="133"/>
+      <c r="AT27" s="134"/>
+      <c r="AU27" s="134"/>
+      <c r="AV27" s="134"/>
+      <c r="AW27" s="134"/>
+      <c r="AX27" s="134"/>
+      <c r="AY27" s="134"/>
+      <c r="AZ27" s="134"/>
+      <c r="BA27" s="134"/>
+      <c r="BB27" s="134"/>
+      <c r="BC27" s="134"/>
+      <c r="BD27" s="134"/>
+      <c r="BE27" s="134"/>
+      <c r="BF27" s="134"/>
+      <c r="BG27" s="134"/>
+      <c r="BH27" s="135"/>
       <c r="BJ27" s="17"/>
       <c r="BK27" s="17"/>
       <c r="BL27" s="17"/>
@@ -14951,185 +14987,185 @@
       <c r="BH29" s="2"/>
     </row>
     <row r="30" spans="1:93" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="144" t="s">
+      <c r="A30" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144" t="s">
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="144"/>
-      <c r="T30" s="144"/>
-      <c r="U30" s="144"/>
-      <c r="V30" s="144"/>
-      <c r="W30" s="144"/>
-      <c r="X30" s="144"/>
-      <c r="Y30" s="144"/>
-      <c r="Z30" s="144"/>
-      <c r="AA30" s="144"/>
-      <c r="AB30" s="144"/>
-      <c r="AC30" s="144"/>
-      <c r="AD30" s="144"/>
-      <c r="AE30" s="144"/>
-      <c r="AF30" s="144"/>
-      <c r="AG30" s="144"/>
-      <c r="AH30" s="144"/>
-      <c r="AI30" s="144" t="s">
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="146"/>
+      <c r="X30" s="146"/>
+      <c r="Y30" s="146"/>
+      <c r="Z30" s="146"/>
+      <c r="AA30" s="146"/>
+      <c r="AB30" s="146"/>
+      <c r="AC30" s="146"/>
+      <c r="AD30" s="146"/>
+      <c r="AE30" s="146"/>
+      <c r="AF30" s="146"/>
+      <c r="AG30" s="146"/>
+      <c r="AH30" s="146"/>
+      <c r="AI30" s="146" t="s">
         <v>47</v>
       </c>
-      <c r="AJ30" s="144"/>
-      <c r="AK30" s="144"/>
-      <c r="AL30" s="144"/>
-      <c r="AM30" s="144"/>
-      <c r="AN30" s="144"/>
-      <c r="AO30" s="144"/>
-      <c r="AP30" s="144"/>
-      <c r="AQ30" s="144"/>
-      <c r="AR30" s="144"/>
-      <c r="AS30" s="144"/>
-      <c r="AT30" s="144"/>
-      <c r="AU30" s="144"/>
-      <c r="AV30" s="144" t="s">
+      <c r="AJ30" s="146"/>
+      <c r="AK30" s="146"/>
+      <c r="AL30" s="146"/>
+      <c r="AM30" s="146"/>
+      <c r="AN30" s="146"/>
+      <c r="AO30" s="146"/>
+      <c r="AP30" s="146"/>
+      <c r="AQ30" s="146"/>
+      <c r="AR30" s="146"/>
+      <c r="AS30" s="146"/>
+      <c r="AT30" s="146"/>
+      <c r="AU30" s="146"/>
+      <c r="AV30" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="AW30" s="144"/>
-      <c r="AX30" s="144"/>
-      <c r="AY30" s="144"/>
-      <c r="AZ30" s="144"/>
-      <c r="BA30" s="144"/>
-      <c r="BB30" s="144"/>
-      <c r="BC30" s="144"/>
-      <c r="BD30" s="144"/>
-      <c r="BE30" s="144"/>
-      <c r="BF30" s="144"/>
-      <c r="BG30" s="144"/>
-      <c r="BH30" s="144"/>
+      <c r="AW30" s="146"/>
+      <c r="AX30" s="146"/>
+      <c r="AY30" s="146"/>
+      <c r="AZ30" s="146"/>
+      <c r="BA30" s="146"/>
+      <c r="BB30" s="146"/>
+      <c r="BC30" s="146"/>
+      <c r="BD30" s="146"/>
+      <c r="BE30" s="146"/>
+      <c r="BF30" s="146"/>
+      <c r="BG30" s="146"/>
+      <c r="BH30" s="146"/>
     </row>
     <row r="31" spans="1:93" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="163"/>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="163"/>
-      <c r="K31" s="163"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="163"/>
-      <c r="N31" s="163"/>
-      <c r="O31" s="163"/>
-      <c r="P31" s="163"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="163"/>
-      <c r="W31" s="163"/>
-      <c r="X31" s="163"/>
-      <c r="Y31" s="163"/>
-      <c r="Z31" s="163"/>
-      <c r="AA31" s="163"/>
-      <c r="AB31" s="163"/>
-      <c r="AC31" s="163"/>
-      <c r="AD31" s="163"/>
-      <c r="AE31" s="163"/>
-      <c r="AF31" s="163"/>
-      <c r="AG31" s="163"/>
-      <c r="AH31" s="163"/>
-      <c r="AI31" s="133"/>
-      <c r="AJ31" s="133"/>
-      <c r="AK31" s="133"/>
-      <c r="AL31" s="133"/>
-      <c r="AM31" s="133"/>
-      <c r="AN31" s="133"/>
-      <c r="AO31" s="133"/>
-      <c r="AP31" s="133"/>
-      <c r="AQ31" s="133"/>
-      <c r="AR31" s="133"/>
-      <c r="AS31" s="133"/>
-      <c r="AT31" s="133"/>
-      <c r="AU31" s="133"/>
-      <c r="AV31" s="173"/>
-      <c r="AW31" s="173"/>
-      <c r="AX31" s="173"/>
-      <c r="AY31" s="173"/>
-      <c r="AZ31" s="173"/>
-      <c r="BA31" s="173"/>
-      <c r="BB31" s="173"/>
-      <c r="BC31" s="173"/>
-      <c r="BD31" s="173"/>
-      <c r="BE31" s="173"/>
-      <c r="BF31" s="173"/>
-      <c r="BG31" s="173"/>
-      <c r="BH31" s="173"/>
+      <c r="A31" s="147"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="147"/>
+      <c r="S31" s="147"/>
+      <c r="T31" s="147"/>
+      <c r="U31" s="147"/>
+      <c r="V31" s="147"/>
+      <c r="W31" s="147"/>
+      <c r="X31" s="147"/>
+      <c r="Y31" s="147"/>
+      <c r="Z31" s="147"/>
+      <c r="AA31" s="147"/>
+      <c r="AB31" s="147"/>
+      <c r="AC31" s="147"/>
+      <c r="AD31" s="147"/>
+      <c r="AE31" s="147"/>
+      <c r="AF31" s="147"/>
+      <c r="AG31" s="147"/>
+      <c r="AH31" s="147"/>
+      <c r="AI31" s="136"/>
+      <c r="AJ31" s="136"/>
+      <c r="AK31" s="136"/>
+      <c r="AL31" s="136"/>
+      <c r="AM31" s="136"/>
+      <c r="AN31" s="136"/>
+      <c r="AO31" s="136"/>
+      <c r="AP31" s="136"/>
+      <c r="AQ31" s="136"/>
+      <c r="AR31" s="136"/>
+      <c r="AS31" s="136"/>
+      <c r="AT31" s="136"/>
+      <c r="AU31" s="136"/>
+      <c r="AV31" s="149"/>
+      <c r="AW31" s="149"/>
+      <c r="AX31" s="149"/>
+      <c r="AY31" s="149"/>
+      <c r="AZ31" s="149"/>
+      <c r="BA31" s="149"/>
+      <c r="BB31" s="149"/>
+      <c r="BC31" s="149"/>
+      <c r="BD31" s="149"/>
+      <c r="BE31" s="149"/>
+      <c r="BF31" s="149"/>
+      <c r="BG31" s="149"/>
+      <c r="BH31" s="149"/>
     </row>
     <row r="32" spans="1:93" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="163"/>
-      <c r="B32" s="163"/>
-      <c r="C32" s="163"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="163"/>
-      <c r="N32" s="163"/>
-      <c r="O32" s="163"/>
-      <c r="P32" s="163"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="163"/>
-      <c r="S32" s="163"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="163"/>
-      <c r="V32" s="163"/>
-      <c r="W32" s="163"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="163"/>
-      <c r="Z32" s="163"/>
-      <c r="AA32" s="163"/>
-      <c r="AB32" s="163"/>
-      <c r="AC32" s="163"/>
-      <c r="AD32" s="163"/>
-      <c r="AE32" s="163"/>
-      <c r="AF32" s="163"/>
-      <c r="AG32" s="163"/>
-      <c r="AH32" s="163"/>
-      <c r="AI32" s="133"/>
-      <c r="AJ32" s="133"/>
-      <c r="AK32" s="133"/>
-      <c r="AL32" s="133"/>
-      <c r="AM32" s="133"/>
-      <c r="AN32" s="133"/>
-      <c r="AO32" s="133"/>
-      <c r="AP32" s="133"/>
-      <c r="AQ32" s="133"/>
-      <c r="AR32" s="133"/>
-      <c r="AS32" s="133"/>
-      <c r="AT32" s="133"/>
-      <c r="AU32" s="133"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
+      <c r="Q32" s="147"/>
+      <c r="R32" s="147"/>
+      <c r="S32" s="147"/>
+      <c r="T32" s="147"/>
+      <c r="U32" s="147"/>
+      <c r="V32" s="147"/>
+      <c r="W32" s="147"/>
+      <c r="X32" s="147"/>
+      <c r="Y32" s="147"/>
+      <c r="Z32" s="147"/>
+      <c r="AA32" s="147"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="147"/>
+      <c r="AF32" s="147"/>
+      <c r="AG32" s="147"/>
+      <c r="AH32" s="147"/>
+      <c r="AI32" s="136"/>
+      <c r="AJ32" s="136"/>
+      <c r="AK32" s="136"/>
+      <c r="AL32" s="136"/>
+      <c r="AM32" s="136"/>
+      <c r="AN32" s="136"/>
+      <c r="AO32" s="136"/>
+      <c r="AP32" s="136"/>
+      <c r="AQ32" s="136"/>
+      <c r="AR32" s="136"/>
+      <c r="AS32" s="136"/>
+      <c r="AT32" s="136"/>
+      <c r="AU32" s="136"/>
       <c r="AV32" s="145"/>
       <c r="AW32" s="145"/>
       <c r="AX32" s="145"/>
@@ -15179,19 +15215,19 @@
       <c r="AF33" s="145"/>
       <c r="AG33" s="145"/>
       <c r="AH33" s="145"/>
-      <c r="AI33" s="133"/>
-      <c r="AJ33" s="133"/>
-      <c r="AK33" s="133"/>
-      <c r="AL33" s="133"/>
-      <c r="AM33" s="133"/>
-      <c r="AN33" s="133"/>
-      <c r="AO33" s="133"/>
-      <c r="AP33" s="133"/>
-      <c r="AQ33" s="133"/>
-      <c r="AR33" s="133"/>
-      <c r="AS33" s="133"/>
-      <c r="AT33" s="133"/>
-      <c r="AU33" s="133"/>
+      <c r="AI33" s="136"/>
+      <c r="AJ33" s="136"/>
+      <c r="AK33" s="136"/>
+      <c r="AL33" s="136"/>
+      <c r="AM33" s="136"/>
+      <c r="AN33" s="136"/>
+      <c r="AO33" s="136"/>
+      <c r="AP33" s="136"/>
+      <c r="AQ33" s="136"/>
+      <c r="AR33" s="136"/>
+      <c r="AS33" s="136"/>
+      <c r="AT33" s="136"/>
+      <c r="AU33" s="136"/>
       <c r="AV33" s="145"/>
       <c r="AW33" s="145"/>
       <c r="AX33" s="145"/>
@@ -15241,19 +15277,19 @@
       <c r="AF34" s="145"/>
       <c r="AG34" s="145"/>
       <c r="AH34" s="145"/>
-      <c r="AI34" s="133"/>
-      <c r="AJ34" s="133"/>
-      <c r="AK34" s="133"/>
-      <c r="AL34" s="133"/>
-      <c r="AM34" s="133"/>
-      <c r="AN34" s="133"/>
-      <c r="AO34" s="133"/>
-      <c r="AP34" s="133"/>
-      <c r="AQ34" s="133"/>
-      <c r="AR34" s="133"/>
-      <c r="AS34" s="133"/>
-      <c r="AT34" s="133"/>
-      <c r="AU34" s="133"/>
+      <c r="AI34" s="136"/>
+      <c r="AJ34" s="136"/>
+      <c r="AK34" s="136"/>
+      <c r="AL34" s="136"/>
+      <c r="AM34" s="136"/>
+      <c r="AN34" s="136"/>
+      <c r="AO34" s="136"/>
+      <c r="AP34" s="136"/>
+      <c r="AQ34" s="136"/>
+      <c r="AR34" s="136"/>
+      <c r="AS34" s="136"/>
+      <c r="AT34" s="136"/>
+      <c r="AU34" s="136"/>
       <c r="AV34" s="145"/>
       <c r="AW34" s="145"/>
       <c r="AX34" s="145"/>
@@ -15303,19 +15339,19 @@
       <c r="AF35" s="145"/>
       <c r="AG35" s="145"/>
       <c r="AH35" s="145"/>
-      <c r="AI35" s="133"/>
-      <c r="AJ35" s="133"/>
-      <c r="AK35" s="133"/>
-      <c r="AL35" s="133"/>
-      <c r="AM35" s="133"/>
-      <c r="AN35" s="133"/>
-      <c r="AO35" s="133"/>
-      <c r="AP35" s="133"/>
-      <c r="AQ35" s="133"/>
-      <c r="AR35" s="133"/>
-      <c r="AS35" s="133"/>
-      <c r="AT35" s="133"/>
-      <c r="AU35" s="133"/>
+      <c r="AI35" s="136"/>
+      <c r="AJ35" s="136"/>
+      <c r="AK35" s="136"/>
+      <c r="AL35" s="136"/>
+      <c r="AM35" s="136"/>
+      <c r="AN35" s="136"/>
+      <c r="AO35" s="136"/>
+      <c r="AP35" s="136"/>
+      <c r="AQ35" s="136"/>
+      <c r="AR35" s="136"/>
+      <c r="AS35" s="136"/>
+      <c r="AT35" s="136"/>
+      <c r="AU35" s="136"/>
       <c r="AV35" s="145"/>
       <c r="AW35" s="145"/>
       <c r="AX35" s="145"/>
@@ -15365,19 +15401,19 @@
       <c r="AF36" s="145"/>
       <c r="AG36" s="145"/>
       <c r="AH36" s="145"/>
-      <c r="AI36" s="133"/>
-      <c r="AJ36" s="133"/>
-      <c r="AK36" s="133"/>
-      <c r="AL36" s="133"/>
-      <c r="AM36" s="133"/>
-      <c r="AN36" s="133"/>
-      <c r="AO36" s="133"/>
-      <c r="AP36" s="133"/>
-      <c r="AQ36" s="133"/>
-      <c r="AR36" s="133"/>
-      <c r="AS36" s="133"/>
-      <c r="AT36" s="133"/>
-      <c r="AU36" s="133"/>
+      <c r="AI36" s="136"/>
+      <c r="AJ36" s="136"/>
+      <c r="AK36" s="136"/>
+      <c r="AL36" s="136"/>
+      <c r="AM36" s="136"/>
+      <c r="AN36" s="136"/>
+      <c r="AO36" s="136"/>
+      <c r="AP36" s="136"/>
+      <c r="AQ36" s="136"/>
+      <c r="AR36" s="136"/>
+      <c r="AS36" s="136"/>
+      <c r="AT36" s="136"/>
+      <c r="AU36" s="136"/>
       <c r="AV36" s="145"/>
       <c r="AW36" s="145"/>
       <c r="AX36" s="145"/>
@@ -15427,19 +15463,19 @@
       <c r="AF37" s="145"/>
       <c r="AG37" s="145"/>
       <c r="AH37" s="145"/>
-      <c r="AI37" s="133"/>
-      <c r="AJ37" s="133"/>
-      <c r="AK37" s="133"/>
-      <c r="AL37" s="133"/>
-      <c r="AM37" s="133"/>
-      <c r="AN37" s="133"/>
-      <c r="AO37" s="133"/>
-      <c r="AP37" s="133"/>
-      <c r="AQ37" s="133"/>
-      <c r="AR37" s="133"/>
-      <c r="AS37" s="133"/>
-      <c r="AT37" s="133"/>
-      <c r="AU37" s="133"/>
+      <c r="AI37" s="136"/>
+      <c r="AJ37" s="136"/>
+      <c r="AK37" s="136"/>
+      <c r="AL37" s="136"/>
+      <c r="AM37" s="136"/>
+      <c r="AN37" s="136"/>
+      <c r="AO37" s="136"/>
+      <c r="AP37" s="136"/>
+      <c r="AQ37" s="136"/>
+      <c r="AR37" s="136"/>
+      <c r="AS37" s="136"/>
+      <c r="AT37" s="136"/>
+      <c r="AU37" s="136"/>
       <c r="AV37" s="145"/>
       <c r="AW37" s="145"/>
       <c r="AX37" s="145"/>
@@ -15489,19 +15525,19 @@
       <c r="AF38" s="145"/>
       <c r="AG38" s="145"/>
       <c r="AH38" s="145"/>
-      <c r="AI38" s="133"/>
-      <c r="AJ38" s="133"/>
-      <c r="AK38" s="133"/>
-      <c r="AL38" s="133"/>
-      <c r="AM38" s="133"/>
-      <c r="AN38" s="133"/>
-      <c r="AO38" s="133"/>
-      <c r="AP38" s="133"/>
-      <c r="AQ38" s="133"/>
-      <c r="AR38" s="133"/>
-      <c r="AS38" s="133"/>
-      <c r="AT38" s="133"/>
-      <c r="AU38" s="133"/>
+      <c r="AI38" s="136"/>
+      <c r="AJ38" s="136"/>
+      <c r="AK38" s="136"/>
+      <c r="AL38" s="136"/>
+      <c r="AM38" s="136"/>
+      <c r="AN38" s="136"/>
+      <c r="AO38" s="136"/>
+      <c r="AP38" s="136"/>
+      <c r="AQ38" s="136"/>
+      <c r="AR38" s="136"/>
+      <c r="AS38" s="136"/>
+      <c r="AT38" s="136"/>
+      <c r="AU38" s="136"/>
       <c r="AV38" s="145"/>
       <c r="AW38" s="145"/>
       <c r="AX38" s="145"/>
@@ -15551,19 +15587,19 @@
       <c r="AF39" s="145"/>
       <c r="AG39" s="145"/>
       <c r="AH39" s="145"/>
-      <c r="AI39" s="133"/>
-      <c r="AJ39" s="133"/>
-      <c r="AK39" s="133"/>
-      <c r="AL39" s="133"/>
-      <c r="AM39" s="133"/>
-      <c r="AN39" s="133"/>
-      <c r="AO39" s="133"/>
-      <c r="AP39" s="133"/>
-      <c r="AQ39" s="133"/>
-      <c r="AR39" s="133"/>
-      <c r="AS39" s="133"/>
-      <c r="AT39" s="133"/>
-      <c r="AU39" s="133"/>
+      <c r="AI39" s="136"/>
+      <c r="AJ39" s="136"/>
+      <c r="AK39" s="136"/>
+      <c r="AL39" s="136"/>
+      <c r="AM39" s="136"/>
+      <c r="AN39" s="136"/>
+      <c r="AO39" s="136"/>
+      <c r="AP39" s="136"/>
+      <c r="AQ39" s="136"/>
+      <c r="AR39" s="136"/>
+      <c r="AS39" s="136"/>
+      <c r="AT39" s="136"/>
+      <c r="AU39" s="136"/>
       <c r="AV39" s="145"/>
       <c r="AW39" s="145"/>
       <c r="AX39" s="145"/>
@@ -15642,68 +15678,197 @@
     </row>
   </sheetData>
   <mergeCells count="277">
-    <mergeCell ref="AS27:BH27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:X27"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AC27:AJ27"/>
-    <mergeCell ref="AK27:AR27"/>
-    <mergeCell ref="AS25:BH25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="T26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="AC26:AJ26"/>
-    <mergeCell ref="AK26:AR26"/>
-    <mergeCell ref="AS26:BH26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="M25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="T25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AJ25"/>
-    <mergeCell ref="AK25:AR25"/>
-    <mergeCell ref="AK23:AR23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="M24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AJ24"/>
-    <mergeCell ref="AK24:AR24"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="M18:P18"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AV37:BH37"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="L34:AH34"/>
-    <mergeCell ref="AI34:AU34"/>
-    <mergeCell ref="AV34:BH34"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="L35:AH35"/>
-    <mergeCell ref="AI35:AU35"/>
-    <mergeCell ref="AV35:BH35"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="C14:L14"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:L16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="T15:X15"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AC15:AJ15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="AC8:AJ8"/>
+    <mergeCell ref="AC9:AJ9"/>
+    <mergeCell ref="AC10:AJ10"/>
+    <mergeCell ref="AC11:AJ11"/>
+    <mergeCell ref="AC12:AJ12"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="AS4:BH6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:L6"/>
+    <mergeCell ref="M4:P6"/>
+    <mergeCell ref="Q4:R6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="AC7:AJ7"/>
+    <mergeCell ref="AC4:AR4"/>
+    <mergeCell ref="AK5:AR6"/>
+    <mergeCell ref="AC5:AJ6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="BB1:BH1"/>
+    <mergeCell ref="BB2:BH2"/>
+    <mergeCell ref="AU1:BA1"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AN1:AT1"/>
+    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="S4:AB4"/>
+    <mergeCell ref="T5:X6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="T14:X14"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="T12:X12"/>
+    <mergeCell ref="T13:X13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="T11:X11"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="T10:X10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="T7:X7"/>
+    <mergeCell ref="T8:X8"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="AK15:AR15"/>
+    <mergeCell ref="AC16:AJ16"/>
+    <mergeCell ref="AK16:AR16"/>
+    <mergeCell ref="AS16:BH16"/>
+    <mergeCell ref="AS15:BH15"/>
+    <mergeCell ref="AK7:AR7"/>
+    <mergeCell ref="AK8:AR8"/>
+    <mergeCell ref="AK9:AR9"/>
+    <mergeCell ref="AK10:AR10"/>
+    <mergeCell ref="AK11:AR11"/>
+    <mergeCell ref="AK12:AR12"/>
+    <mergeCell ref="AK13:AR13"/>
+    <mergeCell ref="AC14:AJ14"/>
+    <mergeCell ref="AK14:AR14"/>
+    <mergeCell ref="AS7:BH7"/>
+    <mergeCell ref="AS8:BH8"/>
+    <mergeCell ref="AS9:BH9"/>
+    <mergeCell ref="AS10:BH10"/>
+    <mergeCell ref="AS11:BH11"/>
+    <mergeCell ref="AS12:BH12"/>
+    <mergeCell ref="AS13:BH13"/>
+    <mergeCell ref="AS14:BH14"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="AS22:BH22"/>
+    <mergeCell ref="AS23:BH23"/>
+    <mergeCell ref="AS24:BH24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="AC21:AJ21"/>
+    <mergeCell ref="AK21:AR21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="AS21:BH21"/>
+    <mergeCell ref="AC22:AJ22"/>
+    <mergeCell ref="AK22:AR22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AJ23"/>
+    <mergeCell ref="AI32:AU32"/>
+    <mergeCell ref="AV32:BH32"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="L33:AH33"/>
+    <mergeCell ref="AI33:AU33"/>
+    <mergeCell ref="AV33:BH33"/>
+    <mergeCell ref="AV30:BH30"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="AI30:AU30"/>
+    <mergeCell ref="L30:AH30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="L31:AH31"/>
+    <mergeCell ref="AI31:AU31"/>
+    <mergeCell ref="AV31:BH31"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="L32:AH32"/>
+    <mergeCell ref="AS17:BH17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AC18:AJ18"/>
+    <mergeCell ref="AK18:AR18"/>
+    <mergeCell ref="AS18:BH18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AC17:AJ17"/>
     <mergeCell ref="AK17:AR17"/>
@@ -15728,197 +15893,68 @@
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="L37:AH37"/>
     <mergeCell ref="AI37:AU37"/>
-    <mergeCell ref="AS17:BH17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AC18:AJ18"/>
-    <mergeCell ref="AK18:AR18"/>
-    <mergeCell ref="AS18:BH18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:L17"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AI32:AU32"/>
-    <mergeCell ref="AV32:BH32"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="L33:AH33"/>
-    <mergeCell ref="AI33:AU33"/>
-    <mergeCell ref="AV33:BH33"/>
-    <mergeCell ref="AV30:BH30"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="AI30:AU30"/>
-    <mergeCell ref="L30:AH30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="L31:AH31"/>
-    <mergeCell ref="AI31:AU31"/>
-    <mergeCell ref="AV31:BH31"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="L32:AH32"/>
-    <mergeCell ref="AS22:BH22"/>
-    <mergeCell ref="AS23:BH23"/>
-    <mergeCell ref="AS24:BH24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="AC21:AJ21"/>
-    <mergeCell ref="AK21:AR21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="AS21:BH21"/>
-    <mergeCell ref="AC22:AJ22"/>
-    <mergeCell ref="AK22:AR22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AJ23"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="AK15:AR15"/>
-    <mergeCell ref="AC16:AJ16"/>
-    <mergeCell ref="AK16:AR16"/>
-    <mergeCell ref="AS16:BH16"/>
-    <mergeCell ref="AS15:BH15"/>
-    <mergeCell ref="AK7:AR7"/>
-    <mergeCell ref="AK8:AR8"/>
-    <mergeCell ref="AK9:AR9"/>
-    <mergeCell ref="AK10:AR10"/>
-    <mergeCell ref="AK11:AR11"/>
-    <mergeCell ref="AK12:AR12"/>
-    <mergeCell ref="AK13:AR13"/>
-    <mergeCell ref="AC14:AJ14"/>
-    <mergeCell ref="AK14:AR14"/>
-    <mergeCell ref="AS7:BH7"/>
-    <mergeCell ref="AS8:BH8"/>
-    <mergeCell ref="AS9:BH9"/>
-    <mergeCell ref="AS10:BH10"/>
-    <mergeCell ref="AS11:BH11"/>
-    <mergeCell ref="AS12:BH12"/>
-    <mergeCell ref="AS13:BH13"/>
-    <mergeCell ref="AS14:BH14"/>
-    <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="S4:AB4"/>
-    <mergeCell ref="T5:X6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="T14:X14"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="T12:X12"/>
-    <mergeCell ref="T13:X13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="T11:X11"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="T10:X10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="T7:X7"/>
-    <mergeCell ref="T8:X8"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="BB1:BH1"/>
-    <mergeCell ref="BB2:BH2"/>
-    <mergeCell ref="AU1:BA1"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AN1:AT1"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="AS4:BH6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:L6"/>
-    <mergeCell ref="M4:P6"/>
-    <mergeCell ref="Q4:R6"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="AC7:AJ7"/>
-    <mergeCell ref="AC4:AR4"/>
-    <mergeCell ref="AK5:AR6"/>
-    <mergeCell ref="AC5:AJ6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="AC8:AJ8"/>
-    <mergeCell ref="AC9:AJ9"/>
-    <mergeCell ref="AC10:AJ10"/>
-    <mergeCell ref="AC11:AJ11"/>
-    <mergeCell ref="AC12:AJ12"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AC15:AJ15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="M12:P12"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="M13:P13"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:L16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="AV37:BH37"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="L34:AH34"/>
+    <mergeCell ref="AI34:AU34"/>
+    <mergeCell ref="AV34:BH34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="L35:AH35"/>
+    <mergeCell ref="AI35:AU35"/>
+    <mergeCell ref="AV35:BH35"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AK23:AR23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AJ24"/>
+    <mergeCell ref="AK24:AR24"/>
+    <mergeCell ref="AS25:BH25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="AC26:AJ26"/>
+    <mergeCell ref="AK26:AR26"/>
+    <mergeCell ref="AS26:BH26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AJ25"/>
+    <mergeCell ref="AK25:AR25"/>
+    <mergeCell ref="AS27:BH27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:X27"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AC27:AJ27"/>
+    <mergeCell ref="AK27:AR27"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15936,8 +15972,8 @@
   </sheetPr>
   <dimension ref="A1:BR143"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A97" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF102" sqref="AF102"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -15948,133 +15984,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="186" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="186"/>
-      <c r="Q1" s="186"/>
-      <c r="R1" s="186"/>
-      <c r="S1" s="187" t="str">
+      <c r="M1" s="177"/>
+      <c r="N1" s="177"/>
+      <c r="O1" s="177"/>
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="177"/>
+      <c r="S1" s="178" t="str">
         <f>'0.表紙'!O25</f>
         <v>顧客情報一覧・表示画面</v>
       </c>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="187"/>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="187"/>
-      <c r="AD1" s="187"/>
-      <c r="AE1" s="188" t="s">
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="178"/>
+      <c r="AA1" s="178"/>
+      <c r="AB1" s="178"/>
+      <c r="AC1" s="178"/>
+      <c r="AD1" s="178"/>
+      <c r="AE1" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="188"/>
-      <c r="AG1" s="188"/>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="190" t="s">
+      <c r="AF1" s="179"/>
+      <c r="AG1" s="179"/>
+      <c r="AH1" s="180"/>
+      <c r="AI1" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="191"/>
-      <c r="AK1" s="191"/>
-      <c r="AL1" s="191"/>
-      <c r="AM1" s="191"/>
-      <c r="AN1" s="192"/>
-      <c r="AO1" s="194" t="s">
+      <c r="AJ1" s="175"/>
+      <c r="AK1" s="175"/>
+      <c r="AL1" s="175"/>
+      <c r="AM1" s="175"/>
+      <c r="AN1" s="176"/>
+      <c r="AO1" s="182" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="195"/>
-      <c r="AQ1" s="195"/>
-      <c r="AR1" s="196"/>
-      <c r="AS1" s="190" t="s">
+      <c r="AP1" s="183"/>
+      <c r="AQ1" s="183"/>
+      <c r="AR1" s="184"/>
+      <c r="AS1" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="AT1" s="191"/>
-      <c r="AU1" s="191"/>
-      <c r="AV1" s="191"/>
-      <c r="AW1" s="191"/>
-      <c r="AX1" s="192"/>
+      <c r="AT1" s="175"/>
+      <c r="AU1" s="175"/>
+      <c r="AV1" s="175"/>
+      <c r="AW1" s="175"/>
+      <c r="AX1" s="176"/>
     </row>
     <row r="2" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="184"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="186" t="s">
+      <c r="A2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="188" t="s">
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="178"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="188"/>
-      <c r="AG2" s="188"/>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="193">
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="179"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="181">
         <v>44539</v>
       </c>
-      <c r="AJ2" s="191"/>
-      <c r="AK2" s="191"/>
-      <c r="AL2" s="191"/>
-      <c r="AM2" s="191"/>
-      <c r="AN2" s="192"/>
-      <c r="AO2" s="194" t="s">
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="176"/>
+      <c r="AO2" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="195"/>
-      <c r="AQ2" s="195"/>
-      <c r="AR2" s="196"/>
-      <c r="AS2" s="193">
+      <c r="AP2" s="183"/>
+      <c r="AQ2" s="183"/>
+      <c r="AR2" s="184"/>
+      <c r="AS2" s="181">
         <v>44540</v>
       </c>
-      <c r="AT2" s="191"/>
-      <c r="AU2" s="191"/>
-      <c r="AV2" s="191"/>
-      <c r="AW2" s="191"/>
-      <c r="AX2" s="192"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
+      <c r="AX2" s="176"/>
     </row>
     <row r="3" spans="1:50" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20"/>
@@ -16184,22 +16220,22 @@
     </row>
     <row r="5" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="23"/>
-      <c r="B5" s="181" t="s">
+      <c r="B5" s="196" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="150" t="s">
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
+      <c r="J5" s="170"/>
+      <c r="K5" s="170"/>
+      <c r="L5" s="170"/>
+      <c r="M5" s="170"/>
       <c r="N5" s="18" t="s">
         <v>51</v>
       </c>
@@ -16248,22 +16284,22 @@
     </row>
     <row r="6" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="23"/>
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="195" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="172" t="s">
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
         <v>44</v>
@@ -16306,18 +16342,18 @@
     </row>
     <row r="7" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="23"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="180"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="195"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -16358,18 +16394,18 @@
     </row>
     <row r="8" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="23"/>
-      <c r="B8" s="180"/>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
-      <c r="G8" s="180"/>
-      <c r="H8" s="180"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
-      <c r="M8" s="172"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="148"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
@@ -16410,18 +16446,18 @@
     </row>
     <row r="9" spans="1:50" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="23"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="179"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="176"/>
+      <c r="B9" s="192"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="191"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
@@ -16569,7 +16605,7 @@
     <row r="12" spans="1:50" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="29"/>
       <c r="B12" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
@@ -16623,7 +16659,7 @@
     <row r="13" spans="1:50" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="29"/>
       <c r="B13" s="29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
@@ -16783,7 +16819,7 @@
     <row r="16" spans="1:50" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -16943,7 +16979,7 @@
     <row r="19" spans="1:50" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="32"/>
       <c r="B19" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
@@ -17052,7 +17088,7 @@
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
@@ -17106,7 +17142,7 @@
       <c r="A22" s="32"/>
       <c r="B22" s="33"/>
       <c r="C22" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -17211,7 +17247,7 @@
     <row r="24" spans="1:50" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="32"/>
       <c r="B24" s="33" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -17266,7 +17302,7 @@
       <c r="A25" s="32"/>
       <c r="B25" s="33"/>
       <c r="C25" s="32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -17371,7 +17407,7 @@
     <row r="27" spans="1:50" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="32"/>
       <c r="B27" s="33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C27" s="32"/>
       <c r="D27" s="32"/>
@@ -17426,7 +17462,7 @@
       <c r="A28" s="32"/>
       <c r="B28" s="33"/>
       <c r="C28" s="32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
@@ -17531,7 +17567,7 @@
     <row r="30" spans="1:50" s="30" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="32"/>
       <c r="B30" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
@@ -17586,7 +17622,7 @@
       <c r="A31" s="32"/>
       <c r="B31" s="33"/>
       <c r="C31" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
@@ -17693,7 +17729,7 @@
       <c r="B33" s="33"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="32"/>
@@ -17748,7 +17784,7 @@
       <c r="C34" s="32"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -17854,7 +17890,7 @@
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
@@ -17908,7 +17944,7 @@
       <c r="C37" s="32"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
@@ -18014,7 +18050,7 @@
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="33" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
@@ -18068,10 +18104,10 @@
       <c r="C40" s="32"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
@@ -18125,7 +18161,7 @@
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
       <c r="F41" s="32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G41" s="32"/>
       <c r="H41" s="32"/>
@@ -18181,7 +18217,7 @@
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
       <c r="H42" s="32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -18284,7 +18320,7 @@
       <c r="C44" s="32"/>
       <c r="D44" s="32"/>
       <c r="E44" s="33" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -18339,7 +18375,7 @@
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
@@ -18443,7 +18479,7 @@
       <c r="B47" s="33"/>
       <c r="C47" s="32"/>
       <c r="D47" s="33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32"/>
@@ -18498,7 +18534,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
@@ -18552,7 +18588,7 @@
       <c r="C49" s="32"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
@@ -18606,7 +18642,7 @@
       <c r="C50" s="32"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
@@ -18660,7 +18696,7 @@
       <c r="C51" s="32"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="32"/>
@@ -18766,7 +18802,7 @@
       <c r="C53" s="32"/>
       <c r="D53" s="32"/>
       <c r="E53" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -18774,7 +18810,7 @@
       <c r="I53" s="42"/>
       <c r="J53" s="61"/>
       <c r="K53" s="44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L53" s="44"/>
       <c r="M53" s="44"/>
@@ -18828,7 +18864,7 @@
       <c r="I54" s="45"/>
       <c r="J54" s="83"/>
       <c r="K54" s="47" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L54" s="47"/>
       <c r="M54" s="47"/>
@@ -18876,7 +18912,7 @@
       <c r="C55" s="32"/>
       <c r="D55" s="32"/>
       <c r="E55" s="59" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F55" s="50"/>
       <c r="G55" s="50"/>
@@ -18932,7 +18968,7 @@
       <c r="C56" s="32"/>
       <c r="D56" s="32"/>
       <c r="E56" s="41" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -18940,7 +18976,7 @@
       <c r="I56" s="42"/>
       <c r="J56" s="42"/>
       <c r="K56" s="43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L56" s="44"/>
       <c r="M56" s="44"/>
@@ -18994,7 +19030,7 @@
       <c r="I57" s="50"/>
       <c r="J57" s="50"/>
       <c r="K57" s="48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L57" s="49"/>
       <c r="M57" s="49"/>
@@ -19066,7 +19102,7 @@
       <c r="I58" s="50"/>
       <c r="J58" s="50"/>
       <c r="K58" s="48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L58" s="49"/>
       <c r="M58" s="49"/>
@@ -19138,7 +19174,7 @@
       <c r="I59" s="50"/>
       <c r="J59" s="50"/>
       <c r="K59" s="48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L59" s="49"/>
       <c r="M59" s="49"/>
@@ -19210,7 +19246,7 @@
       <c r="I60" s="50"/>
       <c r="J60" s="50"/>
       <c r="K60" s="48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L60" s="49"/>
       <c r="M60" s="49"/>
@@ -19282,7 +19318,7 @@
       <c r="I61" s="50"/>
       <c r="J61" s="50"/>
       <c r="K61" s="48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L61" s="49"/>
       <c r="M61" s="49"/>
@@ -19354,7 +19390,7 @@
       <c r="I62" s="50"/>
       <c r="J62" s="50"/>
       <c r="K62" s="48" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L62" s="49"/>
       <c r="M62" s="49"/>
@@ -19426,7 +19462,7 @@
       <c r="I63" s="50"/>
       <c r="J63" s="50"/>
       <c r="K63" s="48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L63" s="49"/>
       <c r="M63" s="49"/>
@@ -19498,7 +19534,7 @@
       <c r="I64" s="50"/>
       <c r="J64" s="50"/>
       <c r="K64" s="48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L64" s="49"/>
       <c r="M64" s="49"/>
@@ -19570,7 +19606,7 @@
       <c r="I65" s="50"/>
       <c r="J65" s="50"/>
       <c r="K65" s="48" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L65" s="49"/>
       <c r="M65" s="49"/>
@@ -19642,7 +19678,7 @@
       <c r="I66" s="45"/>
       <c r="J66" s="45"/>
       <c r="K66" s="46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L66" s="47"/>
       <c r="M66" s="47"/>
@@ -19779,7 +19815,7 @@
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
       <c r="F68" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G68" s="32"/>
       <c r="H68" s="32"/>
@@ -19885,7 +19921,7 @@
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
       <c r="F70" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G70" s="32"/>
       <c r="H70" s="32"/>
@@ -20097,7 +20133,7 @@
       <c r="B74" s="33"/>
       <c r="C74" s="32"/>
       <c r="D74" s="33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="32"/>
@@ -20152,7 +20188,7 @@
       <c r="C75" s="32"/>
       <c r="D75" s="33"/>
       <c r="E75" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F75" s="32"/>
       <c r="G75" s="32"/>
@@ -20206,7 +20242,7 @@
       <c r="C76" s="32"/>
       <c r="D76" s="32"/>
       <c r="E76" s="32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
@@ -20260,7 +20296,7 @@
       <c r="C77" s="32"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F77" s="32"/>
       <c r="G77" s="32"/>
@@ -20314,7 +20350,7 @@
       <c r="C78" s="32"/>
       <c r="D78" s="32"/>
       <c r="E78" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F78" s="32"/>
       <c r="G78" s="32"/>
@@ -20421,7 +20457,7 @@
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
       <c r="F80" s="33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G80" s="32"/>
       <c r="H80" s="32"/>
@@ -20476,7 +20512,7 @@
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
       <c r="G81" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="32"/>
@@ -20581,7 +20617,7 @@
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
       <c r="F83" s="33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G83" s="32"/>
       <c r="H83" s="32"/>
@@ -20636,7 +20672,7 @@
       <c r="E84" s="32"/>
       <c r="F84" s="32"/>
       <c r="G84" s="32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H84" s="32"/>
       <c r="I84" s="32"/>
@@ -20741,7 +20777,7 @@
       <c r="D86" s="32"/>
       <c r="E86" s="32"/>
       <c r="F86" s="33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G86" s="32"/>
       <c r="H86" s="32"/>
@@ -20796,7 +20832,7 @@
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
       <c r="G87" s="32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H87" s="32"/>
       <c r="I87" s="32"/>
@@ -20850,7 +20886,7 @@
       <c r="E88" s="32"/>
       <c r="F88" s="32"/>
       <c r="G88" s="32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H88" s="32"/>
       <c r="I88" s="32"/>
@@ -20904,7 +20940,7 @@
       <c r="E89" s="32"/>
       <c r="F89" s="32"/>
       <c r="G89" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H89" s="32"/>
       <c r="I89" s="32"/>
@@ -21009,7 +21045,7 @@
       <c r="D91" s="32"/>
       <c r="E91" s="32"/>
       <c r="F91" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G91" s="32"/>
       <c r="H91" s="32"/>
@@ -21064,7 +21100,7 @@
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
       <c r="G92" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H92" s="32"/>
       <c r="I92" s="32"/>
@@ -21171,7 +21207,7 @@
       <c r="F94" s="32"/>
       <c r="G94" s="32"/>
       <c r="H94" s="33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I94" s="32"/>
       <c r="J94" s="32"/>
@@ -21225,10 +21261,10 @@
       <c r="F95" s="32"/>
       <c r="G95" s="32"/>
       <c r="H95" s="32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I95" s="32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J95" s="32"/>
       <c r="K95" s="32"/>
@@ -21282,7 +21318,7 @@
       <c r="G96" s="32"/>
       <c r="H96" s="32"/>
       <c r="I96" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J96" s="32"/>
       <c r="K96" s="32"/>
@@ -21387,7 +21423,7 @@
       <c r="F98" s="32"/>
       <c r="G98" s="32"/>
       <c r="H98" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I98" s="32"/>
       <c r="J98" s="32"/>
@@ -21442,7 +21478,7 @@
       <c r="G99" s="32"/>
       <c r="H99" s="32"/>
       <c r="I99" s="32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J99" s="32"/>
       <c r="K99" s="32"/>
@@ -21545,7 +21581,7 @@
       <c r="D101" s="32"/>
       <c r="E101" s="32"/>
       <c r="F101" s="33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G101" s="32"/>
       <c r="H101" s="32"/>
@@ -21600,7 +21636,7 @@
       <c r="E102" s="32"/>
       <c r="F102" s="32"/>
       <c r="G102" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H102" s="32"/>
       <c r="I102" s="32"/>
@@ -21654,7 +21690,7 @@
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
       <c r="G103" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H103" s="32"/>
       <c r="I103" s="32"/>
@@ -21759,7 +21795,7 @@
       <c r="D105" s="32"/>
       <c r="E105" s="32"/>
       <c r="F105" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G105" s="32"/>
       <c r="H105" s="32"/>
@@ -21814,7 +21850,7 @@
       <c r="E106" s="32"/>
       <c r="F106" s="32"/>
       <c r="G106" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H106" s="32"/>
       <c r="I106" s="32"/>
@@ -21917,7 +21953,7 @@
       <c r="B108" s="32"/>
       <c r="C108" s="32"/>
       <c r="D108" s="33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E108" s="32"/>
       <c r="F108" s="32"/>
@@ -21972,7 +22008,7 @@
       <c r="C109" s="32"/>
       <c r="D109" s="33"/>
       <c r="E109" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F109" s="32"/>
       <c r="G109" s="32"/>
@@ -22075,7 +22111,7 @@
     <row r="111" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="32"/>
       <c r="B111" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C111" s="32"/>
       <c r="D111" s="32"/>
@@ -22131,7 +22167,7 @@
       <c r="B112" s="32"/>
       <c r="C112" s="32"/>
       <c r="D112" s="33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E112" s="32"/>
       <c r="F112" s="32"/>
@@ -22186,7 +22222,7 @@
       <c r="C113" s="32"/>
       <c r="D113" s="32"/>
       <c r="E113" s="32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F113" s="32"/>
       <c r="G113" s="32"/>
@@ -22292,7 +22328,7 @@
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -22356,7 +22392,7 @@
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
       <c r="O116" s="54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P116" s="34"/>
       <c r="Q116" s="34"/>
@@ -22450,7 +22486,7 @@
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
@@ -22506,7 +22542,7 @@
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -22610,7 +22646,7 @@
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
@@ -22666,7 +22702,7 @@
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -22769,7 +22805,7 @@
     <row r="124" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="6"/>
       <c r="B124" s="33" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C124" s="32"/>
       <c r="D124" s="32"/>
@@ -22825,7 +22861,7 @@
       <c r="B125" s="32"/>
       <c r="C125" s="32"/>
       <c r="D125" s="33" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="32"/>
@@ -22880,7 +22916,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="32"/>
       <c r="E126" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F126" s="32"/>
       <c r="G126" s="32"/>
@@ -22986,7 +23022,7 @@
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -23050,7 +23086,7 @@
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
       <c r="O129" s="54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P129" s="34"/>
       <c r="Q129" s="34"/>
@@ -23144,7 +23180,7 @@
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
@@ -23200,7 +23236,7 @@
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -23304,7 +23340,7 @@
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
@@ -23360,7 +23396,7 @@
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -23826,19 +23862,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="AS1:AX1"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:AD2"/>
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AX2"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AN1"/>
     <mergeCell ref="I9:M9"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B8:H8"/>
@@ -23849,6 +23872,19 @@
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AN1"/>
+    <mergeCell ref="AS1:AX1"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:AD2"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AX2"/>
+    <mergeCell ref="AO1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
